--- a/notebooks/am_tram_stations.xlsx
+++ b/notebooks/am_tram_stations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F465"/>
+  <dimension ref="A1:D465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,16 +454,6 @@
           <t>geometry</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>geo_x</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>geo_y</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,12 +476,6 @@
           <t>POINT (4.8521827 52.3580481)</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>4.8521827</v>
-      </c>
-      <c r="F2" t="n">
-        <v>52.3580481</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -514,12 +498,6 @@
           <t>POINT (4.9193627 52.3635043)</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>4.9193627</v>
-      </c>
-      <c r="F3" t="n">
-        <v>52.3635043</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,12 +520,6 @@
           <t>POINT (4.9053602 52.3679611)</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>4.9053602</v>
-      </c>
-      <c r="F4" t="n">
-        <v>52.3679611</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -570,12 +542,6 @@
           <t>POINT (4.8792047 52.3813125)</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>4.8792047</v>
-      </c>
-      <c r="F5" t="n">
-        <v>52.3813125</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -598,12 +564,6 @@
           <t>POINT (4.8851416 52.388084)</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>4.8851416</v>
-      </c>
-      <c r="F6" t="n">
-        <v>52.388084</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -626,12 +586,6 @@
           <t>POINT (4.8749198 52.3844185)</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>4.8749198</v>
-      </c>
-      <c r="F7" t="n">
-        <v>52.3844185</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -654,12 +608,6 @@
           <t>POINT (4.9289422 52.3609314)</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>4.9289422</v>
-      </c>
-      <c r="F8" t="n">
-        <v>52.3609314</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -682,12 +630,6 @@
           <t>POINT (4.8820871 52.3531224)</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>4.8820871</v>
-      </c>
-      <c r="F9" t="n">
-        <v>52.3531224</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -710,12 +652,6 @@
           <t>POINT (4.8796377 52.3566951)</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>4.8796377</v>
-      </c>
-      <c r="F10" t="n">
-        <v>52.3566951</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -738,12 +674,6 @@
           <t>POINT (4.8791849 52.3785896)</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>4.8791849</v>
-      </c>
-      <c r="F11" t="n">
-        <v>52.3785896</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -766,12 +696,6 @@
           <t>POINT (4.8785423 52.3783985)</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>4.8785423</v>
-      </c>
-      <c r="F12" t="n">
-        <v>52.3783985</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -794,12 +718,6 @@
           <t>POINT (4.875268 52.3784783)</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>4.875268</v>
-      </c>
-      <c r="F13" t="n">
-        <v>52.3784783</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -822,12 +740,6 @@
           <t>POINT (4.8729548 52.3750097)</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>4.8729548</v>
-      </c>
-      <c r="F14" t="n">
-        <v>52.3750097</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -850,12 +762,6 @@
           <t>POINT (4.872531 52.3742987)</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>4.872531</v>
-      </c>
-      <c r="F15" t="n">
-        <v>52.3742987</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -878,12 +784,6 @@
           <t>POINT (4.9324425 52.3659327)</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>4.9324425</v>
-      </c>
-      <c r="F16" t="n">
-        <v>52.3659327</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -906,12 +806,6 @@
           <t>POINT (4.9272032 52.3659058)</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>4.9272032</v>
-      </c>
-      <c r="F17" t="n">
-        <v>52.3659058</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -934,12 +828,6 @@
           <t>POINT (4.9019846 52.3669934)</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>4.9019846</v>
-      </c>
-      <c r="F18" t="n">
-        <v>52.3669934</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -962,12 +850,6 @@
           <t>POINT (4.887104 52.3609734)</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>4.887104</v>
-      </c>
-      <c r="F19" t="n">
-        <v>52.3609734</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -990,12 +872,6 @@
           <t>POINT (4.9348327 52.3730107)</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>4.9348327</v>
-      </c>
-      <c r="F20" t="n">
-        <v>52.3730107</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1018,12 +894,6 @@
           <t>POINT (4.8501741 52.3515256)</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>4.8501741</v>
-      </c>
-      <c r="F21" t="n">
-        <v>52.3515256</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1046,12 +916,6 @@
           <t>POINT (4.8495922 52.3511681)</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>4.8495922</v>
-      </c>
-      <c r="F22" t="n">
-        <v>52.3511681</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1074,12 +938,6 @@
           <t>POINT (4.8909623 52.3599031)</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>4.8909623</v>
-      </c>
-      <c r="F23" t="n">
-        <v>52.3599031</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1102,12 +960,6 @@
           <t>POINT (4.9520639 52.3652037)</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>4.9520639</v>
-      </c>
-      <c r="F24" t="n">
-        <v>52.3652037</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1130,12 +982,6 @@
           <t>POINT (4.8716334 52.3027943)</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>4.8716334</v>
-      </c>
-      <c r="F25" t="n">
-        <v>52.3027943</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1158,12 +1004,6 @@
           <t>POINT (4.8678081 52.2964918)</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>4.8678081</v>
-      </c>
-      <c r="F26" t="n">
-        <v>52.2964918</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1186,12 +1026,6 @@
           <t>POINT (4.8342872 52.3514907)</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>4.8342872</v>
-      </c>
-      <c r="F27" t="n">
-        <v>52.3514907</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1214,12 +1048,6 @@
           <t>POINT (4.8242594 52.3466865)</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>4.8242594</v>
-      </c>
-      <c r="F28" t="n">
-        <v>52.3466865</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1242,12 +1070,6 @@
           <t>POINT (4.8767774 52.3426151)</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>4.8767774</v>
-      </c>
-      <c r="F29" t="n">
-        <v>52.3426151</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1270,12 +1092,6 @@
           <t>POINT (4.8921974 52.3402318)</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>4.8921974</v>
-      </c>
-      <c r="F30" t="n">
-        <v>52.3402318</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1298,12 +1114,6 @@
           <t>POINT (4.8575492 52.3492152)</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>4.8575492</v>
-      </c>
-      <c r="F31" t="n">
-        <v>52.3492152</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1326,12 +1136,6 @@
           <t>POINT (4.8795995 52.3560193)</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>4.8795995</v>
-      </c>
-      <c r="F32" t="n">
-        <v>52.3560193</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1354,12 +1158,6 @@
           <t>POINT (4.8156883 52.3464422)</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>4.8156883</v>
-      </c>
-      <c r="F33" t="n">
-        <v>52.3464422</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1382,12 +1180,6 @@
           <t>POINT (4.8110474 52.3463857)</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>4.8110474</v>
-      </c>
-      <c r="F34" t="n">
-        <v>52.3463857</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1410,12 +1202,6 @@
           <t>POINT (4.8036706 52.3449284)</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>4.8036706</v>
-      </c>
-      <c r="F35" t="n">
-        <v>52.3449284</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1438,12 +1224,6 @@
           <t>POINT (4.8041222 52.3450454)</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>4.8041222</v>
-      </c>
-      <c r="F36" t="n">
-        <v>52.3450454</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1466,12 +1246,6 @@
           <t>POINT (4.9134308 52.3772063)</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>4.9134308</v>
-      </c>
-      <c r="F37" t="n">
-        <v>52.3772063</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1494,12 +1268,6 @@
           <t>POINT (4.8522191 52.2804726)</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>4.8522191</v>
-      </c>
-      <c r="F38" t="n">
-        <v>52.2804726</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1522,12 +1290,6 @@
           <t>POINT (4.8458857 52.2831286)</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>4.8458857</v>
-      </c>
-      <c r="F39" t="n">
-        <v>52.2831286</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1550,12 +1312,6 @@
           <t>POINT (4.8401257 52.3579358)</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>4.8401257</v>
-      </c>
-      <c r="F40" t="n">
-        <v>52.3579358</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1578,12 +1334,6 @@
           <t>POINT (4.834559 52.3578798)</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>4.834559</v>
-      </c>
-      <c r="F41" t="n">
-        <v>52.3578798</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1606,12 +1356,6 @@
           <t>POINT (4.8531786 52.3647729)</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>4.8531786</v>
-      </c>
-      <c r="F42" t="n">
-        <v>52.3647729</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1634,12 +1378,6 @@
           <t>POINT (4.8107529 52.3565093)</t>
         </is>
       </c>
-      <c r="E43" t="n">
-        <v>4.8107529</v>
-      </c>
-      <c r="F43" t="n">
-        <v>52.3565093</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1662,12 +1400,6 @@
           <t>POINT (4.8509943 52.3580728)</t>
         </is>
       </c>
-      <c r="E44" t="n">
-        <v>4.8509943</v>
-      </c>
-      <c r="F44" t="n">
-        <v>52.3580728</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1690,12 +1422,6 @@
           <t>POINT (4.8456281 52.3515685)</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>4.8456281</v>
-      </c>
-      <c r="F45" t="n">
-        <v>52.3515685</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1718,12 +1444,6 @@
           <t>POINT (4.870782 52.3560251)</t>
         </is>
       </c>
-      <c r="E46" t="n">
-        <v>4.870782</v>
-      </c>
-      <c r="F46" t="n">
-        <v>52.3560251</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1746,12 +1466,6 @@
           <t>POINT (4.8812446 52.358854)</t>
         </is>
       </c>
-      <c r="E47" t="n">
-        <v>4.8812446</v>
-      </c>
-      <c r="F47" t="n">
-        <v>52.358854</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1774,12 +1488,6 @@
           <t>POINT (4.8450525 52.2833338)</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>4.8450525</v>
-      </c>
-      <c r="F48" t="n">
-        <v>52.2833338</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1802,12 +1510,6 @@
           <t>POINT (4.8513367 52.2806292)</t>
         </is>
       </c>
-      <c r="E49" t="n">
-        <v>4.8513367</v>
-      </c>
-      <c r="F49" t="n">
-        <v>52.2806292</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1830,12 +1532,6 @@
           <t>POINT (4.8569707 52.2808905)</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>4.8569707</v>
-      </c>
-      <c r="F50" t="n">
-        <v>52.2808905</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1858,12 +1554,6 @@
           <t>POINT (4.8670933 52.3012694)</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>4.8670933</v>
-      </c>
-      <c r="F51" t="n">
-        <v>52.3012694</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1886,12 +1576,6 @@
           <t>POINT (4.8686793 52.3382075)</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>4.8686793</v>
-      </c>
-      <c r="F52" t="n">
-        <v>52.3382075</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1914,12 +1598,6 @@
           <t>POINT (4.8400481 52.2920559)</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>4.8400481</v>
-      </c>
-      <c r="F53" t="n">
-        <v>52.2920559</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1942,12 +1620,6 @@
           <t>POINT (4.8552783 52.3153498)</t>
         </is>
       </c>
-      <c r="E54" t="n">
-        <v>4.8552783</v>
-      </c>
-      <c r="F54" t="n">
-        <v>52.3153498</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1970,12 +1642,6 @@
           <t>POINT (4.8446631 52.3694262)</t>
         </is>
       </c>
-      <c r="E55" t="n">
-        <v>4.8446631</v>
-      </c>
-      <c r="F55" t="n">
-        <v>52.3694262</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1998,12 +1664,6 @@
           <t>POINT (4.8029118 52.3772607)</t>
         </is>
       </c>
-      <c r="E56" t="n">
-        <v>4.8029118</v>
-      </c>
-      <c r="F56" t="n">
-        <v>52.3772607</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2026,12 +1686,6 @@
           <t>POINT (4.9474911 52.3432024)</t>
         </is>
       </c>
-      <c r="E57" t="n">
-        <v>4.9474911</v>
-      </c>
-      <c r="F57" t="n">
-        <v>52.3432024</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2054,12 +1708,6 @@
           <t>POINT (4.8032411 52.3590594)</t>
         </is>
       </c>
-      <c r="E58" t="n">
-        <v>4.8032411</v>
-      </c>
-      <c r="F58" t="n">
-        <v>52.3590594</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2082,12 +1730,6 @@
           <t>POINT (4.8565436 52.3279919)</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>4.8565436</v>
-      </c>
-      <c r="F59" t="n">
-        <v>52.3279919</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2110,12 +1752,6 @@
           <t>POINT (4.8544501 52.3352796)</t>
         </is>
       </c>
-      <c r="E60" t="n">
-        <v>4.8544501</v>
-      </c>
-      <c r="F60" t="n">
-        <v>52.3352796</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2138,12 +1774,6 @@
           <t>POINT (4.8524016 52.3411779)</t>
         </is>
       </c>
-      <c r="E61" t="n">
-        <v>4.8524016</v>
-      </c>
-      <c r="F61" t="n">
-        <v>52.3411779</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2166,12 +1796,6 @@
           <t>POINT (4.8708148 52.3710541)</t>
         </is>
       </c>
-      <c r="E62" t="n">
-        <v>4.8708148</v>
-      </c>
-      <c r="F62" t="n">
-        <v>52.3710541</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2194,12 +1818,6 @@
           <t>POINT (4.9373469 52.3768181)</t>
         </is>
       </c>
-      <c r="E63" t="n">
-        <v>4.9373469</v>
-      </c>
-      <c r="F63" t="n">
-        <v>52.3768181</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2222,12 +1840,6 @@
           <t>POINT (4.9373223 52.3766133)</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>4.9373223</v>
-      </c>
-      <c r="F64" t="n">
-        <v>52.3766133</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2250,12 +1862,6 @@
           <t>POINT (4.8730291 52.3467738)</t>
         </is>
       </c>
-      <c r="E65" t="n">
-        <v>4.8730291</v>
-      </c>
-      <c r="F65" t="n">
-        <v>52.3467738</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2278,12 +1884,6 @@
           <t>POINT (4.8762769 52.3468693)</t>
         </is>
       </c>
-      <c r="E66" t="n">
-        <v>4.8762769</v>
-      </c>
-      <c r="F66" t="n">
-        <v>52.3468693</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2306,12 +1906,6 @@
           <t>POINT (4.8771911 52.3488198)</t>
         </is>
       </c>
-      <c r="E67" t="n">
-        <v>4.8771911</v>
-      </c>
-      <c r="F67" t="n">
-        <v>52.3488198</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2334,12 +1928,6 @@
           <t>POINT (4.877365 52.3492157)</t>
         </is>
       </c>
-      <c r="E68" t="n">
-        <v>4.877365</v>
-      </c>
-      <c r="F68" t="n">
-        <v>52.3492157</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2362,12 +1950,6 @@
           <t>POINT (4.8479601 52.3015775)</t>
         </is>
       </c>
-      <c r="E69" t="n">
-        <v>4.8479601</v>
-      </c>
-      <c r="F69" t="n">
-        <v>52.3015775</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2390,12 +1972,6 @@
           <t>POINT (4.8739688 52.3408227)</t>
         </is>
       </c>
-      <c r="E70" t="n">
-        <v>4.8739688</v>
-      </c>
-      <c r="F70" t="n">
-        <v>52.3408227</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2418,12 +1994,6 @@
           <t>POINT (4.9263002 52.3681426)</t>
         </is>
       </c>
-      <c r="E71" t="n">
-        <v>4.9263002</v>
-      </c>
-      <c r="F71" t="n">
-        <v>52.3681426</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2446,12 +2016,6 @@
           <t>POINT (4.8689764 52.3248943)</t>
         </is>
       </c>
-      <c r="E72" t="n">
-        <v>4.8689764</v>
-      </c>
-      <c r="F72" t="n">
-        <v>52.3248943</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2474,12 +2038,6 @@
           <t>POINT (4.8691021 52.3212764)</t>
         </is>
       </c>
-      <c r="E73" t="n">
-        <v>4.8691021</v>
-      </c>
-      <c r="F73" t="n">
-        <v>52.3212764</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2502,12 +2060,6 @@
           <t>POINT (4.9334664 52.3732299)</t>
         </is>
       </c>
-      <c r="E74" t="n">
-        <v>4.9334664</v>
-      </c>
-      <c r="F74" t="n">
-        <v>52.3732299</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2530,12 +2082,6 @@
           <t>POINT (4.8658574 52.3463018)</t>
         </is>
       </c>
-      <c r="E75" t="n">
-        <v>4.8658574</v>
-      </c>
-      <c r="F75" t="n">
-        <v>52.3463018</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2558,12 +2104,6 @@
           <t>POINT (4.8983188 52.3638329)</t>
         </is>
       </c>
-      <c r="E76" t="n">
-        <v>4.8983188</v>
-      </c>
-      <c r="F76" t="n">
-        <v>52.3638329</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2586,12 +2126,6 @@
           <t>POINT (4.8992936 52.3601777)</t>
         </is>
       </c>
-      <c r="E77" t="n">
-        <v>4.8992936</v>
-      </c>
-      <c r="F77" t="n">
-        <v>52.3601777</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2614,12 +2148,6 @@
           <t>POINT (4.8992468 52.3581612)</t>
         </is>
       </c>
-      <c r="E78" t="n">
-        <v>4.8992468</v>
-      </c>
-      <c r="F78" t="n">
-        <v>52.3581612</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2642,12 +2170,6 @@
           <t>POINT (4.9011051 52.3446536)</t>
         </is>
       </c>
-      <c r="E79" t="n">
-        <v>4.9011051</v>
-      </c>
-      <c r="F79" t="n">
-        <v>52.3446536</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2670,12 +2192,6 @@
           <t>POINT (4.9005615 52.3444211)</t>
         </is>
       </c>
-      <c r="E80" t="n">
-        <v>4.9005615</v>
-      </c>
-      <c r="F80" t="n">
-        <v>52.3444211</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2698,12 +2214,6 @@
           <t>POINT (4.8962714 52.3428638)</t>
         </is>
       </c>
-      <c r="E81" t="n">
-        <v>4.8962714</v>
-      </c>
-      <c r="F81" t="n">
-        <v>52.3428638</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2726,12 +2236,6 @@
           <t>POINT (4.896873 52.343118)</t>
         </is>
       </c>
-      <c r="E82" t="n">
-        <v>4.896873</v>
-      </c>
-      <c r="F82" t="n">
-        <v>52.343118</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2754,12 +2258,6 @@
           <t>POINT (4.8930059 52.341925)</t>
         </is>
       </c>
-      <c r="E83" t="n">
-        <v>4.8930059</v>
-      </c>
-      <c r="F83" t="n">
-        <v>52.341925</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2782,12 +2280,6 @@
           <t>POINT (4.8905473 52.3369049)</t>
         </is>
       </c>
-      <c r="E84" t="n">
-        <v>4.8905473</v>
-      </c>
-      <c r="F84" t="n">
-        <v>52.3369049</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2810,12 +2302,6 @@
           <t>POINT (4.9008616 52.3546903)</t>
         </is>
       </c>
-      <c r="E85" t="n">
-        <v>4.9008616</v>
-      </c>
-      <c r="F85" t="n">
-        <v>52.3546903</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2838,12 +2324,6 @@
           <t>POINT (4.9015849 52.3549446)</t>
         </is>
       </c>
-      <c r="E86" t="n">
-        <v>4.9015849</v>
-      </c>
-      <c r="F86" t="n">
-        <v>52.3549446</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2866,12 +2346,6 @@
           <t>POINT (4.9248123 52.3668676)</t>
         </is>
       </c>
-      <c r="E87" t="n">
-        <v>4.9248123</v>
-      </c>
-      <c r="F87" t="n">
-        <v>52.3668676</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2894,12 +2368,6 @@
           <t>POINT (4.9293975 52.3700769)</t>
         </is>
       </c>
-      <c r="E88" t="n">
-        <v>4.9293975</v>
-      </c>
-      <c r="F88" t="n">
-        <v>52.3700769</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2922,12 +2390,6 @@
           <t>POINT (4.8077454 52.359326)</t>
         </is>
       </c>
-      <c r="E89" t="n">
-        <v>4.8077454</v>
-      </c>
-      <c r="F89" t="n">
-        <v>52.359326</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2950,12 +2412,6 @@
           <t>POINT (4.8843839 52.3650035)</t>
         </is>
       </c>
-      <c r="E90" t="n">
-        <v>4.8843839</v>
-      </c>
-      <c r="F90" t="n">
-        <v>52.3650035</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2978,12 +2434,6 @@
           <t>POINT (4.8863435 52.3659309)</t>
         </is>
       </c>
-      <c r="E91" t="n">
-        <v>4.8863435</v>
-      </c>
-      <c r="F91" t="n">
-        <v>52.3659309</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3006,12 +2456,6 @@
           <t>POINT (5.0049024 52.3511345)</t>
         </is>
       </c>
-      <c r="E92" t="n">
-        <v>5.0049024</v>
-      </c>
-      <c r="F92" t="n">
-        <v>52.3511345</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3034,12 +2478,6 @@
           <t>POINT (4.8583402 52.3452652)</t>
         </is>
       </c>
-      <c r="E93" t="n">
-        <v>4.8583402</v>
-      </c>
-      <c r="F93" t="n">
-        <v>52.3452652</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3062,12 +2500,6 @@
           <t>POINT (4.9003819 52.3778942)</t>
         </is>
       </c>
-      <c r="E94" t="n">
-        <v>4.9003819</v>
-      </c>
-      <c r="F94" t="n">
-        <v>52.3778942</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3090,12 +2522,6 @@
           <t>POINT (4.9009769 52.3778507)</t>
         </is>
       </c>
-      <c r="E95" t="n">
-        <v>4.9009769</v>
-      </c>
-      <c r="F95" t="n">
-        <v>52.3778507</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3118,12 +2544,6 @@
           <t>POINT (4.9071213 52.3610021)</t>
         </is>
       </c>
-      <c r="E96" t="n">
-        <v>4.9071213</v>
-      </c>
-      <c r="F96" t="n">
-        <v>52.3610021</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3146,12 +2566,6 @@
           <t>POINT (4.9091584 52.3614042)</t>
         </is>
       </c>
-      <c r="E97" t="n">
-        <v>4.9091584</v>
-      </c>
-      <c r="F97" t="n">
-        <v>52.3614042</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3174,12 +2588,6 @@
           <t>POINT (4.9093615 52.3572865)</t>
         </is>
       </c>
-      <c r="E98" t="n">
-        <v>4.9093615</v>
-      </c>
-      <c r="F98" t="n">
-        <v>52.3572865</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3202,12 +2610,6 @@
           <t>POINT (4.9328494 52.3612127)</t>
         </is>
       </c>
-      <c r="E99" t="n">
-        <v>4.9328494</v>
-      </c>
-      <c r="F99" t="n">
-        <v>52.3612127</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3230,12 +2632,6 @@
           <t>POINT (4.9109989 52.3471106)</t>
         </is>
       </c>
-      <c r="E100" t="n">
-        <v>4.9109989</v>
-      </c>
-      <c r="F100" t="n">
-        <v>52.3471106</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3258,12 +2654,6 @@
           <t>POINT (4.9003351 52.3468171)</t>
         </is>
       </c>
-      <c r="E101" t="n">
-        <v>4.9003351</v>
-      </c>
-      <c r="F101" t="n">
-        <v>52.3468171</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3286,12 +2676,6 @@
           <t>POINT (4.8997164 52.3465631)</t>
         </is>
       </c>
-      <c r="E102" t="n">
-        <v>4.8997164</v>
-      </c>
-      <c r="F102" t="n">
-        <v>52.3465631</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3314,12 +2698,6 @@
           <t>POINT (4.8915256 52.3472646)</t>
         </is>
       </c>
-      <c r="E103" t="n">
-        <v>4.8915256</v>
-      </c>
-      <c r="F103" t="n">
-        <v>52.3472646</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3342,12 +2720,6 @@
           <t>POINT (4.8508513 52.3828002)</t>
         </is>
       </c>
-      <c r="E104" t="n">
-        <v>4.8508513</v>
-      </c>
-      <c r="F104" t="n">
-        <v>52.3828002</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3370,12 +2742,6 @@
           <t>POINT (4.8539004 52.3811188)</t>
         </is>
       </c>
-      <c r="E105" t="n">
-        <v>4.8539004</v>
-      </c>
-      <c r="F105" t="n">
-        <v>52.3811188</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3398,12 +2764,6 @@
           <t>POINT (4.8569721 52.3788687)</t>
         </is>
       </c>
-      <c r="E106" t="n">
-        <v>4.8569721</v>
-      </c>
-      <c r="F106" t="n">
-        <v>52.3788687</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3426,12 +2786,6 @@
           <t>POINT (4.8577243 52.3773555)</t>
         </is>
       </c>
-      <c r="E107" t="n">
-        <v>4.8577243</v>
-      </c>
-      <c r="F107" t="n">
-        <v>52.3773555</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3454,12 +2808,6 @@
           <t>POINT (4.8584711 52.3751323)</t>
         </is>
       </c>
-      <c r="E108" t="n">
-        <v>4.8584711</v>
-      </c>
-      <c r="F108" t="n">
-        <v>52.3751323</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3482,12 +2830,6 @@
           <t>POINT (4.8586427 52.3743002)</t>
         </is>
       </c>
-      <c r="E109" t="n">
-        <v>4.8586427</v>
-      </c>
-      <c r="F109" t="n">
-        <v>52.3743002</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3510,12 +2852,6 @@
           <t>POINT (4.8600128 52.371502)</t>
         </is>
       </c>
-      <c r="E110" t="n">
-        <v>4.8600128</v>
-      </c>
-      <c r="F110" t="n">
-        <v>52.371502</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3538,12 +2874,6 @@
           <t>POINT (4.8636349 52.3706925)</t>
         </is>
       </c>
-      <c r="E111" t="n">
-        <v>4.8636349</v>
-      </c>
-      <c r="F111" t="n">
-        <v>52.3706925</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3566,12 +2896,6 @@
           <t>POINT (4.9388456 52.3735665)</t>
         </is>
       </c>
-      <c r="E112" t="n">
-        <v>4.9388456</v>
-      </c>
-      <c r="F112" t="n">
-        <v>52.3735665</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3594,12 +2918,6 @@
           <t>POINT (4.9192366 52.3638735)</t>
         </is>
       </c>
-      <c r="E113" t="n">
-        <v>4.9192366</v>
-      </c>
-      <c r="F113" t="n">
-        <v>52.3638735</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3622,12 +2940,6 @@
           <t>POINT (4.9135923 52.3623479)</t>
         </is>
       </c>
-      <c r="E114" t="n">
-        <v>4.9135923</v>
-      </c>
-      <c r="F114" t="n">
-        <v>52.3623479</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3650,12 +2962,6 @@
           <t>POINT (4.8921024 52.3595051)</t>
         </is>
       </c>
-      <c r="E115" t="n">
-        <v>4.8921024</v>
-      </c>
-      <c r="F115" t="n">
-        <v>52.3595051</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3678,12 +2984,6 @@
           <t>POINT (4.8788587 52.3780596)</t>
         </is>
       </c>
-      <c r="E116" t="n">
-        <v>4.8788587</v>
-      </c>
-      <c r="F116" t="n">
-        <v>52.3780596</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3706,12 +3006,6 @@
           <t>POINT (4.8770204 52.3832175)</t>
         </is>
       </c>
-      <c r="E117" t="n">
-        <v>4.8770204</v>
-      </c>
-      <c r="F117" t="n">
-        <v>52.3832175</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3734,12 +3028,6 @@
           <t>POINT (4.8698541 52.3842644)</t>
         </is>
       </c>
-      <c r="E118" t="n">
-        <v>4.8698541</v>
-      </c>
-      <c r="F118" t="n">
-        <v>52.3842644</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3762,12 +3050,6 @@
           <t>POINT (4.9555768 52.3393768)</t>
         </is>
       </c>
-      <c r="E119" t="n">
-        <v>4.9555768</v>
-      </c>
-      <c r="F119" t="n">
-        <v>52.3393768</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3790,12 +3072,6 @@
           <t>POINT (4.935404 52.3507313)</t>
         </is>
       </c>
-      <c r="E120" t="n">
-        <v>4.935404</v>
-      </c>
-      <c r="F120" t="n">
-        <v>52.3507313</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3818,12 +3094,6 @@
           <t>POINT (4.9308725 52.353568)</t>
         </is>
       </c>
-      <c r="E121" t="n">
-        <v>4.9308725</v>
-      </c>
-      <c r="F121" t="n">
-        <v>52.353568</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3846,12 +3116,6 @@
           <t>POINT (4.9272293 52.3570067)</t>
         </is>
       </c>
-      <c r="E122" t="n">
-        <v>4.9272293</v>
-      </c>
-      <c r="F122" t="n">
-        <v>52.3570067</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3874,12 +3138,6 @@
           <t>POINT (4.9257029 52.3601162)</t>
         </is>
       </c>
-      <c r="E123" t="n">
-        <v>4.9257029</v>
-      </c>
-      <c r="F123" t="n">
-        <v>52.3601162</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3902,12 +3160,6 @@
           <t>POINT (4.92547 52.3597959)</t>
         </is>
       </c>
-      <c r="E124" t="n">
-        <v>4.92547</v>
-      </c>
-      <c r="F124" t="n">
-        <v>52.3597959</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3930,12 +3182,6 @@
           <t>POINT (4.910955 52.3667187)</t>
         </is>
       </c>
-      <c r="E125" t="n">
-        <v>4.910955</v>
-      </c>
-      <c r="F125" t="n">
-        <v>52.3667187</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3958,12 +3204,6 @@
           <t>POINT (4.9476342 52.3647569)</t>
         </is>
       </c>
-      <c r="E126" t="n">
-        <v>4.9476342</v>
-      </c>
-      <c r="F126" t="n">
-        <v>52.3647569</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3986,12 +3226,6 @@
           <t>POINT (4.9441018 52.3622746)</t>
         </is>
       </c>
-      <c r="E127" t="n">
-        <v>4.9441018</v>
-      </c>
-      <c r="F127" t="n">
-        <v>52.3622746</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4014,12 +3248,6 @@
           <t>POINT (4.9401785 52.3617259)</t>
         </is>
       </c>
-      <c r="E128" t="n">
-        <v>4.9401785</v>
-      </c>
-      <c r="F128" t="n">
-        <v>52.3617259</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4042,12 +3270,6 @@
           <t>POINT (4.9167422 52.3590732)</t>
         </is>
       </c>
-      <c r="E129" t="n">
-        <v>4.9167422</v>
-      </c>
-      <c r="F129" t="n">
-        <v>52.3590732</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4070,12 +3292,6 @@
           <t>POINT (4.8809562 52.381394)</t>
         </is>
       </c>
-      <c r="E130" t="n">
-        <v>4.8809562</v>
-      </c>
-      <c r="F130" t="n">
-        <v>52.381394</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4098,12 +3314,6 @@
           <t>POINT (4.7747567 52.3537327)</t>
         </is>
       </c>
-      <c r="E131" t="n">
-        <v>4.7747567</v>
-      </c>
-      <c r="F131" t="n">
-        <v>52.3537327</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4126,12 +3336,6 @@
           <t>POINT (4.7770976 52.352828)</t>
         </is>
       </c>
-      <c r="E132" t="n">
-        <v>4.7770976</v>
-      </c>
-      <c r="F132" t="n">
-        <v>52.352828</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4154,12 +3358,6 @@
           <t>POINT (4.7836582 52.3501979)</t>
         </is>
       </c>
-      <c r="E133" t="n">
-        <v>4.7836582</v>
-      </c>
-      <c r="F133" t="n">
-        <v>52.3501979</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4182,12 +3380,6 @@
           <t>POINT (4.7888748 52.3498075)</t>
         </is>
       </c>
-      <c r="E134" t="n">
-        <v>4.7888748</v>
-      </c>
-      <c r="F134" t="n">
-        <v>52.3498075</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4210,12 +3402,6 @@
           <t>POINT (4.7951129 52.3510417)</t>
         </is>
       </c>
-      <c r="E135" t="n">
-        <v>4.7951129</v>
-      </c>
-      <c r="F135" t="n">
-        <v>52.3510417</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4238,12 +3424,6 @@
           <t>POINT (4.8025285 52.3525312)</t>
         </is>
       </c>
-      <c r="E136" t="n">
-        <v>4.8025285</v>
-      </c>
-      <c r="F136" t="n">
-        <v>52.3525312</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4266,12 +3446,6 @@
           <t>POINT (4.8091215 52.353933)</t>
         </is>
       </c>
-      <c r="E137" t="n">
-        <v>4.8091215</v>
-      </c>
-      <c r="F137" t="n">
-        <v>52.353933</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4294,12 +3468,6 @@
           <t>POINT (4.7913 52.3564413)</t>
         </is>
       </c>
-      <c r="E138" t="n">
-        <v>4.7913</v>
-      </c>
-      <c r="F138" t="n">
-        <v>52.3564413</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4322,12 +3490,6 @@
           <t>POINT (4.7990044 52.3579858)</t>
         </is>
       </c>
-      <c r="E139" t="n">
-        <v>4.7990044</v>
-      </c>
-      <c r="F139" t="n">
-        <v>52.3579858</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4350,12 +3512,6 @@
           <t>POINT (4.8532957 52.3617312)</t>
         </is>
       </c>
-      <c r="E140" t="n">
-        <v>4.8532957</v>
-      </c>
-      <c r="F140" t="n">
-        <v>52.3617312</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4378,12 +3534,6 @@
           <t>POINT (4.8591799 52.3648019)</t>
         </is>
       </c>
-      <c r="E141" t="n">
-        <v>4.8591799</v>
-      </c>
-      <c r="F141" t="n">
-        <v>52.3648019</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4406,12 +3556,6 @@
           <t>POINT (4.8624057 52.3647282)</t>
         </is>
       </c>
-      <c r="E142" t="n">
-        <v>4.8624057</v>
-      </c>
-      <c r="F142" t="n">
-        <v>52.3647282</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4434,12 +3578,6 @@
           <t>POINT (4.8629428 52.3648823)</t>
         </is>
       </c>
-      <c r="E143" t="n">
-        <v>4.8629428</v>
-      </c>
-      <c r="F143" t="n">
-        <v>52.3648823</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4462,12 +3600,6 @@
           <t>POINT (4.8673314 52.3659077)</t>
         </is>
       </c>
-      <c r="E144" t="n">
-        <v>4.8673314</v>
-      </c>
-      <c r="F144" t="n">
-        <v>52.3659077</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4490,12 +3622,6 @@
           <t>POINT (4.8677297 52.3660363)</t>
         </is>
       </c>
-      <c r="E145" t="n">
-        <v>4.8677297</v>
-      </c>
-      <c r="F145" t="n">
-        <v>52.3660363</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4518,12 +3644,6 @@
           <t>POINT (4.8717631 52.3671254)</t>
         </is>
       </c>
-      <c r="E146" t="n">
-        <v>4.8717631</v>
-      </c>
-      <c r="F146" t="n">
-        <v>52.3671254</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4546,12 +3666,6 @@
           <t>POINT (4.8603541 52.3590503)</t>
         </is>
       </c>
-      <c r="E147" t="n">
-        <v>4.8603541</v>
-      </c>
-      <c r="F147" t="n">
-        <v>52.3590503</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4574,12 +3688,6 @@
           <t>POINT (4.8596776 52.3588447)</t>
         </is>
       </c>
-      <c r="E148" t="n">
-        <v>4.8596776</v>
-      </c>
-      <c r="F148" t="n">
-        <v>52.3588447</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4602,12 +3710,6 @@
           <t>POINT (4.8032895 52.3772583)</t>
         </is>
       </c>
-      <c r="E149" t="n">
-        <v>4.8032895</v>
-      </c>
-      <c r="F149" t="n">
-        <v>52.3772583</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4630,12 +3732,6 @@
           <t>POINT (4.8062691 52.3769399)</t>
         </is>
       </c>
-      <c r="E150" t="n">
-        <v>4.8062691</v>
-      </c>
-      <c r="F150" t="n">
-        <v>52.3769399</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4658,12 +3754,6 @@
           <t>POINT (4.8120231 52.3764548)</t>
         </is>
       </c>
-      <c r="E151" t="n">
-        <v>4.8120231</v>
-      </c>
-      <c r="F151" t="n">
-        <v>52.3764548</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4686,12 +3776,6 @@
           <t>POINT (4.8206483 52.3754362)</t>
         </is>
       </c>
-      <c r="E152" t="n">
-        <v>4.8206483</v>
-      </c>
-      <c r="F152" t="n">
-        <v>52.3754362</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4714,12 +3798,6 @@
           <t>POINT (4.8173607 52.3759547)</t>
         </is>
       </c>
-      <c r="E153" t="n">
-        <v>4.8173607</v>
-      </c>
-      <c r="F153" t="n">
-        <v>52.3759547</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4742,12 +3820,6 @@
           <t>POINT (4.8277027 52.3743645)</t>
         </is>
       </c>
-      <c r="E154" t="n">
-        <v>4.8277027</v>
-      </c>
-      <c r="F154" t="n">
-        <v>52.3743645</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4770,12 +3842,6 @@
           <t>POINT (4.8268013 52.3744723)</t>
         </is>
       </c>
-      <c r="E155" t="n">
-        <v>4.8268013</v>
-      </c>
-      <c r="F155" t="n">
-        <v>52.3744723</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4798,12 +3864,6 @@
           <t>POINT (4.8359077 52.3730297)</t>
         </is>
       </c>
-      <c r="E156" t="n">
-        <v>4.8359077</v>
-      </c>
-      <c r="F156" t="n">
-        <v>52.3730297</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4826,12 +3886,6 @@
           <t>POINT (4.8377996 52.3708325)</t>
         </is>
       </c>
-      <c r="E157" t="n">
-        <v>4.8377996</v>
-      </c>
-      <c r="F157" t="n">
-        <v>52.3708325</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4854,12 +3908,6 @@
           <t>POINT (4.8384594 52.3695968)</t>
         </is>
       </c>
-      <c r="E158" t="n">
-        <v>4.8384594</v>
-      </c>
-      <c r="F158" t="n">
-        <v>52.3695968</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4882,12 +3930,6 @@
           <t>POINT (4.8507957 52.3701459)</t>
         </is>
       </c>
-      <c r="E159" t="n">
-        <v>4.8507957</v>
-      </c>
-      <c r="F159" t="n">
-        <v>52.3701459</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4910,12 +3952,6 @@
           <t>POINT (4.8554942 52.3709604)</t>
         </is>
       </c>
-      <c r="E160" t="n">
-        <v>4.8554942</v>
-      </c>
-      <c r="F160" t="n">
-        <v>52.3709604</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4938,12 +3974,6 @@
           <t>POINT (4.8187509 52.3750672)</t>
         </is>
       </c>
-      <c r="E161" t="n">
-        <v>4.8187509</v>
-      </c>
-      <c r="F161" t="n">
-        <v>52.3750672</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4966,12 +3996,6 @@
           <t>POINT (4.8485891 52.3733319)</t>
         </is>
       </c>
-      <c r="E162" t="n">
-        <v>4.8485891</v>
-      </c>
-      <c r="F162" t="n">
-        <v>52.3733319</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4994,12 +4018,6 @@
           <t>POINT (4.9097221 52.3573493)</t>
         </is>
       </c>
-      <c r="E163" t="n">
-        <v>4.9097221</v>
-      </c>
-      <c r="F163" t="n">
-        <v>52.3573493</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5022,12 +4040,6 @@
           <t>POINT (4.8949263 52.3533345)</t>
         </is>
       </c>
-      <c r="E164" t="n">
-        <v>4.8949263</v>
-      </c>
-      <c r="F164" t="n">
-        <v>52.3533345</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5050,12 +4062,6 @@
           <t>POINT (4.8572486 52.338422)</t>
         </is>
       </c>
-      <c r="E165" t="n">
-        <v>4.8572486</v>
-      </c>
-      <c r="F165" t="n">
-        <v>52.338422</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5078,12 +4084,6 @@
           <t>POINT (4.857301 52.3382323)</t>
         </is>
       </c>
-      <c r="E166" t="n">
-        <v>4.857301</v>
-      </c>
-      <c r="F166" t="n">
-        <v>52.3382323</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5106,12 +4106,6 @@
           <t>POINT (4.8577457 52.3416051)</t>
         </is>
       </c>
-      <c r="E167" t="n">
-        <v>4.8577457</v>
-      </c>
-      <c r="F167" t="n">
-        <v>52.3416051</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5134,12 +4128,6 @@
           <t>POINT (4.8575621 52.3405981)</t>
         </is>
       </c>
-      <c r="E168" t="n">
-        <v>4.8575621</v>
-      </c>
-      <c r="F168" t="n">
-        <v>52.3405981</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5162,12 +4150,6 @@
           <t>POINT (4.8568368 52.3440249)</t>
         </is>
       </c>
-      <c r="E169" t="n">
-        <v>4.8568368</v>
-      </c>
-      <c r="F169" t="n">
-        <v>52.3440249</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5190,12 +4172,6 @@
           <t>POINT (4.8695155 52.3529363)</t>
         </is>
       </c>
-      <c r="E170" t="n">
-        <v>4.8695155</v>
-      </c>
-      <c r="F170" t="n">
-        <v>52.3529363</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5218,12 +4194,6 @@
           <t>POINT (4.8775579 52.3695272)</t>
         </is>
       </c>
-      <c r="E171" t="n">
-        <v>4.8775579</v>
-      </c>
-      <c r="F171" t="n">
-        <v>52.3695272</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5246,12 +4216,6 @@
           <t>POINT (4.9398853 52.3479273)</t>
         </is>
       </c>
-      <c r="E172" t="n">
-        <v>4.9398853</v>
-      </c>
-      <c r="F172" t="n">
-        <v>52.3479273</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5274,12 +4238,6 @@
           <t>POINT (4.8464234 52.3771934)</t>
         </is>
       </c>
-      <c r="E173" t="n">
-        <v>4.8464234</v>
-      </c>
-      <c r="F173" t="n">
-        <v>52.3771934</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5302,12 +4260,6 @@
           <t>POINT (4.8275024 52.3491038)</t>
         </is>
       </c>
-      <c r="E174" t="n">
-        <v>4.8275024</v>
-      </c>
-      <c r="F174" t="n">
-        <v>52.3491038</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5330,12 +4282,6 @@
           <t>POINT (4.8449335 52.3777823)</t>
         </is>
       </c>
-      <c r="E175" t="n">
-        <v>4.8449335</v>
-      </c>
-      <c r="F175" t="n">
-        <v>52.3777823</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5358,12 +4304,6 @@
           <t>POINT (4.8274406 52.349218)</t>
         </is>
       </c>
-      <c r="E176" t="n">
-        <v>4.8274406</v>
-      </c>
-      <c r="F176" t="n">
-        <v>52.349218</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5386,12 +4326,6 @@
           <t>POINT (4.8312794 52.3798913)</t>
         </is>
       </c>
-      <c r="E177" t="n">
-        <v>4.8312794</v>
-      </c>
-      <c r="F177" t="n">
-        <v>52.3798913</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5414,12 +4348,6 @@
           <t>POINT (4.8382938 52.3787581)</t>
         </is>
       </c>
-      <c r="E178" t="n">
-        <v>4.8382938</v>
-      </c>
-      <c r="F178" t="n">
-        <v>52.3787581</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5442,12 +4370,6 @@
           <t>POINT (4.8211591 52.3808373)</t>
         </is>
       </c>
-      <c r="E179" t="n">
-        <v>4.8211591</v>
-      </c>
-      <c r="F179" t="n">
-        <v>52.3808373</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5470,12 +4392,6 @@
           <t>POINT (4.8372054 52.378963)</t>
         </is>
       </c>
-      <c r="E180" t="n">
-        <v>4.8372054</v>
-      </c>
-      <c r="F180" t="n">
-        <v>52.378963</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5498,12 +4414,6 @@
           <t>POINT (4.8758665 52.3726552)</t>
         </is>
       </c>
-      <c r="E181" t="n">
-        <v>4.8758665</v>
-      </c>
-      <c r="F181" t="n">
-        <v>52.3726552</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5526,12 +4436,6 @@
           <t>POINT (4.8763385 52.3723364)</t>
         </is>
       </c>
-      <c r="E182" t="n">
-        <v>4.8763385</v>
-      </c>
-      <c r="F182" t="n">
-        <v>52.3723364</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5554,12 +4458,6 @@
           <t>POINT (4.8225241 52.3812253)</t>
         </is>
       </c>
-      <c r="E183" t="n">
-        <v>4.8225241</v>
-      </c>
-      <c r="F183" t="n">
-        <v>52.3812253</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5582,12 +4480,6 @@
           <t>POINT (4.8784804 52.3681689)</t>
         </is>
       </c>
-      <c r="E184" t="n">
-        <v>4.8784804</v>
-      </c>
-      <c r="F184" t="n">
-        <v>52.3681689</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5610,12 +4502,6 @@
           <t>POINT (4.8258104 52.38075)</t>
         </is>
       </c>
-      <c r="E185" t="n">
-        <v>4.8258104</v>
-      </c>
-      <c r="F185" t="n">
-        <v>52.38075</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5638,12 +4524,6 @@
           <t>POINT (4.8768971 52.368541)</t>
         </is>
       </c>
-      <c r="E186" t="n">
-        <v>4.8768971</v>
-      </c>
-      <c r="F186" t="n">
-        <v>52.368541</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5666,12 +4546,6 @@
           <t>POINT (4.8275036 52.3804505)</t>
         </is>
       </c>
-      <c r="E187" t="n">
-        <v>4.8275036</v>
-      </c>
-      <c r="F187" t="n">
-        <v>52.3804505</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5694,12 +4568,6 @@
           <t>POINT (4.8332396 52.3795507)</t>
         </is>
       </c>
-      <c r="E188" t="n">
-        <v>4.8332396</v>
-      </c>
-      <c r="F188" t="n">
-        <v>52.3795507</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5722,12 +4590,6 @@
           <t>POINT (4.8600614 52.3351977)</t>
         </is>
       </c>
-      <c r="E189" t="n">
-        <v>4.8600614</v>
-      </c>
-      <c r="F189" t="n">
-        <v>52.3351977</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5750,12 +4612,6 @@
           <t>POINT (4.8611177 52.3351485)</t>
         </is>
       </c>
-      <c r="E190" t="n">
-        <v>4.8611177</v>
-      </c>
-      <c r="F190" t="n">
-        <v>52.3351485</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5778,12 +4634,6 @@
           <t>POINT (4.8837739 52.3740565)</t>
         </is>
       </c>
-      <c r="E191" t="n">
-        <v>4.8837739</v>
-      </c>
-      <c r="F191" t="n">
-        <v>52.3740565</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5806,12 +4656,6 @@
           <t>POINT (4.8791804 52.3559245)</t>
         </is>
       </c>
-      <c r="E192" t="n">
-        <v>4.8791804</v>
-      </c>
-      <c r="F192" t="n">
-        <v>52.3559245</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5834,12 +4678,6 @@
           <t>POINT (4.8798 52.3564107)</t>
         </is>
       </c>
-      <c r="E193" t="n">
-        <v>4.8798</v>
-      </c>
-      <c r="F193" t="n">
-        <v>52.3564107</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5862,12 +4700,6 @@
           <t>POINT (4.8569523 52.3438468)</t>
         </is>
       </c>
-      <c r="E194" t="n">
-        <v>4.8569523</v>
-      </c>
-      <c r="F194" t="n">
-        <v>52.3438468</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5890,12 +4722,6 @@
           <t>POINT (4.8843359 52.3740143)</t>
         </is>
       </c>
-      <c r="E195" t="n">
-        <v>4.8843359</v>
-      </c>
-      <c r="F195" t="n">
-        <v>52.3740143</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5918,12 +4744,6 @@
           <t>POINT (4.8567453 52.351218)</t>
         </is>
       </c>
-      <c r="E196" t="n">
-        <v>4.8567453</v>
-      </c>
-      <c r="F196" t="n">
-        <v>52.351218</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5946,12 +4766,6 @@
           <t>POINT (4.8569254 52.3516105)</t>
         </is>
       </c>
-      <c r="E197" t="n">
-        <v>4.8569254</v>
-      </c>
-      <c r="F197" t="n">
-        <v>52.3516105</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5974,12 +4788,6 @@
           <t>POINT (4.870169 52.3531926)</t>
         </is>
       </c>
-      <c r="E198" t="n">
-        <v>4.870169</v>
-      </c>
-      <c r="F198" t="n">
-        <v>52.3531926</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6002,12 +4810,6 @@
           <t>POINT (4.8560802 52.3513581)</t>
         </is>
       </c>
-      <c r="E199" t="n">
-        <v>4.8560802</v>
-      </c>
-      <c r="F199" t="n">
-        <v>52.3513581</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6030,12 +4832,6 @@
           <t>POINT (4.8564723 52.3517583)</t>
         </is>
       </c>
-      <c r="E200" t="n">
-        <v>4.8564723</v>
-      </c>
-      <c r="F200" t="n">
-        <v>52.3517583</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6058,12 +4854,6 @@
           <t>POINT (4.8934715 52.3761313)</t>
         </is>
       </c>
-      <c r="E201" t="n">
-        <v>4.8934715</v>
-      </c>
-      <c r="F201" t="n">
-        <v>52.3761313</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6086,12 +4876,6 @@
           <t>POINT (4.8930014 52.3758615)</t>
         </is>
       </c>
-      <c r="E202" t="n">
-        <v>4.8930014</v>
-      </c>
-      <c r="F202" t="n">
-        <v>52.3758615</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6114,12 +4898,6 @@
           <t>POINT (4.8337504 52.3515095)</t>
         </is>
       </c>
-      <c r="E203" t="n">
-        <v>4.8337504</v>
-      </c>
-      <c r="F203" t="n">
-        <v>52.3515095</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6142,12 +4920,6 @@
           <t>POINT (4.9220599 52.3760656)</t>
         </is>
       </c>
-      <c r="E204" t="n">
-        <v>4.9220599</v>
-      </c>
-      <c r="F204" t="n">
-        <v>52.3760656</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6170,12 +4942,6 @@
           <t>POINT (4.9616961 52.3720001)</t>
         </is>
       </c>
-      <c r="E205" t="n">
-        <v>4.9616961</v>
-      </c>
-      <c r="F205" t="n">
-        <v>52.3720001</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6198,12 +4964,6 @@
           <t>POINT (4.816387 52.3464822)</t>
         </is>
       </c>
-      <c r="E206" t="n">
-        <v>4.816387</v>
-      </c>
-      <c r="F206" t="n">
-        <v>52.3464822</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6226,12 +4986,6 @@
           <t>POINT (4.8018434 52.3524319)</t>
         </is>
       </c>
-      <c r="E207" t="n">
-        <v>4.8018434</v>
-      </c>
-      <c r="F207" t="n">
-        <v>52.3524319</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6254,12 +5008,6 @@
           <t>POINT (4.8397482 52.3579573)</t>
         </is>
       </c>
-      <c r="E208" t="n">
-        <v>4.8397482</v>
-      </c>
-      <c r="F208" t="n">
-        <v>52.3579573</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6282,12 +5030,6 @@
           <t>POINT (4.9056743 52.3463657)</t>
         </is>
       </c>
-      <c r="E209" t="n">
-        <v>4.9056743</v>
-      </c>
-      <c r="F209" t="n">
-        <v>52.3463657</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6310,12 +5052,6 @@
           <t>POINT (4.905072 52.3467733)</t>
         </is>
       </c>
-      <c r="E210" t="n">
-        <v>4.905072</v>
-      </c>
-      <c r="F210" t="n">
-        <v>52.3467733</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6338,12 +5074,6 @@
           <t>POINT (4.9134821 52.358335)</t>
         </is>
       </c>
-      <c r="E211" t="n">
-        <v>4.9134821</v>
-      </c>
-      <c r="F211" t="n">
-        <v>52.358335</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6366,12 +5096,6 @@
           <t>POINT (4.8551084 52.3708621)</t>
         </is>
       </c>
-      <c r="E212" t="n">
-        <v>4.8551084</v>
-      </c>
-      <c r="F212" t="n">
-        <v>52.3708621</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6394,12 +5118,6 @@
           <t>POINT (4.8659833 52.3352308)</t>
         </is>
       </c>
-      <c r="E213" t="n">
-        <v>4.8659833</v>
-      </c>
-      <c r="F213" t="n">
-        <v>52.3352308</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6422,12 +5140,6 @@
           <t>POINT (4.8705518 52.3712485)</t>
         </is>
       </c>
-      <c r="E214" t="n">
-        <v>4.8705518</v>
-      </c>
-      <c r="F214" t="n">
-        <v>52.3712485</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6450,12 +5162,6 @@
           <t>POINT (4.8186019 52.3728449)</t>
         </is>
       </c>
-      <c r="E215" t="n">
-        <v>4.8186019</v>
-      </c>
-      <c r="F215" t="n">
-        <v>52.3728449</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6478,12 +5184,6 @@
           <t>POINT (4.904043 52.34941)</t>
         </is>
       </c>
-      <c r="E216" t="n">
-        <v>4.904043</v>
-      </c>
-      <c r="F216" t="n">
-        <v>52.34941</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6506,12 +5206,6 @@
           <t>POINT (4.9405051 52.3617404)</t>
         </is>
       </c>
-      <c r="E217" t="n">
-        <v>4.9405051</v>
-      </c>
-      <c r="F217" t="n">
-        <v>52.3617404</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6534,12 +5228,6 @@
           <t>POINT (4.8830722 52.3634714)</t>
         </is>
       </c>
-      <c r="E218" t="n">
-        <v>4.8830722</v>
-      </c>
-      <c r="F218" t="n">
-        <v>52.3634714</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6562,12 +5250,6 @@
           <t>POINT (4.8666219 52.3605256)</t>
         </is>
       </c>
-      <c r="E219" t="n">
-        <v>4.8666219</v>
-      </c>
-      <c r="F219" t="n">
-        <v>52.3605256</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6590,12 +5272,6 @@
           <t>POINT (4.8416382 52.3515418)</t>
         </is>
       </c>
-      <c r="E220" t="n">
-        <v>4.8416382</v>
-      </c>
-      <c r="F220" t="n">
-        <v>52.3515418</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6618,12 +5294,6 @@
           <t>POINT (4.83976 52.351558)</t>
         </is>
       </c>
-      <c r="E221" t="n">
-        <v>4.83976</v>
-      </c>
-      <c r="F221" t="n">
-        <v>52.351558</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6646,12 +5316,6 @@
           <t>POINT (4.8806933 52.3646825)</t>
         </is>
       </c>
-      <c r="E222" t="n">
-        <v>4.8806933</v>
-      </c>
-      <c r="F222" t="n">
-        <v>52.3646825</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6674,12 +5338,6 @@
           <t>POINT (4.8194571 52.3766604)</t>
         </is>
       </c>
-      <c r="E223" t="n">
-        <v>4.8194571</v>
-      </c>
-      <c r="F223" t="n">
-        <v>52.3766604</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6702,12 +5360,6 @@
           <t>POINT (4.8687365 52.3380116)</t>
         </is>
       </c>
-      <c r="E224" t="n">
-        <v>4.8687365</v>
-      </c>
-      <c r="F224" t="n">
-        <v>52.3380116</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6730,12 +5382,6 @@
           <t>POINT (4.8688734 52.3329804)</t>
         </is>
       </c>
-      <c r="E225" t="n">
-        <v>4.8688734</v>
-      </c>
-      <c r="F225" t="n">
-        <v>52.3329804</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6758,12 +5404,6 @@
           <t>POINT (4.8719068 52.3029406)</t>
         </is>
       </c>
-      <c r="E226" t="n">
-        <v>4.8719068</v>
-      </c>
-      <c r="F226" t="n">
-        <v>52.3029406</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6786,12 +5426,6 @@
           <t>POINT (4.8573912 52.2812036)</t>
         </is>
       </c>
-      <c r="E227" t="n">
-        <v>4.8573912</v>
-      </c>
-      <c r="F227" t="n">
-        <v>52.2812036</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6814,12 +5448,6 @@
           <t>POINT (4.8323277 52.2821847)</t>
         </is>
       </c>
-      <c r="E228" t="n">
-        <v>4.8323277</v>
-      </c>
-      <c r="F228" t="n">
-        <v>52.2821847</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6842,12 +5470,6 @@
           <t>POINT (4.7870176 52.3555825)</t>
         </is>
       </c>
-      <c r="E229" t="n">
-        <v>4.7870176</v>
-      </c>
-      <c r="F229" t="n">
-        <v>52.3555825</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6870,12 +5492,6 @@
           <t>POINT (4.7864929 52.3554481)</t>
         </is>
       </c>
-      <c r="E230" t="n">
-        <v>4.7864929</v>
-      </c>
-      <c r="F230" t="n">
-        <v>52.3554481</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6898,12 +5514,6 @@
           <t>POINT (4.8632955 52.3531864)</t>
         </is>
       </c>
-      <c r="E231" t="n">
-        <v>4.8632955</v>
-      </c>
-      <c r="F231" t="n">
-        <v>52.3531864</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6926,12 +5536,6 @@
           <t>POINT (4.8637678 52.3533499)</t>
         </is>
       </c>
-      <c r="E232" t="n">
-        <v>4.8637678</v>
-      </c>
-      <c r="F232" t="n">
-        <v>52.3533499</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6954,12 +5558,6 @@
           <t>POINT (4.776554 52.3530108)</t>
         </is>
       </c>
-      <c r="E233" t="n">
-        <v>4.776554</v>
-      </c>
-      <c r="F233" t="n">
-        <v>52.3530108</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6982,12 +5580,6 @@
           <t>POINT (4.7829483 52.3504489)</t>
         </is>
       </c>
-      <c r="E234" t="n">
-        <v>4.7829483</v>
-      </c>
-      <c r="F234" t="n">
-        <v>52.3504489</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -7010,12 +5602,6 @@
           <t>POINT (4.9336328 52.3611749)</t>
         </is>
       </c>
-      <c r="E235" t="n">
-        <v>4.9336328</v>
-      </c>
-      <c r="F235" t="n">
-        <v>52.3611749</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7038,12 +5624,6 @@
           <t>POINT (4.8392172 52.3879696)</t>
         </is>
       </c>
-      <c r="E236" t="n">
-        <v>4.8392172</v>
-      </c>
-      <c r="F236" t="n">
-        <v>52.3879696</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -7066,12 +5646,6 @@
           <t>POINT (4.8725518 52.3673632)</t>
         </is>
       </c>
-      <c r="E237" t="n">
-        <v>4.8725518</v>
-      </c>
-      <c r="F237" t="n">
-        <v>52.3673632</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7094,12 +5668,6 @@
           <t>POINT (4.8763837 52.3742782)</t>
         </is>
       </c>
-      <c r="E238" t="n">
-        <v>4.8763837</v>
-      </c>
-      <c r="F238" t="n">
-        <v>52.3742782</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7122,12 +5690,6 @@
           <t>POINT (4.8722954 52.3670831)</t>
         </is>
       </c>
-      <c r="E239" t="n">
-        <v>4.8722954</v>
-      </c>
-      <c r="F239" t="n">
-        <v>52.3670831</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7150,12 +5712,6 @@
           <t>POINT (4.9003434 52.3778058)</t>
         </is>
       </c>
-      <c r="E240" t="n">
-        <v>4.9003434</v>
-      </c>
-      <c r="F240" t="n">
-        <v>52.3778058</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7178,12 +5734,6 @@
           <t>POINT (4.9003629 52.3778505)</t>
         </is>
       </c>
-      <c r="E241" t="n">
-        <v>4.9003629</v>
-      </c>
-      <c r="F241" t="n">
-        <v>52.3778505</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7206,12 +5756,6 @@
           <t>POINT (4.8552771 52.3803006)</t>
         </is>
       </c>
-      <c r="E242" t="n">
-        <v>4.8552771</v>
-      </c>
-      <c r="F242" t="n">
-        <v>52.3803006</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7234,12 +5778,6 @@
           <t>POINT (4.8522251 52.3820439)</t>
         </is>
       </c>
-      <c r="E243" t="n">
-        <v>4.8522251</v>
-      </c>
-      <c r="F243" t="n">
-        <v>52.3820439</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7262,12 +5800,6 @@
           <t>POINT (4.8921252 52.3694572)</t>
         </is>
       </c>
-      <c r="E244" t="n">
-        <v>4.8921252</v>
-      </c>
-      <c r="F244" t="n">
-        <v>52.3694572</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7290,12 +5822,6 @@
           <t>POINT (4.892274 52.3697221)</t>
         </is>
       </c>
-      <c r="E245" t="n">
-        <v>4.892274</v>
-      </c>
-      <c r="F245" t="n">
-        <v>52.3697221</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7318,12 +5844,6 @@
           <t>POINT (4.8964238 52.3662601)</t>
         </is>
       </c>
-      <c r="E246" t="n">
-        <v>4.8964238</v>
-      </c>
-      <c r="F246" t="n">
-        <v>52.3662601</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7346,12 +5866,6 @@
           <t>POINT (4.9022284 52.3671715)</t>
         </is>
       </c>
-      <c r="E247" t="n">
-        <v>4.9022284</v>
-      </c>
-      <c r="F247" t="n">
-        <v>52.3671715</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7374,12 +5888,6 @@
           <t>POINT (4.8910303 52.3600132)</t>
         </is>
       </c>
-      <c r="E248" t="n">
-        <v>4.8910303</v>
-      </c>
-      <c r="F248" t="n">
-        <v>52.3600132</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7402,12 +5910,6 @@
           <t>POINT (4.9058474 52.3677535)</t>
         </is>
       </c>
-      <c r="E249" t="n">
-        <v>4.9058474</v>
-      </c>
-      <c r="F249" t="n">
-        <v>52.3677535</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7430,12 +5932,6 @@
           <t>POINT (4.9113237 52.3665623)</t>
         </is>
       </c>
-      <c r="E250" t="n">
-        <v>4.9113237</v>
-      </c>
-      <c r="F250" t="n">
-        <v>52.3665623</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7458,12 +5954,6 @@
           <t>POINT (4.8982915 52.3637916)</t>
         </is>
       </c>
-      <c r="E251" t="n">
-        <v>4.8982915</v>
-      </c>
-      <c r="F251" t="n">
-        <v>52.3637916</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7486,12 +5976,6 @@
           <t>POINT (4.8989049 52.3590024)</t>
         </is>
       </c>
-      <c r="E252" t="n">
-        <v>4.8989049</v>
-      </c>
-      <c r="F252" t="n">
-        <v>52.3590024</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7514,12 +5998,6 @@
           <t>POINT (4.9010669 52.3550346)</t>
         </is>
       </c>
-      <c r="E253" t="n">
-        <v>4.9010669</v>
-      </c>
-      <c r="F253" t="n">
-        <v>52.3550346</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7542,12 +6020,6 @@
           <t>POINT (4.90332 52.3514501)</t>
         </is>
       </c>
-      <c r="E254" t="n">
-        <v>4.90332</v>
-      </c>
-      <c r="F254" t="n">
-        <v>52.3514501</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7570,12 +6042,6 @@
           <t>POINT (4.9051006 52.3465873)</t>
         </is>
       </c>
-      <c r="E255" t="n">
-        <v>4.9051006</v>
-      </c>
-      <c r="F255" t="n">
-        <v>52.3465873</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7598,12 +6064,6 @@
           <t>POINT (4.9043407 52.3487259)</t>
         </is>
       </c>
-      <c r="E256" t="n">
-        <v>4.9043407</v>
-      </c>
-      <c r="F256" t="n">
-        <v>52.3487259</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7626,12 +6086,6 @@
           <t>POINT (4.9155317 52.3651045)</t>
         </is>
       </c>
-      <c r="E257" t="n">
-        <v>4.9155317</v>
-      </c>
-      <c r="F257" t="n">
-        <v>52.3651045</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7654,12 +6108,6 @@
           <t>POINT (4.9196097 52.3634343)</t>
         </is>
       </c>
-      <c r="E258" t="n">
-        <v>4.9196097</v>
-      </c>
-      <c r="F258" t="n">
-        <v>52.3634343</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7682,12 +6130,6 @@
           <t>POINT (4.9152768 52.3652225)</t>
         </is>
       </c>
-      <c r="E259" t="n">
-        <v>4.9152768</v>
-      </c>
-      <c r="F259" t="n">
-        <v>52.3652225</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7710,12 +6152,6 @@
           <t>POINT (4.9238286 52.3621936)</t>
         </is>
       </c>
-      <c r="E260" t="n">
-        <v>4.9238286</v>
-      </c>
-      <c r="F260" t="n">
-        <v>52.3621936</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7738,12 +6174,6 @@
           <t>POINT (4.9241559 52.361616)</t>
         </is>
       </c>
-      <c r="E261" t="n">
-        <v>4.9241559</v>
-      </c>
-      <c r="F261" t="n">
-        <v>52.361616</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7766,12 +6196,6 @@
           <t>POINT (4.9250867 52.360259)</t>
         </is>
       </c>
-      <c r="E262" t="n">
-        <v>4.9250867</v>
-      </c>
-      <c r="F262" t="n">
-        <v>52.360259</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7794,12 +6218,6 @@
           <t>POINT (4.9269018 52.3574383)</t>
         </is>
       </c>
-      <c r="E263" t="n">
-        <v>4.9269018</v>
-      </c>
-      <c r="F263" t="n">
-        <v>52.3574383</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7822,12 +6240,6 @@
           <t>POINT (4.9546574 52.33957)</t>
         </is>
       </c>
-      <c r="E264" t="n">
-        <v>4.9546574</v>
-      </c>
-      <c r="F264" t="n">
-        <v>52.33957</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7850,12 +6262,6 @@
           <t>POINT (4.934801 52.351066)</t>
         </is>
       </c>
-      <c r="E265" t="n">
-        <v>4.934801</v>
-      </c>
-      <c r="F265" t="n">
-        <v>52.351066</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7878,12 +6284,6 @@
           <t>POINT (4.9404536 52.3476135)</t>
         </is>
       </c>
-      <c r="E266" t="n">
-        <v>4.9404536</v>
-      </c>
-      <c r="F266" t="n">
-        <v>52.3476135</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7906,12 +6306,6 @@
           <t>POINT (4.9478959 52.3428971)</t>
         </is>
       </c>
-      <c r="E267" t="n">
-        <v>4.9478959</v>
-      </c>
-      <c r="F267" t="n">
-        <v>52.3428971</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7934,12 +6328,6 @@
           <t>POINT (4.912547 52.3772761)</t>
         </is>
       </c>
-      <c r="E268" t="n">
-        <v>4.912547</v>
-      </c>
-      <c r="F268" t="n">
-        <v>52.3772761</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7962,12 +6350,6 @@
           <t>POINT (4.9340409 52.3729896)</t>
         </is>
       </c>
-      <c r="E269" t="n">
-        <v>4.9340409</v>
-      </c>
-      <c r="F269" t="n">
-        <v>52.3729896</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7990,12 +6372,6 @@
           <t>POINT (4.9616739 52.3719706)</t>
         </is>
       </c>
-      <c r="E270" t="n">
-        <v>4.9616739</v>
-      </c>
-      <c r="F270" t="n">
-        <v>52.3719706</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -8018,12 +6394,6 @@
           <t>POINT (4.8889206 52.368085)</t>
         </is>
       </c>
-      <c r="E271" t="n">
-        <v>4.8889206</v>
-      </c>
-      <c r="F271" t="n">
-        <v>52.368085</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -8046,12 +6416,6 @@
           <t>POINT (4.968548 52.369133)</t>
         </is>
       </c>
-      <c r="E272" t="n">
-        <v>4.968548</v>
-      </c>
-      <c r="F272" t="n">
-        <v>52.369133</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -8074,12 +6438,6 @@
           <t>POINT (4.9946247 52.3555154)</t>
         </is>
       </c>
-      <c r="E273" t="n">
-        <v>4.9946247</v>
-      </c>
-      <c r="F273" t="n">
-        <v>52.3555154</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -8102,12 +6460,6 @@
           <t>POINT (4.9211099 52.3761672)</t>
         </is>
       </c>
-      <c r="E274" t="n">
-        <v>4.9211099</v>
-      </c>
-      <c r="F274" t="n">
-        <v>52.3761672</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8130,12 +6482,6 @@
           <t>POINT (4.9958806 52.3549103)</t>
         </is>
       </c>
-      <c r="E275" t="n">
-        <v>4.9958806</v>
-      </c>
-      <c r="F275" t="n">
-        <v>52.3549103</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8158,12 +6504,6 @@
           <t>POINT (5.0002302 52.3525961)</t>
         </is>
       </c>
-      <c r="E276" t="n">
-        <v>5.0002302</v>
-      </c>
-      <c r="F276" t="n">
-        <v>52.3525961</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -8186,12 +6526,6 @@
           <t>POINT (4.9990167 52.3531807)</t>
         </is>
       </c>
-      <c r="E277" t="n">
-        <v>4.9990167</v>
-      </c>
-      <c r="F277" t="n">
-        <v>52.3531807</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -8214,12 +6548,6 @@
           <t>POINT (4.876516 52.3744189)</t>
         </is>
       </c>
-      <c r="E278" t="n">
-        <v>4.876516</v>
-      </c>
-      <c r="F278" t="n">
-        <v>52.3744189</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -8242,12 +6570,6 @@
           <t>POINT (4.8461556 52.3858895)</t>
         </is>
       </c>
-      <c r="E279" t="n">
-        <v>4.8461556</v>
-      </c>
-      <c r="F279" t="n">
-        <v>52.3858895</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -8270,12 +6592,6 @@
           <t>POINT (4.9385662 52.3640547)</t>
         </is>
       </c>
-      <c r="E280" t="n">
-        <v>4.9385662</v>
-      </c>
-      <c r="F280" t="n">
-        <v>52.3640547</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8298,12 +6614,6 @@
           <t>POINT (4.9382411 52.3641725)</t>
         </is>
       </c>
-      <c r="E281" t="n">
-        <v>4.9382411</v>
-      </c>
-      <c r="F281" t="n">
-        <v>52.3641725</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8326,12 +6636,6 @@
           <t>POINT (4.9381702 52.3734596)</t>
         </is>
       </c>
-      <c r="E282" t="n">
-        <v>4.9381702</v>
-      </c>
-      <c r="F282" t="n">
-        <v>52.3734596</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8350,12 +6654,6 @@
           <t>POINT (4.9634834 52.3713049)</t>
         </is>
       </c>
-      <c r="E283" t="n">
-        <v>4.9634834</v>
-      </c>
-      <c r="F283" t="n">
-        <v>52.3713049</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8378,12 +6676,6 @@
           <t>POINT (4.9810143 52.3627073)</t>
         </is>
       </c>
-      <c r="E284" t="n">
-        <v>4.9810143</v>
-      </c>
-      <c r="F284" t="n">
-        <v>52.3627073</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8406,12 +6698,6 @@
           <t>POINT (4.9799507 52.3632345)</t>
         </is>
       </c>
-      <c r="E285" t="n">
-        <v>4.9799507</v>
-      </c>
-      <c r="F285" t="n">
-        <v>52.3632345</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8434,12 +6720,6 @@
           <t>POINT (4.890657 52.372357)</t>
         </is>
       </c>
-      <c r="E286" t="n">
-        <v>4.890657</v>
-      </c>
-      <c r="F286" t="n">
-        <v>52.372357</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8462,12 +6742,6 @@
           <t>POINT (4.8968199 52.3662292)</t>
         </is>
       </c>
-      <c r="E287" t="n">
-        <v>4.8968199</v>
-      </c>
-      <c r="F287" t="n">
-        <v>52.3662292</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8490,12 +6764,6 @@
           <t>POINT (4.875944 52.3718196)</t>
         </is>
       </c>
-      <c r="E288" t="n">
-        <v>4.875944</v>
-      </c>
-      <c r="F288" t="n">
-        <v>52.3718196</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8518,12 +6786,6 @@
           <t>POINT (4.8752838 52.3720538)</t>
         </is>
       </c>
-      <c r="E289" t="n">
-        <v>4.8752838</v>
-      </c>
-      <c r="F289" t="n">
-        <v>52.3720538</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8546,12 +6808,6 @@
           <t>POINT (4.9014422 52.3545776)</t>
         </is>
       </c>
-      <c r="E290" t="n">
-        <v>4.9014422</v>
-      </c>
-      <c r="F290" t="n">
-        <v>52.3545776</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8574,12 +6830,6 @@
           <t>POINT (4.893324 52.341887)</t>
         </is>
       </c>
-      <c r="E291" t="n">
-        <v>4.893324</v>
-      </c>
-      <c r="F291" t="n">
-        <v>52.341887</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8602,12 +6852,6 @@
           <t>POINT (4.8922816 52.3404324)</t>
         </is>
       </c>
-      <c r="E292" t="n">
-        <v>4.8922816</v>
-      </c>
-      <c r="F292" t="n">
-        <v>52.3404324</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8630,12 +6874,6 @@
           <t>POINT (4.8906393 52.3369161)</t>
         </is>
       </c>
-      <c r="E293" t="n">
-        <v>4.8906393</v>
-      </c>
-      <c r="F293" t="n">
-        <v>52.3369161</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8658,12 +6896,6 @@
           <t>POINT (4.889801 52.3362207)</t>
         </is>
       </c>
-      <c r="E294" t="n">
-        <v>4.889801</v>
-      </c>
-      <c r="F294" t="n">
-        <v>52.3362207</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8686,12 +6918,6 @@
           <t>POINT (4.9111583 52.3471037)</t>
         </is>
       </c>
-      <c r="E295" t="n">
-        <v>4.9111583</v>
-      </c>
-      <c r="F295" t="n">
-        <v>52.3471037</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8714,12 +6940,6 @@
           <t>POINT (4.8915363 52.350302)</t>
         </is>
       </c>
-      <c r="E296" t="n">
-        <v>4.8915363</v>
-      </c>
-      <c r="F296" t="n">
-        <v>52.350302</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8742,12 +6962,6 @@
           <t>POINT (4.8641586 52.3704221)</t>
         </is>
       </c>
-      <c r="E297" t="n">
-        <v>4.8641586</v>
-      </c>
-      <c r="F297" t="n">
-        <v>52.3704221</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8770,12 +6984,6 @@
           <t>POINT (4.8604577 52.3713902)</t>
         </is>
       </c>
-      <c r="E298" t="n">
-        <v>4.8604577</v>
-      </c>
-      <c r="F298" t="n">
-        <v>52.3713902</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8798,12 +7006,6 @@
           <t>POINT (4.8719933 52.3674579)</t>
         </is>
       </c>
-      <c r="E299" t="n">
-        <v>4.8719933</v>
-      </c>
-      <c r="F299" t="n">
-        <v>52.3674579</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8826,12 +7028,6 @@
           <t>POINT (4.8698359 52.3708243)</t>
         </is>
       </c>
-      <c r="E300" t="n">
-        <v>4.8698359</v>
-      </c>
-      <c r="F300" t="n">
-        <v>52.3708243</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8854,12 +7050,6 @@
           <t>POINT (4.8905961 52.3527058)</t>
         </is>
       </c>
-      <c r="E301" t="n">
-        <v>4.8905961</v>
-      </c>
-      <c r="F301" t="n">
-        <v>52.3527058</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8882,12 +7072,6 @@
           <t>POINT (4.8750893 52.3630125)</t>
         </is>
       </c>
-      <c r="E302" t="n">
-        <v>4.8750893</v>
-      </c>
-      <c r="F302" t="n">
-        <v>52.3630125</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8910,12 +7094,6 @@
           <t>POINT (4.8749794 52.363227)</t>
         </is>
       </c>
-      <c r="E303" t="n">
-        <v>4.8749794</v>
-      </c>
-      <c r="F303" t="n">
-        <v>52.363227</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8938,12 +7116,6 @@
           <t>POINT (4.8911566 52.3474774)</t>
         </is>
       </c>
-      <c r="E304" t="n">
-        <v>4.8911566</v>
-      </c>
-      <c r="F304" t="n">
-        <v>52.3474774</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8966,12 +7138,6 @@
           <t>POINT (4.878318 52.3584538)</t>
         </is>
       </c>
-      <c r="E305" t="n">
-        <v>4.878318</v>
-      </c>
-      <c r="F305" t="n">
-        <v>52.3584538</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8994,12 +7160,6 @@
           <t>POINT (4.8781266 52.3587793)</t>
         </is>
       </c>
-      <c r="E306" t="n">
-        <v>4.8781266</v>
-      </c>
-      <c r="F306" t="n">
-        <v>52.3587793</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -9022,12 +7182,6 @@
           <t>POINT (4.9063478 52.3464278)</t>
         </is>
       </c>
-      <c r="E307" t="n">
-        <v>4.9063478</v>
-      </c>
-      <c r="F307" t="n">
-        <v>52.3464278</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -9050,12 +7204,6 @@
           <t>POINT (4.9905047 52.3576998)</t>
         </is>
       </c>
-      <c r="E308" t="n">
-        <v>4.9905047</v>
-      </c>
-      <c r="F308" t="n">
-        <v>52.3576998</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -9078,12 +7226,6 @@
           <t>POINT (4.7944986 52.3509515)</t>
         </is>
       </c>
-      <c r="E309" t="n">
-        <v>4.7944986</v>
-      </c>
-      <c r="F309" t="n">
-        <v>52.3509515</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -9106,12 +7248,6 @@
           <t>POINT (4.7881582 52.3496935)</t>
         </is>
       </c>
-      <c r="E310" t="n">
-        <v>4.7881582</v>
-      </c>
-      <c r="F310" t="n">
-        <v>52.3496935</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -9134,12 +7270,6 @@
           <t>POINT (4.8262383 52.3577873)</t>
         </is>
       </c>
-      <c r="E311" t="n">
-        <v>4.8262383</v>
-      </c>
-      <c r="F311" t="n">
-        <v>52.3577873</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -9162,12 +7292,6 @@
           <t>POINT (4.8258953 52.3578123)</t>
         </is>
       </c>
-      <c r="E312" t="n">
-        <v>4.8258953</v>
-      </c>
-      <c r="F312" t="n">
-        <v>52.3578123</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -9190,12 +7314,6 @@
           <t>POINT (4.8865383 52.3659919)</t>
         </is>
       </c>
-      <c r="E313" t="n">
-        <v>4.8865383</v>
-      </c>
-      <c r="F313" t="n">
-        <v>52.3659919</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -9218,12 +7336,6 @@
           <t>POINT (4.8829633 52.3642229)</t>
         </is>
       </c>
-      <c r="E314" t="n">
-        <v>4.8829633</v>
-      </c>
-      <c r="F314" t="n">
-        <v>52.3642229</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -9246,12 +7358,6 @@
           <t>POINT (4.8085181 52.3538389)</t>
         </is>
       </c>
-      <c r="E315" t="n">
-        <v>4.8085181</v>
-      </c>
-      <c r="F315" t="n">
-        <v>52.3538389</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -9274,12 +7380,6 @@
           <t>POINT (4.7745043 52.3538687)</t>
         </is>
       </c>
-      <c r="E316" t="n">
-        <v>4.7745043</v>
-      </c>
-      <c r="F316" t="n">
-        <v>52.3538687</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -9302,12 +7402,6 @@
           <t>POINT (4.8099119 52.35637)</t>
         </is>
       </c>
-      <c r="E317" t="n">
-        <v>4.8099119</v>
-      </c>
-      <c r="F317" t="n">
-        <v>52.35637</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9330,12 +7424,6 @@
           <t>POINT (4.8845404 52.3650457)</t>
         </is>
       </c>
-      <c r="E318" t="n">
-        <v>4.8845404</v>
-      </c>
-      <c r="F318" t="n">
-        <v>52.3650457</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9358,12 +7446,6 @@
           <t>POINT (4.8337835 52.3579004)</t>
         </is>
       </c>
-      <c r="E319" t="n">
-        <v>4.8337835</v>
-      </c>
-      <c r="F319" t="n">
-        <v>52.3579004</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9386,12 +7468,6 @@
           <t>POINT (4.8506975 52.3586176)</t>
         </is>
       </c>
-      <c r="E320" t="n">
-        <v>4.8506975</v>
-      </c>
-      <c r="F320" t="n">
-        <v>52.3586176</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9414,12 +7490,6 @@
           <t>POINT (4.8705851 52.3559987)</t>
         </is>
       </c>
-      <c r="E321" t="n">
-        <v>4.8705851</v>
-      </c>
-      <c r="F321" t="n">
-        <v>52.3559987</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -9442,12 +7512,6 @@
           <t>POINT (4.8106661 52.3463027)</t>
         </is>
       </c>
-      <c r="E322" t="n">
-        <v>4.8106661</v>
-      </c>
-      <c r="F322" t="n">
-        <v>52.3463027</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -9470,12 +7534,6 @@
           <t>POINT (4.8250738 52.346707)</t>
         </is>
       </c>
-      <c r="E323" t="n">
-        <v>4.8250738</v>
-      </c>
-      <c r="F323" t="n">
-        <v>52.346707</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -9498,12 +7556,6 @@
           <t>POINT (4.88118 52.3816379)</t>
         </is>
       </c>
-      <c r="E324" t="n">
-        <v>4.88118</v>
-      </c>
-      <c r="F324" t="n">
-        <v>52.3816379</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -9526,12 +7578,6 @@
           <t>POINT (4.8754111 52.3786007)</t>
         </is>
       </c>
-      <c r="E325" t="n">
-        <v>4.8754111</v>
-      </c>
-      <c r="F325" t="n">
-        <v>52.3786007</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -9554,12 +7600,6 @@
           <t>POINT (4.8942153 52.3531905)</t>
         </is>
       </c>
-      <c r="E326" t="n">
-        <v>4.8942153</v>
-      </c>
-      <c r="F326" t="n">
-        <v>52.3531905</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9582,12 +7622,6 @@
           <t>POINT (4.9172481 52.3582391)</t>
         </is>
       </c>
-      <c r="E327" t="n">
-        <v>4.9172481</v>
-      </c>
-      <c r="F327" t="n">
-        <v>52.3582391</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -9610,12 +7644,6 @@
           <t>POINT (4.9326128 52.3607965)</t>
         </is>
       </c>
-      <c r="E328" t="n">
-        <v>4.9326128</v>
-      </c>
-      <c r="F328" t="n">
-        <v>52.3607965</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9638,12 +7666,6 @@
           <t>POINT (4.9137826 52.3583909)</t>
         </is>
       </c>
-      <c r="E329" t="n">
-        <v>4.9137826</v>
-      </c>
-      <c r="F329" t="n">
-        <v>52.3583909</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9666,12 +7688,6 @@
           <t>POINT (4.9297575 52.3610986)</t>
         </is>
       </c>
-      <c r="E330" t="n">
-        <v>4.9297575</v>
-      </c>
-      <c r="F330" t="n">
-        <v>52.3610986</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9694,12 +7710,6 @@
           <t>POINT (4.9249118 52.3599165)</t>
         </is>
       </c>
-      <c r="E331" t="n">
-        <v>4.9249118</v>
-      </c>
-      <c r="F331" t="n">
-        <v>52.3599165</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9722,12 +7732,6 @@
           <t>POINT (4.8768645 52.346674)</t>
         </is>
       </c>
-      <c r="E332" t="n">
-        <v>4.8768645</v>
-      </c>
-      <c r="F332" t="n">
-        <v>52.346674</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9750,12 +7754,6 @@
           <t>POINT (4.8768834 52.3471425)</t>
         </is>
       </c>
-      <c r="E333" t="n">
-        <v>4.8768834</v>
-      </c>
-      <c r="F333" t="n">
-        <v>52.3471425</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9778,12 +7776,6 @@
           <t>POINT (4.8767749 52.3431074)</t>
         </is>
       </c>
-      <c r="E334" t="n">
-        <v>4.8767749</v>
-      </c>
-      <c r="F334" t="n">
-        <v>52.3431074</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9806,12 +7798,6 @@
           <t>POINT (4.8586095 52.3647872)</t>
         </is>
       </c>
-      <c r="E335" t="n">
-        <v>4.8586095</v>
-      </c>
-      <c r="F335" t="n">
-        <v>52.3647872</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9834,12 +7820,6 @@
           <t>POINT (4.8487242 52.3729826)</t>
         </is>
       </c>
-      <c r="E336" t="n">
-        <v>4.8487242</v>
-      </c>
-      <c r="F336" t="n">
-        <v>52.3729826</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9862,12 +7842,6 @@
           <t>POINT (4.9185684 52.3633708)</t>
         </is>
       </c>
-      <c r="E337" t="n">
-        <v>4.9185684</v>
-      </c>
-      <c r="F337" t="n">
-        <v>52.3633708</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9890,12 +7864,6 @@
           <t>POINT (4.9510568 52.3652467)</t>
         </is>
       </c>
-      <c r="E338" t="n">
-        <v>4.9510568</v>
-      </c>
-      <c r="F338" t="n">
-        <v>52.3652467</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9918,12 +7886,6 @@
           <t>POINT (4.8978483 52.3594109)</t>
         </is>
       </c>
-      <c r="E339" t="n">
-        <v>4.8978483</v>
-      </c>
-      <c r="F339" t="n">
-        <v>52.3594109</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9946,12 +7908,6 @@
           <t>POINT (4.9478662 52.3649431)</t>
         </is>
       </c>
-      <c r="E340" t="n">
-        <v>4.9478662</v>
-      </c>
-      <c r="F340" t="n">
-        <v>52.3649431</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9974,12 +7930,6 @@
           <t>POINT (4.9433884 52.3621442)</t>
         </is>
       </c>
-      <c r="E341" t="n">
-        <v>4.9433884</v>
-      </c>
-      <c r="F341" t="n">
-        <v>52.3621442</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -10002,12 +7952,6 @@
           <t>POINT (4.8873395 52.3608307)</t>
         </is>
       </c>
-      <c r="E342" t="n">
-        <v>4.8873395</v>
-      </c>
-      <c r="F342" t="n">
-        <v>52.3608307</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -10030,12 +7974,6 @@
           <t>POINT (4.9265233 52.3683184)</t>
         </is>
       </c>
-      <c r="E343" t="n">
-        <v>4.9265233</v>
-      </c>
-      <c r="F343" t="n">
-        <v>52.3683184</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -10058,12 +7996,6 @@
           <t>POINT (4.9295997 52.3701978)</t>
         </is>
       </c>
-      <c r="E344" t="n">
-        <v>4.9295997</v>
-      </c>
-      <c r="F344" t="n">
-        <v>52.3701978</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -10086,12 +8018,6 @@
           <t>POINT (4.9242477 52.3666491)</t>
         </is>
       </c>
-      <c r="E345" t="n">
-        <v>4.9242477</v>
-      </c>
-      <c r="F345" t="n">
-        <v>52.3666491</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -10114,12 +8040,6 @@
           <t>POINT (4.9344045 52.372921)</t>
         </is>
       </c>
-      <c r="E346" t="n">
-        <v>4.9344045</v>
-      </c>
-      <c r="F346" t="n">
-        <v>52.372921</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -10142,12 +8062,6 @@
           <t>POINT (4.877086 52.3831444)</t>
         </is>
       </c>
-      <c r="E347" t="n">
-        <v>4.877086</v>
-      </c>
-      <c r="F347" t="n">
-        <v>52.3831444</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -10170,12 +8084,6 @@
           <t>POINT (4.8791525 52.3810685)</t>
         </is>
       </c>
-      <c r="E348" t="n">
-        <v>4.8791525</v>
-      </c>
-      <c r="F348" t="n">
-        <v>52.3810685</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -10198,12 +8106,6 @@
           <t>POINT (4.8751351 52.3842946)</t>
         </is>
       </c>
-      <c r="E349" t="n">
-        <v>4.8751351</v>
-      </c>
-      <c r="F349" t="n">
-        <v>52.3842946</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -10226,12 +8128,6 @@
           <t>POINT (4.8438216 52.3694429)</t>
         </is>
       </c>
-      <c r="E350" t="n">
-        <v>4.8438216</v>
-      </c>
-      <c r="F350" t="n">
-        <v>52.3694429</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -10254,12 +8150,6 @@
           <t>POINT (4.8117554 52.3765095)</t>
         </is>
       </c>
-      <c r="E351" t="n">
-        <v>4.8117554</v>
-      </c>
-      <c r="F351" t="n">
-        <v>52.3765095</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -10282,12 +8172,6 @@
           <t>POINT (4.8065746 52.3769374)</t>
         </is>
       </c>
-      <c r="E352" t="n">
-        <v>4.8065746</v>
-      </c>
-      <c r="F352" t="n">
-        <v>52.3769374</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -10310,12 +8194,6 @@
           <t>POINT (4.838103 52.3714267)</t>
         </is>
       </c>
-      <c r="E353" t="n">
-        <v>4.838103</v>
-      </c>
-      <c r="F353" t="n">
-        <v>52.3714267</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -10338,12 +8216,6 @@
           <t>POINT (4.8378389 52.3697121)</t>
         </is>
       </c>
-      <c r="E354" t="n">
-        <v>4.8378389</v>
-      </c>
-      <c r="F354" t="n">
-        <v>52.3697121</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -10366,12 +8238,6 @@
           <t>POINT (4.8350051 52.3732337)</t>
         </is>
       </c>
-      <c r="E355" t="n">
-        <v>4.8350051</v>
-      </c>
-      <c r="F355" t="n">
-        <v>52.3732337</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -10394,12 +8260,6 @@
           <t>POINT (4.8514871 52.3702349)</t>
         </is>
       </c>
-      <c r="E356" t="n">
-        <v>4.8514871</v>
-      </c>
-      <c r="F356" t="n">
-        <v>52.3702349</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10422,12 +8282,6 @@
           <t>POINT (4.9275974 52.3659034)</t>
         </is>
       </c>
-      <c r="E357" t="n">
-        <v>4.9275974</v>
-      </c>
-      <c r="F357" t="n">
-        <v>52.3659034</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -10450,12 +8304,6 @@
           <t>POINT (4.9325902 52.3658298)</t>
         </is>
       </c>
-      <c r="E358" t="n">
-        <v>4.9325902</v>
-      </c>
-      <c r="F358" t="n">
-        <v>52.3658298</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -10478,12 +8326,6 @@
           <t>POINT (4.8663865 52.3351971)</t>
         </is>
       </c>
-      <c r="E359" t="n">
-        <v>4.8663865</v>
-      </c>
-      <c r="F359" t="n">
-        <v>52.3351971</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -10506,12 +8348,6 @@
           <t>POINT (4.8575004 52.3490455)</t>
         </is>
       </c>
-      <c r="E360" t="n">
-        <v>4.8575004</v>
-      </c>
-      <c r="F360" t="n">
-        <v>52.3490455</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -10534,12 +8370,6 @@
           <t>POINT (4.7917476 52.3565018)</t>
         </is>
       </c>
-      <c r="E361" t="n">
-        <v>4.7917476</v>
-      </c>
-      <c r="F361" t="n">
-        <v>52.3565018</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -10562,12 +8392,6 @@
           <t>POINT (4.853247 52.3615937)</t>
         </is>
       </c>
-      <c r="E362" t="n">
-        <v>4.853247</v>
-      </c>
-      <c r="F362" t="n">
-        <v>52.3615937</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -10590,12 +8414,6 @@
           <t>POINT (4.7995659 52.3580714)</t>
         </is>
       </c>
-      <c r="E363" t="n">
-        <v>4.7995659</v>
-      </c>
-      <c r="F363" t="n">
-        <v>52.3580714</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -10618,12 +8436,6 @@
           <t>POINT (4.8032054 52.3595387)</t>
         </is>
       </c>
-      <c r="E364" t="n">
-        <v>4.8032054</v>
-      </c>
-      <c r="F364" t="n">
-        <v>52.3595387</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -10646,12 +8458,6 @@
           <t>POINT (4.8531487 52.3638557)</t>
         </is>
       </c>
-      <c r="E365" t="n">
-        <v>4.8531487</v>
-      </c>
-      <c r="F365" t="n">
-        <v>52.3638557</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -10674,12 +8480,6 @@
           <t>POINT (4.8080582 52.358636)</t>
         </is>
       </c>
-      <c r="E366" t="n">
-        <v>4.8080582</v>
-      </c>
-      <c r="F366" t="n">
-        <v>52.358636</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -10702,12 +8502,6 @@
           <t>POINT (4.8720137 52.346695)</t>
         </is>
       </c>
-      <c r="E367" t="n">
-        <v>4.8720137</v>
-      </c>
-      <c r="F367" t="n">
-        <v>52.346695</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -10730,12 +8524,6 @@
           <t>POINT (4.8666421 52.3463735)</t>
         </is>
       </c>
-      <c r="E368" t="n">
-        <v>4.8666421</v>
-      </c>
-      <c r="F368" t="n">
-        <v>52.3463735</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -10758,12 +8546,6 @@
           <t>POINT (4.8586416 52.3452686)</t>
         </is>
       </c>
-      <c r="E369" t="n">
-        <v>4.8586416</v>
-      </c>
-      <c r="F369" t="n">
-        <v>52.3452686</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -10786,12 +8568,6 @@
           <t>POINT (4.8469734 52.3763312)</t>
         </is>
       </c>
-      <c r="E370" t="n">
-        <v>4.8469734</v>
-      </c>
-      <c r="F370" t="n">
-        <v>52.3763312</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -10814,12 +8590,6 @@
           <t>POINT (4.852596 52.3669952)</t>
         </is>
       </c>
-      <c r="E371" t="n">
-        <v>4.852596</v>
-      </c>
-      <c r="F371" t="n">
-        <v>52.3669952</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -10842,12 +8612,6 @@
           <t>POINT (4.8523612 52.3673886)</t>
         </is>
       </c>
-      <c r="E372" t="n">
-        <v>4.8523612</v>
-      </c>
-      <c r="F372" t="n">
-        <v>52.3673886</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -10870,12 +8634,6 @@
           <t>POINT (4.8674156 52.2961484)</t>
         </is>
       </c>
-      <c r="E373" t="n">
-        <v>4.8674156</v>
-      </c>
-      <c r="F373" t="n">
-        <v>52.2961484</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -10898,12 +8656,6 @@
           <t>POINT (4.8327699 52.2825723)</t>
         </is>
       </c>
-      <c r="E374" t="n">
-        <v>4.8327699</v>
-      </c>
-      <c r="F374" t="n">
-        <v>52.2825723</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -10926,12 +8678,6 @@
           <t>POINT (4.8450157 52.3515947)</t>
         </is>
       </c>
-      <c r="E375" t="n">
-        <v>4.8450157</v>
-      </c>
-      <c r="F375" t="n">
-        <v>52.3515947</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -10954,12 +8700,6 @@
           <t>POINT (4.8692545 52.3212772)</t>
         </is>
       </c>
-      <c r="E376" t="n">
-        <v>4.8692545</v>
-      </c>
-      <c r="F376" t="n">
-        <v>52.3212772</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -10982,12 +8722,6 @@
           <t>POINT (4.9685823 52.3691619)</t>
         </is>
       </c>
-      <c r="E377" t="n">
-        <v>4.9685823</v>
-      </c>
-      <c r="F377" t="n">
-        <v>52.3691619</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -11010,12 +8744,6 @@
           <t>POINT (4.8688168 52.3325431)</t>
         </is>
       </c>
-      <c r="E378" t="n">
-        <v>4.8688168</v>
-      </c>
-      <c r="F378" t="n">
-        <v>52.3325431</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -11038,12 +8766,6 @@
           <t>POINT (4.8671267 52.3013177)</t>
         </is>
       </c>
-      <c r="E379" t="n">
-        <v>4.8671267</v>
-      </c>
-      <c r="F379" t="n">
-        <v>52.3013177</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -11066,12 +8788,6 @@
           <t>POINT (4.867149 52.3013453)</t>
         </is>
       </c>
-      <c r="E380" t="n">
-        <v>4.867149</v>
-      </c>
-      <c r="F380" t="n">
-        <v>52.3013453</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -11094,12 +8810,6 @@
           <t>POINT (4.8724478 52.3079604)</t>
         </is>
       </c>
-      <c r="E381" t="n">
-        <v>4.8724478</v>
-      </c>
-      <c r="F381" t="n">
-        <v>52.3079604</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -11122,12 +8832,6 @@
           <t>POINT (4.8725929 52.3080875)</t>
         </is>
       </c>
-      <c r="E382" t="n">
-        <v>4.8725929</v>
-      </c>
-      <c r="F382" t="n">
-        <v>52.3080875</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -11150,12 +8854,6 @@
           <t>POINT (4.8690319 52.3248972)</t>
         </is>
       </c>
-      <c r="E383" t="n">
-        <v>4.8690319</v>
-      </c>
-      <c r="F383" t="n">
-        <v>52.3248972</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -11178,12 +8876,6 @@
           <t>POINT (4.8722618 52.3121859)</t>
         </is>
       </c>
-      <c r="E384" t="n">
-        <v>4.8722618</v>
-      </c>
-      <c r="F384" t="n">
-        <v>52.3121859</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -11206,12 +8898,6 @@
           <t>POINT (4.855406 52.3156718)</t>
         </is>
       </c>
-      <c r="E385" t="n">
-        <v>4.855406</v>
-      </c>
-      <c r="F385" t="n">
-        <v>52.3156718</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -11234,12 +8920,6 @@
           <t>POINT (4.8562313 52.3493132)</t>
         </is>
       </c>
-      <c r="E386" t="n">
-        <v>4.8562313</v>
-      </c>
-      <c r="F386" t="n">
-        <v>52.3493132</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -11262,12 +8942,6 @@
           <t>POINT (4.8543795 52.3352719)</t>
         </is>
       </c>
-      <c r="E387" t="n">
-        <v>4.8543795</v>
-      </c>
-      <c r="F387" t="n">
-        <v>52.3352719</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -11290,12 +8964,6 @@
           <t>POINT (4.8560952 52.3305598)</t>
         </is>
       </c>
-      <c r="E388" t="n">
-        <v>4.8560952</v>
-      </c>
-      <c r="F388" t="n">
-        <v>52.3305598</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -11318,12 +8986,6 @@
           <t>POINT (4.8403296 52.292425)</t>
         </is>
       </c>
-      <c r="E389" t="n">
-        <v>4.8403296</v>
-      </c>
-      <c r="F389" t="n">
-        <v>52.292425</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -11346,12 +9008,6 @@
           <t>POINT (4.902591 52.3790626)</t>
         </is>
       </c>
-      <c r="E390" t="n">
-        <v>4.902591</v>
-      </c>
-      <c r="F390" t="n">
-        <v>52.3790626</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -11374,12 +9030,6 @@
           <t>POINT (4.8565037 52.3218182)</t>
         </is>
       </c>
-      <c r="E391" t="n">
-        <v>4.8565037</v>
-      </c>
-      <c r="F391" t="n">
-        <v>52.3218182</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -11402,12 +9052,6 @@
           <t>POINT (4.8465973 52.3858579)</t>
         </is>
       </c>
-      <c r="E392" t="n">
-        <v>4.8465973</v>
-      </c>
-      <c r="F392" t="n">
-        <v>52.3858579</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -11430,12 +9074,6 @@
           <t>POINT (4.9272548 52.357015)</t>
         </is>
       </c>
-      <c r="E393" t="n">
-        <v>4.9272548</v>
-      </c>
-      <c r="F393" t="n">
-        <v>52.357015</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -11458,12 +9096,6 @@
           <t>POINT (4.9268761 52.3574304)</t>
         </is>
       </c>
-      <c r="E394" t="n">
-        <v>4.9268761</v>
-      </c>
-      <c r="F394" t="n">
-        <v>52.3574304</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -11486,12 +9118,6 @@
           <t>POINT (4.8901771 52.3526769)</t>
         </is>
       </c>
-      <c r="E395" t="n">
-        <v>4.8901771</v>
-      </c>
-      <c r="F395" t="n">
-        <v>52.3526769</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -11514,12 +9140,6 @@
           <t>POINT (4.8907033 52.3570037)</t>
         </is>
       </c>
-      <c r="E396" t="n">
-        <v>4.8907033</v>
-      </c>
-      <c r="F396" t="n">
-        <v>52.3570037</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -11542,12 +9162,6 @@
           <t>POINT (4.8931342 52.3662653)</t>
         </is>
       </c>
-      <c r="E397" t="n">
-        <v>4.8931342</v>
-      </c>
-      <c r="F397" t="n">
-        <v>52.3662653</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -11570,12 +9184,6 @@
           <t>POINT (4.8930583 52.3658545)</t>
         </is>
       </c>
-      <c r="E398" t="n">
-        <v>4.8930583</v>
-      </c>
-      <c r="F398" t="n">
-        <v>52.3658545</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -11598,12 +9206,6 @@
           <t>POINT (4.8907718 52.3571177)</t>
         </is>
       </c>
-      <c r="E399" t="n">
-        <v>4.8907718</v>
-      </c>
-      <c r="F399" t="n">
-        <v>52.3571177</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -11626,12 +9228,6 @@
           <t>POINT (4.8509865 52.3442966)</t>
         </is>
       </c>
-      <c r="E400" t="n">
-        <v>4.8509865</v>
-      </c>
-      <c r="F400" t="n">
-        <v>52.3442966</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -11654,12 +9250,6 @@
           <t>POINT (4.8477382 52.3013966)</t>
         </is>
       </c>
-      <c r="E401" t="n">
-        <v>4.8477382</v>
-      </c>
-      <c r="F401" t="n">
-        <v>52.3013966</v>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -11682,12 +9272,6 @@
           <t>POINT (4.8453672 52.2994491)</t>
         </is>
       </c>
-      <c r="E402" t="n">
-        <v>4.8453672</v>
-      </c>
-      <c r="F402" t="n">
-        <v>52.2994491</v>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -11710,12 +9294,6 @@
           <t>POINT (4.8564164 52.3492921)</t>
         </is>
       </c>
-      <c r="E403" t="n">
-        <v>4.8564164</v>
-      </c>
-      <c r="F403" t="n">
-        <v>52.3492921</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -11738,12 +9316,6 @@
           <t>POINT (4.8564951 52.3214358)</t>
         </is>
       </c>
-      <c r="E404" t="n">
-        <v>4.8564951</v>
-      </c>
-      <c r="F404" t="n">
-        <v>52.3214358</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -11766,12 +9338,6 @@
           <t>POINT (4.8565395 52.3274177)</t>
         </is>
       </c>
-      <c r="E405" t="n">
-        <v>4.8565395</v>
-      </c>
-      <c r="F405" t="n">
-        <v>52.3274177</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -11794,12 +9360,6 @@
           <t>POINT (4.8506593 52.3085646)</t>
         </is>
       </c>
-      <c r="E406" t="n">
-        <v>4.8506593</v>
-      </c>
-      <c r="F406" t="n">
-        <v>52.3085646</v>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -11822,12 +9382,6 @@
           <t>POINT (4.8507838 52.3109438)</t>
         </is>
       </c>
-      <c r="E407" t="n">
-        <v>4.8507838</v>
-      </c>
-      <c r="F407" t="n">
-        <v>52.3109438</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -11850,12 +9404,6 @@
           <t>POINT (4.851035 52.3115129)</t>
         </is>
       </c>
-      <c r="E408" t="n">
-        <v>4.851035</v>
-      </c>
-      <c r="F408" t="n">
-        <v>52.3115129</v>
-      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -11878,12 +9426,6 @@
           <t>POINT (4.8534016 52.3475341)</t>
         </is>
       </c>
-      <c r="E409" t="n">
-        <v>4.8534016</v>
-      </c>
-      <c r="F409" t="n">
-        <v>52.3475341</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -11906,12 +9448,6 @@
           <t>POINT (4.8391034 52.2908393)</t>
         </is>
       </c>
-      <c r="E410" t="n">
-        <v>4.8391034</v>
-      </c>
-      <c r="F410" t="n">
-        <v>52.2908393</v>
-      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -11934,12 +9470,6 @@
           <t>POINT (4.8391796 52.2910359)</t>
         </is>
       </c>
-      <c r="E411" t="n">
-        <v>4.8391796</v>
-      </c>
-      <c r="F411" t="n">
-        <v>52.2910359</v>
-      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -11962,12 +9492,6 @@
           <t>POINT (4.8810698 52.3632085)</t>
         </is>
       </c>
-      <c r="E412" t="n">
-        <v>4.8810698</v>
-      </c>
-      <c r="F412" t="n">
-        <v>52.3632085</v>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -11990,12 +9514,6 @@
           <t>POINT (4.8731849 52.3408165)</t>
         </is>
       </c>
-      <c r="E413" t="n">
-        <v>4.8731849</v>
-      </c>
-      <c r="F413" t="n">
-        <v>52.3408165</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -12018,12 +9536,6 @@
           <t>POINT (4.898949 52.3620972)</t>
         </is>
       </c>
-      <c r="E414" t="n">
-        <v>4.898949</v>
-      </c>
-      <c r="F414" t="n">
-        <v>52.3620972</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -12046,12 +9558,6 @@
           <t>POINT (4.8989773 52.3621338)</t>
         </is>
       </c>
-      <c r="E415" t="n">
-        <v>4.8989773</v>
-      </c>
-      <c r="F415" t="n">
-        <v>52.3621338</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -12074,12 +9580,6 @@
           <t>POINT (4.9697229 52.3364299)</t>
         </is>
       </c>
-      <c r="E416" t="n">
-        <v>4.9697229</v>
-      </c>
-      <c r="F416" t="n">
-        <v>52.3364299</v>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -12102,12 +9602,6 @@
           <t>POINT (4.9178945 52.347445)</t>
         </is>
       </c>
-      <c r="E417" t="n">
-        <v>4.9178945</v>
-      </c>
-      <c r="F417" t="n">
-        <v>52.347445</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -12130,12 +9624,6 @@
           <t>POINT (4.9000102 52.3596835)</t>
         </is>
       </c>
-      <c r="E418" t="n">
-        <v>4.9000102</v>
-      </c>
-      <c r="F418" t="n">
-        <v>52.3596835</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -12158,12 +9646,6 @@
           <t>POINT (4.8925358 52.3594772)</t>
         </is>
       </c>
-      <c r="E419" t="n">
-        <v>4.8925358</v>
-      </c>
-      <c r="F419" t="n">
-        <v>52.3594772</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -12186,12 +9668,6 @@
           <t>POINT (4.9613021 52.3382375)</t>
         </is>
       </c>
-      <c r="E420" t="n">
-        <v>4.9613021</v>
-      </c>
-      <c r="F420" t="n">
-        <v>52.3382375</v>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -12214,12 +9690,6 @@
           <t>POINT (4.8703967 52.3706445)</t>
         </is>
       </c>
-      <c r="E421" t="n">
-        <v>4.8703967</v>
-      </c>
-      <c r="F421" t="n">
-        <v>52.3706445</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -12242,12 +9712,6 @@
           <t>POINT (4.863249 52.289791)</t>
         </is>
       </c>
-      <c r="E422" t="n">
-        <v>4.863249</v>
-      </c>
-      <c r="F422" t="n">
-        <v>52.289791</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -12270,12 +9734,6 @@
           <t>POINT (4.863919 52.2904102)</t>
         </is>
       </c>
-      <c r="E423" t="n">
-        <v>4.863919</v>
-      </c>
-      <c r="F423" t="n">
-        <v>52.2904102</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -12298,12 +9756,6 @@
           <t>POINT (4.8706118 52.3160769)</t>
         </is>
       </c>
-      <c r="E424" t="n">
-        <v>4.8706118</v>
-      </c>
-      <c r="F424" t="n">
-        <v>52.3160769</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -12326,12 +9778,6 @@
           <t>POINT (4.8706466 52.3156231)</t>
         </is>
       </c>
-      <c r="E425" t="n">
-        <v>4.8706466</v>
-      </c>
-      <c r="F425" t="n">
-        <v>52.3156231</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -12354,12 +9800,6 @@
           <t>POINT (4.8723368 52.3114898)</t>
         </is>
       </c>
-      <c r="E426" t="n">
-        <v>4.8723368</v>
-      </c>
-      <c r="F426" t="n">
-        <v>52.3114898</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -12382,12 +9822,6 @@
           <t>POINT (4.9178096 52.3474274)</t>
         </is>
       </c>
-      <c r="E427" t="n">
-        <v>4.9178096</v>
-      </c>
-      <c r="F427" t="n">
-        <v>52.3474274</v>
-      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -12410,12 +9844,6 @@
           <t>POINT (4.8954127 52.3470662)</t>
         </is>
       </c>
-      <c r="E428" t="n">
-        <v>4.8954127</v>
-      </c>
-      <c r="F428" t="n">
-        <v>52.3470662</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -12438,12 +9866,6 @@
           <t>POINT (4.8947303 52.3468163)</t>
         </is>
       </c>
-      <c r="E429" t="n">
-        <v>4.8947303</v>
-      </c>
-      <c r="F429" t="n">
-        <v>52.3468163</v>
-      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -12466,12 +9888,6 @@
           <t>POINT (4.8992878 52.3783193)</t>
         </is>
       </c>
-      <c r="E430" t="n">
-        <v>4.8992878</v>
-      </c>
-      <c r="F430" t="n">
-        <v>52.3783193</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -12494,12 +9910,6 @@
           <t>POINT (4.8991546 52.3782813)</t>
         </is>
       </c>
-      <c r="E431" t="n">
-        <v>4.8991546</v>
-      </c>
-      <c r="F431" t="n">
-        <v>52.3782813</v>
-      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -12522,12 +9932,6 @@
           <t>POINT (4.8992178 52.378303)</t>
         </is>
       </c>
-      <c r="E432" t="n">
-        <v>4.8992178</v>
-      </c>
-      <c r="F432" t="n">
-        <v>52.378303</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -12550,12 +9954,6 @@
           <t>POINT (4.8988712 52.3786582)</t>
         </is>
       </c>
-      <c r="E433" t="n">
-        <v>4.8988712</v>
-      </c>
-      <c r="F433" t="n">
-        <v>52.3786582</v>
-      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -12578,12 +9976,6 @@
           <t>POINT (4.8989173 52.378697)</t>
         </is>
       </c>
-      <c r="E434" t="n">
-        <v>4.8989173</v>
-      </c>
-      <c r="F434" t="n">
-        <v>52.378697</v>
-      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -12606,12 +9998,6 @@
           <t>POINT (4.8993575 52.3783416)</t>
         </is>
       </c>
-      <c r="E435" t="n">
-        <v>4.8993575</v>
-      </c>
-      <c r="F435" t="n">
-        <v>52.3783416</v>
-      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -12634,12 +10020,6 @@
           <t>POINT (4.8500681 52.3704058)</t>
         </is>
       </c>
-      <c r="E436" t="n">
-        <v>4.8500681</v>
-      </c>
-      <c r="F436" t="n">
-        <v>52.3704058</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -12662,12 +10042,6 @@
           <t>POINT (4.8499792 52.3706818)</t>
         </is>
       </c>
-      <c r="E437" t="n">
-        <v>4.8499792</v>
-      </c>
-      <c r="F437" t="n">
-        <v>52.3706818</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -12690,12 +10064,6 @@
           <t>POINT (4.8464503 52.3771987)</t>
         </is>
       </c>
-      <c r="E438" t="n">
-        <v>4.8464503</v>
-      </c>
-      <c r="F438" t="n">
-        <v>52.3771987</v>
-      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -12718,12 +10086,6 @@
           <t>POINT (4.8657924 52.360364)</t>
         </is>
       </c>
-      <c r="E439" t="n">
-        <v>4.8657924</v>
-      </c>
-      <c r="F439" t="n">
-        <v>52.360364</v>
-      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -12746,12 +10108,6 @@
           <t>POINT (4.853975 52.3642479)</t>
         </is>
       </c>
-      <c r="E440" t="n">
-        <v>4.853975</v>
-      </c>
-      <c r="F440" t="n">
-        <v>52.3642479</v>
-      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -12774,12 +10130,6 @@
           <t>POINT (4.903158 52.3517731)</t>
         </is>
       </c>
-      <c r="E441" t="n">
-        <v>4.903158</v>
-      </c>
-      <c r="F441" t="n">
-        <v>52.3517731</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -12802,12 +10152,6 @@
           <t>POINT (4.8923379 52.3593327)</t>
         </is>
       </c>
-      <c r="E442" t="n">
-        <v>4.8923379</v>
-      </c>
-      <c r="F442" t="n">
-        <v>52.3593327</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -12830,12 +10174,6 @@
           <t>POINT (4.9310414 52.3534088)</t>
         </is>
       </c>
-      <c r="E443" t="n">
-        <v>4.9310414</v>
-      </c>
-      <c r="F443" t="n">
-        <v>52.3534088</v>
-      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -12858,12 +10196,6 @@
           <t>POINT (4.8828562 52.3527563)</t>
         </is>
       </c>
-      <c r="E444" t="n">
-        <v>4.8828562</v>
-      </c>
-      <c r="F444" t="n">
-        <v>52.3527563</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -12886,12 +10218,6 @@
           <t>POINT (4.8820747 52.3526434)</t>
         </is>
       </c>
-      <c r="E445" t="n">
-        <v>4.8820747</v>
-      </c>
-      <c r="F445" t="n">
-        <v>52.3526434</v>
-      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -12914,12 +10240,6 @@
           <t>POINT (4.8786695 52.3778393)</t>
         </is>
       </c>
-      <c r="E446" t="n">
-        <v>4.8786695</v>
-      </c>
-      <c r="F446" t="n">
-        <v>52.3778393</v>
-      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -12942,12 +10262,6 @@
           <t>POINT (4.8821775 52.383238)</t>
         </is>
       </c>
-      <c r="E447" t="n">
-        <v>4.8821775</v>
-      </c>
-      <c r="F447" t="n">
-        <v>52.383238</v>
-      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -12970,12 +10284,6 @@
           <t>POINT (4.8893427 52.3677188)</t>
         </is>
       </c>
-      <c r="E448" t="n">
-        <v>4.8893427</v>
-      </c>
-      <c r="F448" t="n">
-        <v>52.3677188</v>
-      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -12998,12 +10306,6 @@
           <t>POINT (4.8806042 52.3587143)</t>
         </is>
       </c>
-      <c r="E449" t="n">
-        <v>4.8806042</v>
-      </c>
-      <c r="F449" t="n">
-        <v>52.3587143</v>
-      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -13026,12 +10328,6 @@
           <t>POINT (4.9004043 52.3779466)</t>
         </is>
       </c>
-      <c r="E450" t="n">
-        <v>4.9004043</v>
-      </c>
-      <c r="F450" t="n">
-        <v>52.3779466</v>
-      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -13054,12 +10350,6 @@
           <t>POINT (4.880612 52.3586985)</t>
         </is>
       </c>
-      <c r="E451" t="n">
-        <v>4.880612</v>
-      </c>
-      <c r="F451" t="n">
-        <v>52.3586985</v>
-      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -13082,12 +10372,6 @@
           <t>POINT (4.8504873 52.3042535)</t>
         </is>
       </c>
-      <c r="E452" t="n">
-        <v>4.8504873</v>
-      </c>
-      <c r="F452" t="n">
-        <v>52.3042535</v>
-      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -13110,12 +10394,6 @@
           <t>POINT (4.9141489 52.3624363)</t>
         </is>
       </c>
-      <c r="E453" t="n">
-        <v>4.9141489</v>
-      </c>
-      <c r="F453" t="n">
-        <v>52.3624363</v>
-      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -13138,12 +10416,6 @@
           <t>POINT (4.8914549 52.3494092)</t>
         </is>
       </c>
-      <c r="E454" t="n">
-        <v>4.8914549</v>
-      </c>
-      <c r="F454" t="n">
-        <v>52.3494092</v>
-      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -13166,12 +10438,6 @@
           <t>POINT (4.850538 52.3052105)</t>
         </is>
       </c>
-      <c r="E455" t="n">
-        <v>4.850538</v>
-      </c>
-      <c r="F455" t="n">
-        <v>52.3052105</v>
-      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -13194,12 +10460,6 @@
           <t>POINT (4.9009807 52.3777002)</t>
         </is>
       </c>
-      <c r="E456" t="n">
-        <v>4.9009807</v>
-      </c>
-      <c r="F456" t="n">
-        <v>52.3777002</v>
-      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -13222,12 +10482,6 @@
           <t>POINT (4.9009806 52.3777485)</t>
         </is>
       </c>
-      <c r="E457" t="n">
-        <v>4.9009806</v>
-      </c>
-      <c r="F457" t="n">
-        <v>52.3777485</v>
-      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -13250,12 +10504,6 @@
           <t>POINT (4.9009723 52.3777976)</t>
         </is>
       </c>
-      <c r="E458" t="n">
-        <v>4.9009723</v>
-      </c>
-      <c r="F458" t="n">
-        <v>52.3777976</v>
-      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -13278,12 +10526,6 @@
           <t>POINT (4.8987647 52.3785952)</t>
         </is>
       </c>
-      <c r="E459" t="n">
-        <v>4.8987647</v>
-      </c>
-      <c r="F459" t="n">
-        <v>52.3785952</v>
-      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -13306,12 +10548,6 @@
           <t>POINT (4.8988204 52.3786244)</t>
         </is>
       </c>
-      <c r="E460" t="n">
-        <v>4.8988204</v>
-      </c>
-      <c r="F460" t="n">
-        <v>52.3786244</v>
-      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -13334,12 +10570,6 @@
           <t>POINT (4.9009743 52.3778019)</t>
         </is>
       </c>
-      <c r="E461" t="n">
-        <v>4.9009743</v>
-      </c>
-      <c r="F461" t="n">
-        <v>52.3778019</v>
-      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -13362,12 +10592,6 @@
           <t>POINT (4.9009825 52.3777528)</t>
         </is>
       </c>
-      <c r="E462" t="n">
-        <v>4.9009825</v>
-      </c>
-      <c r="F462" t="n">
-        <v>52.3777528</v>
-      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -13390,12 +10614,6 @@
           <t>POINT (4.9009826 52.3777045)</t>
         </is>
       </c>
-      <c r="E463" t="n">
-        <v>4.9009826</v>
-      </c>
-      <c r="F463" t="n">
-        <v>52.3777045</v>
-      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -13418,12 +10636,6 @@
           <t>POINT (4.890644 52.3719008)</t>
         </is>
       </c>
-      <c r="E464" t="n">
-        <v>4.890644</v>
-      </c>
-      <c r="F464" t="n">
-        <v>52.3719008</v>
-      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -13445,12 +10657,6 @@
         <is>
           <t>POINT (4.9899502 52.3580579)</t>
         </is>
-      </c>
-      <c r="E465" t="n">
-        <v>4.9899502</v>
-      </c>
-      <c r="F465" t="n">
-        <v>52.3580579</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/am_tram_stations.xlsx
+++ b/notebooks/am_tram_stations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F212"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>tram</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>geo_x</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>geo_y</t>
         </is>
@@ -478,18 +483,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Matterhorn</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>POINT (4.7745043 52.3538687)</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>4.7745043</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>52.3538687</v>
       </c>
     </row>
@@ -506,18 +516,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Pilatus</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>POINT (4.776554 52.3530108)</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>4.776554</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>52.3530108</v>
       </c>
     </row>
@@ -534,18 +549,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Inaristraat</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>POINT (4.7829483 52.3504489)</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>4.7829483</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>52.3504489</v>
       </c>
     </row>
@@ -562,18 +582,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Dijkgraafplein</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>POINT (4.7864929 52.3554481)</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>4.7864929</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>52.3554481</v>
       </c>
     </row>
@@ -590,18 +615,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Ecuplein</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>POINT (4.7881582 52.3496935)</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>4.7881582</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>52.3496935</v>
       </c>
     </row>
@@ -618,18 +648,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Baden Powellweg</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>POINT (4.7913 52.3564413)</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>4.7913</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>52.3564413</v>
       </c>
     </row>
@@ -646,18 +681,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Hoekenes</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>POINT (4.7990044 52.3579858)</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4.7990044</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>52.3579858</v>
       </c>
     </row>
@@ -674,18 +714,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Lambertus Zijlplein</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>POINT (4.8029118 52.3772607)</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.8029118</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>52.3772607</v>
       </c>
     </row>
@@ -702,18 +747,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Osdorpplein West</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>POINT (4.8032054 52.3595387)</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>4.8032054</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>52.3595387</v>
       </c>
     </row>
@@ -730,18 +780,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Oudenaardeplantsoen</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>POINT (4.8036706 52.3449284)</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>4.8036706</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>52.3449284</v>
       </c>
     </row>
@@ -758,18 +813,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Dr. H. Colijnstraat</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>POINT (4.8062691 52.3769399)</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>4.8062691</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>52.3769399</v>
       </c>
     </row>
@@ -786,18 +846,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Osdorpplein Oost</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>POINT (4.8077454 52.359326)</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>4.8077454</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>52.359326</v>
       </c>
     </row>
@@ -814,18 +879,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Louis Davidsstraat</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>POINT (4.8085181 52.3538389)</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>4.8085181</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>52.3538389</v>
       </c>
     </row>
@@ -842,18 +912,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Meer en Vaart</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>POINT (4.8099119 52.35637)</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>4.8099119</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>52.35637</v>
       </c>
     </row>
@@ -870,18 +945,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>Centrum Nieuw Sloten</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>POINT (4.8106661 52.3463027)</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>4.8106661</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>52.3463027</v>
       </c>
     </row>
@@ -898,18 +978,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>Burgemeester Van Leeuwenlaan</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>POINT (4.8117554 52.3765095)</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>4.8117554</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>52.3765095</v>
       </c>
     </row>
@@ -926,18 +1011,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Laan van Vlaanderen</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>POINT (4.8156883 52.3464422)</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>4.8156883</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>52.3464422</v>
       </c>
     </row>
@@ -954,18 +1044,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>Slotermeerlaan</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>POINT (4.8173607 52.3759547)</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>4.8173607</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>52.3759547</v>
       </c>
     </row>
@@ -982,18 +1077,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Sloterpark</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>POINT (4.8186019 52.3728449)</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>4.8186019</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>52.3728449</v>
       </c>
     </row>
@@ -1010,18 +1110,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>Burgemeester Roëllstraat</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>POINT (4.8187509 52.3750672)</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>4.8187509</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>52.3750672</v>
       </c>
     </row>
@@ -1038,18 +1143,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>Plein '40-'45</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>POINT (4.8211591 52.3808373)</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>4.8211591</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>52.3808373</v>
       </c>
     </row>
@@ -1066,18 +1176,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>Louwesweg</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>POINT (4.8242594 52.3466865)</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>4.8242594</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>52.3466865</v>
       </c>
     </row>
@@ -1094,18 +1209,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>Burgemeester Eliasstraat</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>POINT (4.8258104 52.38075)</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>4.8258104</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>52.38075</v>
       </c>
     </row>
@@ -1122,18 +1242,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Johan Huizingalaan</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>POINT (4.8258953 52.3578123)</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>4.8258953</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>52.3578123</v>
       </c>
     </row>
@@ -1150,18 +1275,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>Burgemeester Rendorpstraat</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>POINT (4.8268013 52.3744723)</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>4.8268013</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>52.3744723</v>
       </c>
     </row>
@@ -1178,18 +1308,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>Westwijk</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>POINT (4.8305377 52.2743532)</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>4.8305377</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>52.2743532</v>
       </c>
     </row>
@@ -1206,18 +1341,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>Burgemeester Fockstraat</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>POINT (4.8312794 52.3798913)</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>4.8312794</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>52.3798913</v>
       </c>
     </row>
@@ -1234,18 +1374,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>Sacharovlaan</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>POINT (4.8323277 52.2821847)</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>4.8323277</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>52.2821847</v>
       </c>
     </row>
@@ -1262,18 +1407,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>Heemstedestraat</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>POINT (4.8337504 52.3515095)</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>4.8337504</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>52.3515095</v>
       </c>
     </row>
@@ -1290,18 +1440,23 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>Station Lelylaan</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>POINT (4.8337835 52.3579004)</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>4.8337835</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>52.3579004</v>
       </c>
     </row>
@@ -1318,18 +1473,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>Jan van Galenstraat</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>POINT (4.8350051 52.3732337)</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>4.8350051</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>52.3732337</v>
       </c>
     </row>
@@ -1346,18 +1506,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>Burgemeester de Vlugtlaan</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>POINT (4.8372054 52.378963)</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>4.8372054</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>52.378963</v>
       </c>
     </row>
@@ -1374,18 +1539,23 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>Jan Tooropstraat</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>POINT (4.8377996 52.3708325)</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>4.8377996</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>52.3708325</v>
       </c>
     </row>
@@ -1402,18 +1572,23 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>Jan Voermanstraat</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>POINT (4.8378389 52.3697121)</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>4.8378389</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>52.3697121</v>
       </c>
     </row>
@@ -1430,18 +1605,23 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>Bovenkerk</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>POINT (4.8391034 52.2908393)</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>4.8391034</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>52.2908393</v>
       </c>
     </row>
@@ -1458,18 +1638,23 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>Station Sloterdijk</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>POINT (4.8392172 52.3879696)</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>4.8392172</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>52.3879696</v>
       </c>
     </row>
@@ -1486,18 +1671,23 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>Derkinderenstraat</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>POINT (4.8397482 52.3579573)</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>4.8397482</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>52.3579573</v>
       </c>
     </row>
@@ -1514,18 +1704,23 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>Delflandlaan</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>POINT (4.83976 52.351558)</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>4.83976</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>52.351558</v>
       </c>
     </row>
@@ -1542,18 +1737,23 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>Noorddammerlaan</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>POINT (4.8400481 52.2920559)</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>4.8400481</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>52.2920559</v>
       </c>
     </row>
@@ -1570,18 +1770,23 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>Admiraal Helfrichstraat</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>POINT (4.8438216 52.3694429)</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>4.8438216</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>52.3694429</v>
       </c>
     </row>
@@ -1598,18 +1803,23 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>Bos en Lommerplein</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>POINT (4.8449335 52.3777823)</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>4.8449335</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>52.3777823</v>
       </c>
     </row>
@@ -1626,18 +1836,23 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>Westlandgracht</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>POINT (4.8450157 52.3515947)</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>4.8450157</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>52.3515947</v>
       </c>
     </row>
@@ -1654,18 +1869,23 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>Poortwachter</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>POINT (4.8450525 52.2833338)</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>4.8450525</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>52.2833338</v>
       </c>
     </row>
@@ -1682,18 +1902,23 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>Handweg</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>POINT (4.8453672 52.2994491)</t>
         </is>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>4.8453672</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>52.2994491</v>
       </c>
     </row>
@@ -1710,18 +1935,23 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>Molenwerf</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>POINT (4.8461556 52.3858895)</t>
         </is>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>4.8461556</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>52.3858895</v>
       </c>
     </row>
@@ -1738,18 +1968,23 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>Erasmusgracht</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>POINT (4.8469734 52.3763312)</t>
         </is>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>4.8469734</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>52.3763312</v>
       </c>
     </row>
@@ -1766,18 +2001,23 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>Station Amstelveen</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>POINT (4.8477382 52.3013966)</t>
         </is>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>4.8477382</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>52.3013966</v>
       </c>
     </row>
@@ -1794,18 +2034,23 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>Hoofddorpplein</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>POINT (4.8495922 52.3511681)</t>
         </is>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>4.8495922</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>52.3511681</v>
       </c>
     </row>
@@ -1822,18 +2067,23 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>Mercatorplein</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>POINT (4.8499792 52.3706818)</t>
         </is>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>4.8499792</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>52.3706818</v>
       </c>
     </row>
@@ -1850,18 +2100,23 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>Parklaan</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>POINT (4.8504873 52.3042535)</t>
         </is>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>4.8504873</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>52.3042535</v>
       </c>
     </row>
@@ -1878,18 +2133,23 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>Molenweg</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>POINT (4.8506593 52.3085646)</t>
         </is>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>4.8506593</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>52.3085646</v>
       </c>
     </row>
@@ -1906,18 +2166,23 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>Curacaostraat</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>POINT (4.8506975 52.3586176)</t>
         </is>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>4.8506975</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>52.3586176</v>
       </c>
     </row>
@@ -1934,18 +2199,23 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>Karselaan</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>POINT (4.8507838 52.3109438)</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>4.8507838</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>52.3109438</v>
       </c>
     </row>
@@ -1962,18 +2232,23 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>Wiltzanghlaan</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>POINT (4.8508513 52.3828002)</t>
         </is>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>4.8508513</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>52.3828002</v>
       </c>
     </row>
@@ -1990,18 +2265,23 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>Jan Wilsbrug</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>POINT (4.8509865 52.3442966)</t>
         </is>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>4.8509865</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>52.3442966</v>
       </c>
     </row>
@@ -2018,18 +2298,23 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>Surinameplein</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>POINT (4.8509943 52.3580728)</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>4.8509943</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>52.3580728</v>
       </c>
     </row>
@@ -2046,18 +2331,23 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>Brink</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>POINT (4.8513367 52.2806292)</t>
         </is>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>4.8513367</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>52.2806292</v>
       </c>
     </row>
@@ -2074,18 +2364,23 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>W. Schoutenstraat</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>POINT (4.8523612 52.3673886)</t>
         </is>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>4.8523612</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>52.3673886</v>
       </c>
     </row>
@@ -2102,18 +2397,23 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>IJsbaanpad</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>POINT (4.8524016 52.3411779)</t>
         </is>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>4.8524016</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>52.3411779</v>
       </c>
     </row>
@@ -2130,18 +2430,23 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>Postjesweg</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>POINT (4.8531487 52.3638557)</t>
         </is>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>4.8531487</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>52.3638557</v>
       </c>
     </row>
@@ -2158,18 +2463,23 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>Corantijnstraat</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>POINT (4.853247 52.3615937)</t>
         </is>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>4.853247</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>52.3615937</v>
       </c>
     </row>
@@ -2186,18 +2496,23 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>Remise Karperweg</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>POINT (4.8534016 52.3475341)</t>
         </is>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>4.8534016</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>52.3475341</v>
       </c>
     </row>
@@ -2214,18 +2529,23 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>Bos en Lommerweg</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>POINT (4.8539004 52.3811188)</t>
         </is>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>4.8539004</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>52.3811188</v>
       </c>
     </row>
@@ -2242,18 +2562,23 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>Hoofdweg</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>POINT (4.853975 52.3642479)</t>
         </is>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>4.853975</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>52.3642479</v>
       </c>
     </row>
@@ -2270,18 +2595,23 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>Jollenpad</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>POINT (4.8543795 52.3352719)</t>
         </is>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>4.8543795</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>52.3352719</v>
       </c>
     </row>
@@ -2298,18 +2628,23 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>Marco Polostraat</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>POINT (4.8551084 52.3708621)</t>
         </is>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>4.8551084</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>52.3708621</v>
       </c>
     </row>
@@ -2326,18 +2661,23 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>Amsterdamseweg</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>POINT (4.8552783 52.3153498)</t>
         </is>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>4.8552783</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>52.3153498</v>
       </c>
     </row>
@@ -2354,18 +2694,23 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>Amstelveenseweg</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>POINT (4.8560802 52.3513581)</t>
         </is>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>4.8560802</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>52.3513581</v>
       </c>
     </row>
@@ -2382,18 +2727,23 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>Koenenkade</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>POINT (4.8560952 52.3305598)</t>
         </is>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>4.8560952</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>52.3305598</v>
       </c>
     </row>
@@ -2410,18 +2760,23 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>Haarlemmermeerstation</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>POINT (4.8562313 52.3493132)</t>
         </is>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>4.8562313</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>52.3493132</v>
       </c>
     </row>
@@ -2438,18 +2793,23 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>Kalfjeslaan</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>POINT (4.8564951 52.3214358)</t>
         </is>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>4.8564951</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>52.3214358</v>
       </c>
     </row>
@@ -2466,18 +2826,23 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>Van Nijenrodeweg</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>POINT (4.8565395 52.3274177)</t>
         </is>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>4.8565395</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>52.3274177</v>
       </c>
     </row>
@@ -2494,18 +2859,23 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>Zeilstraat</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>POINT (4.8567453 52.351218)</t>
         </is>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>4.8567453</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>52.351218</v>
       </c>
     </row>
@@ -2522,18 +2892,23 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>Olympisch Stadion</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>POINT (4.8568368 52.3440249)</t>
         </is>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>4.8568368</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>52.3440249</v>
       </c>
     </row>
@@ -2550,18 +2925,23 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>Meent</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>POINT (4.8569707 52.2808905)</t>
         </is>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>4.8569707</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>52.2808905</v>
       </c>
     </row>
@@ -2578,18 +2958,23 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>Karel Doormanstraat</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>POINT (4.8569721 52.3788687)</t>
         </is>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>4.8569721</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>52.3788687</v>
       </c>
     </row>
@@ -2606,18 +2991,23 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>De Rijpstraat</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>POINT (4.8577243 52.3773555)</t>
         </is>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>4.8577243</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>52.3773555</v>
       </c>
     </row>
@@ -2634,18 +3024,23 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>Olympiaweg</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>POINT (4.8583402 52.3452652)</t>
         </is>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>4.8583402</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>52.3452652</v>
       </c>
     </row>
@@ -2662,18 +3057,23 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>Witte de Withstraat</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>POINT (4.8586095 52.3647872)</t>
         </is>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>4.8586095</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>52.3647872</v>
       </c>
     </row>
@@ -2690,18 +3090,23 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>Rhijnvis Feithstraat</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>POINT (4.8596776 52.3588447)</t>
         </is>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>4.8596776</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>52.3588447</v>
       </c>
     </row>
@@ -2718,18 +3123,23 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>Admiraal De Ruijterweg</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>POINT (4.8600128 52.371502)</t>
         </is>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>4.8600128</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>52.371502</v>
       </c>
     </row>
@@ -2746,18 +3156,23 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>VUmc Hoofdingang</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>POINT (4.8600614 52.3351977)</t>
         </is>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>4.8600614</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>52.3351977</v>
       </c>
     </row>
@@ -2774,18 +3189,23 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>Jan Pieter Heijestraat</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>POINT (4.8624057 52.3647282)</t>
         </is>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>4.8624057</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>52.3647282</v>
       </c>
     </row>
@@ -2802,18 +3222,23 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>Sportlaan</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>POINT (4.863249 52.289791)</t>
         </is>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>4.863249</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>52.289791</v>
       </c>
     </row>
@@ -2830,18 +3255,23 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>Valeriusplein</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>POINT (4.8632955 52.3531864)</t>
         </is>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>4.8632955</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>52.3531864</v>
       </c>
     </row>
@@ -2858,18 +3288,23 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>Willem de Zwijgerlaan</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>POINT (4.8636349 52.3706925)</t>
         </is>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>4.8636349</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>52.3706925</v>
       </c>
     </row>
@@ -2886,18 +3321,23 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>Olympiaplein</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>POINT (4.8658574 52.3463018)</t>
         </is>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>4.8658574</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>52.3463018</v>
       </c>
     </row>
@@ -2914,18 +3354,23 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>De Boelelaan/VU</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>POINT (4.8659833 52.3352308)</t>
         </is>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>4.8659833</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>52.3352308</v>
       </c>
     </row>
@@ -2942,18 +3387,23 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>Amstelveen Stadshart</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>POINT (4.8670933 52.3012694)</t>
         </is>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>4.8670933</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>52.3012694</v>
       </c>
     </row>
@@ -2970,18 +3420,23 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>Ten Katestraat</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>POINT (4.8673314 52.3659077)</t>
         </is>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>4.8673314</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>52.3659077</v>
       </c>
     </row>
@@ -2998,18 +3453,23 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>Ouderkerkerlaan</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>POINT (4.8674156 52.2961484)</t>
         </is>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>4.8674156</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>52.2961484</v>
       </c>
     </row>
@@ -3026,18 +3486,23 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>Parnassusweg</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>POINT (4.8686793 52.3382075)</t>
         </is>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>4.8686793</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>52.3382075</v>
       </c>
     </row>
@@ -3054,18 +3519,23 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>A. J. Ernststraat</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>POINT (4.8688168 52.3325431)</t>
         </is>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>4.8688168</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>52.3325431</v>
       </c>
     </row>
@@ -3082,18 +3552,23 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>Van Boshuizenstraat</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>POINT (4.8689764 52.3248943)</t>
         </is>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>4.8689764</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>52.3248943</v>
       </c>
     </row>
@@ -3110,18 +3585,23 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>Uilenstede</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>POINT (4.8691021 52.3212764)</t>
         </is>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>4.8691021</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>52.3212764</v>
       </c>
     </row>
@@ -3138,18 +3618,23 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>Emmastraat</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>POINT (4.8695155 52.3529363)</t>
         </is>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>4.8695155</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>52.3529363</v>
       </c>
     </row>
@@ -3166,18 +3651,23 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>Bilderdijkstraat</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>POINT (4.8698359 52.3708243)</t>
         </is>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>4.8698359</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>52.3708243</v>
       </c>
     </row>
@@ -3194,18 +3684,23 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>Van Hallstraat</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>POINT (4.8698541 52.3842644)</t>
         </is>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>4.8698541</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>52.3842644</v>
       </c>
     </row>
@@ -3222,18 +3717,23 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>De Clercqstraat</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>POINT (4.8703967 52.3706445)</t>
         </is>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>4.8703967</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>52.3706445</v>
       </c>
     </row>
@@ -3250,18 +3750,23 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>Cornelis Schuytstraat</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>POINT (4.8705851 52.3559987)</t>
         </is>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>4.8705851</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>52.3559987</v>
       </c>
     </row>
@@ -3278,18 +3783,23 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>Kronenburg</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>POINT (4.8706118 52.3160769)</t>
         </is>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>4.8706118</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>52.3160769</v>
       </c>
     </row>
@@ -3306,18 +3816,23 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>Oranjebaan</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>POINT (4.8716334 52.3027943)</t>
         </is>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>4.8716334</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>52.3027943</v>
       </c>
     </row>
@@ -3334,18 +3849,23 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>Kinkerstraat</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>POINT (4.8719933 52.3674579)</t>
         </is>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>4.8719933</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>52.3674579</v>
       </c>
     </row>
@@ -3362,18 +3882,23 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>Minervaplein</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>POINT (4.8720137 52.346695)</t>
         </is>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>4.8720137</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>52.346695</v>
       </c>
     </row>
@@ -3390,18 +3915,23 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>Zonnestein</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>POINT (4.8722618 52.3121859)</t>
         </is>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>4.8722618</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>52.3121859</v>
       </c>
     </row>
@@ -3418,18 +3948,23 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>Onderuit</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>POINT (4.8724478 52.3079604)</t>
         </is>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>4.8724478</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>52.3079604</v>
       </c>
     </row>
@@ -3446,18 +3981,23 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>Hugo de Grootplein</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>POINT (4.872531 52.3742987)</t>
         </is>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>4.872531</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>52.3742987</v>
       </c>
     </row>
@@ -3474,18 +4014,23 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>Station Zuid</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>POINT (4.8731849 52.3408165)</t>
         </is>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>4.8731849</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>52.3408165</v>
       </c>
     </row>
@@ -3502,18 +4047,23 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>Van Limburg Stirumplein</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>POINT (4.8749198 52.3844185)</t>
         </is>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>4.8749198</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>52.3844185</v>
       </c>
     </row>
@@ -3530,18 +4080,23 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>Overtoom/ 1e C. Huygensstraat</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>POINT (4.8749794 52.363227)</t>
         </is>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>4.8749794</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>52.363227</v>
       </c>
     </row>
@@ -3558,18 +4113,23 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>Frederik Hendrikplantsoen</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>POINT (4.875268 52.3784783)</t>
         </is>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>4.875268</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>52.3784783</v>
       </c>
     </row>
@@ -3586,18 +4146,23 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>Marnixstraat</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>POINT (4.8752838 52.3720538)</t>
         </is>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>4.8752838</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>52.3720538</v>
       </c>
     </row>
@@ -3614,18 +4179,23 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>Rozengracht</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>POINT (4.8758665 52.3726552)</t>
         </is>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>4.8758665</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>52.3726552</v>
       </c>
     </row>
@@ -3642,18 +4212,23 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>Beethovenstraat</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>POINT (4.8762769 52.3468693)</t>
         </is>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>4.8762769</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>52.3468693</v>
       </c>
     </row>
@@ -3670,18 +4245,23 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>Bloemgracht</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>POINT (4.8763837 52.3742782)</t>
         </is>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>4.8763837</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>52.3742782</v>
       </c>
     </row>
@@ -3698,18 +4278,23 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>Prinses Irenestraat</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>POINT (4.8767749 52.3431074)</t>
         </is>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>4.8767749</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>52.3431074</v>
       </c>
     </row>
@@ -3726,18 +4311,23 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>Stadionweg</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>POINT (4.8768645 52.346674)</t>
         </is>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>4.8768645</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>52.346674</v>
       </c>
     </row>
@@ -3754,18 +4344,23 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>Elandsgracht</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>POINT (4.8768971 52.368541)</t>
         </is>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>4.8768971</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>52.368541</v>
       </c>
     </row>
@@ -3782,18 +4377,23 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>De Wittenkade</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>POINT (4.8770204 52.3832175)</t>
         </is>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>4.8770204</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>52.3832175</v>
       </c>
     </row>
@@ -3810,18 +4410,23 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>Gerrit van der Veenstraat</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>POINT (4.8771911 52.3488198)</t>
         </is>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>4.8771911</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>52.3488198</v>
       </c>
     </row>
@@ -3838,18 +4443,23 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>Van Baerlestraat</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>POINT (4.8781266 52.3587793)</t>
         </is>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>4.8781266</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>52.3587793</v>
       </c>
     </row>
@@ -3866,18 +4476,23 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>Marnixplein</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>POINT (4.8785423 52.3783985)</t>
         </is>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>4.8785423</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>52.3783985</v>
       </c>
     </row>
@@ -3894,18 +4509,23 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>Nassaukade</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>POINT (4.8791525 52.3810685)</t>
         </is>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>4.8791525</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>52.3810685</v>
       </c>
     </row>
@@ -3922,18 +4542,23 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>Concertgebouw</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>POINT (4.8791804 52.3559245)</t>
         </is>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>4.8791804</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>52.3559245</v>
       </c>
     </row>
@@ -3950,18 +4575,23 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>Museumplein</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>POINT (4.8806042 52.3587143)</t>
         </is>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>4.8806042</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>52.3587143</v>
       </c>
     </row>
@@ -3978,18 +4608,23 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>Leidseplein</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>POINT (4.8806933 52.3646825)</t>
         </is>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>4.8806933</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>52.3646825</v>
       </c>
     </row>
@@ -4006,18 +4641,23 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>Nieuwe Willemstraat</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>POINT (4.8809562 52.381394)</t>
         </is>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>4.8809562</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>52.381394</v>
       </c>
     </row>
@@ -4034,18 +4674,23 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>Roelof Hartplein</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>POINT (4.8820747 52.3526434)</t>
         </is>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
         <v>4.8820747</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>52.3526434</v>
       </c>
     </row>
@@ -4062,18 +4707,23 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>Eerste Marnixdwarsstraat</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>POINT (4.8821775 52.383238)</t>
         </is>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
         <v>4.8821775</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>52.383238</v>
       </c>
     </row>
@@ -4090,18 +4740,23 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>Westermarkt</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>POINT (4.8837739 52.3740565)</t>
         </is>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>4.8837739</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>52.3740565</v>
       </c>
     </row>
@@ -4118,18 +4773,23 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>Prinsengracht</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>POINT (4.8843839 52.3650035)</t>
         </is>
       </c>
-      <c r="E132" t="n">
+      <c r="F132" t="n">
         <v>4.8843839</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>52.3650035</v>
       </c>
     </row>
@@ -4146,18 +4806,23 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>Zoutkeetsgracht</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>POINT (4.8851416 52.388084)</t>
         </is>
       </c>
-      <c r="E133" t="n">
+      <c r="F133" t="n">
         <v>4.8851416</v>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>52.388084</v>
       </c>
     </row>
@@ -4174,18 +4839,23 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>Keizersgracht</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>POINT (4.8863435 52.3659309)</t>
         </is>
       </c>
-      <c r="E134" t="n">
+      <c r="F134" t="n">
         <v>4.8863435</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>52.3659309</v>
       </c>
     </row>
@@ -4202,18 +4872,23 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>Rijksmuseum</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>POINT (4.887104 52.3609734)</t>
         </is>
       </c>
-      <c r="E135" t="n">
+      <c r="F135" t="n">
         <v>4.887104</v>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>52.3609734</v>
       </c>
     </row>
@@ -4230,18 +4905,23 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>Koningsplein</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>POINT (4.8889206 52.368085)</t>
         </is>
       </c>
-      <c r="E136" t="n">
+      <c r="F136" t="n">
         <v>4.8889206</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>52.368085</v>
       </c>
     </row>
@@ -4258,18 +4938,23 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>Drentepark</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>POINT (4.889801 52.3362207)</t>
         </is>
       </c>
-      <c r="E137" t="n">
+      <c r="F137" t="n">
         <v>4.889801</v>
       </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
         <v>52.3362207</v>
       </c>
     </row>
@@ -4286,18 +4971,23 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>De Pijp</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>POINT (4.8901771 52.3526769)</t>
         </is>
       </c>
-      <c r="E138" t="n">
+      <c r="F138" t="n">
         <v>4.8901771</v>
       </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>52.3526769</v>
       </c>
     </row>
@@ -4314,18 +5004,23 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>Station RAI</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>POINT (4.8905473 52.3369049)</t>
         </is>
       </c>
-      <c r="E139" t="n">
+      <c r="F139" t="n">
         <v>4.8905473</v>
       </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
         <v>52.3369049</v>
       </c>
     </row>
@@ -4342,18 +5037,23 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>Paleisstraat</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>POINT (4.890644 52.3719008)</t>
         </is>
       </c>
-      <c r="E140" t="n">
+      <c r="F140" t="n">
         <v>4.890644</v>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>52.3719008</v>
       </c>
     </row>
@@ -4370,18 +5070,23 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>Marie Heinekenplein</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>POINT (4.8907033 52.3570037)</t>
         </is>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>4.8907033</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>52.3570037</v>
       </c>
     </row>
@@ -4398,18 +5103,23 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>Vijzelgracht</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>POINT (4.8909623 52.3599031)</t>
         </is>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>4.8909623</v>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>52.3599031</v>
       </c>
     </row>
@@ -4426,18 +5136,23 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>Scheldestraat</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>POINT (4.8911566 52.3474774)</t>
         </is>
       </c>
-      <c r="E143" t="n">
+      <c r="F143" t="n">
         <v>4.8911566</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>52.3474774</v>
       </c>
     </row>
@@ -4454,18 +5169,23 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>v. Hilligaertstraat</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>POINT (4.8914549 52.3494092)</t>
         </is>
       </c>
-      <c r="E144" t="n">
+      <c r="F144" t="n">
         <v>4.8914549</v>
       </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
         <v>52.3494092</v>
       </c>
     </row>
@@ -4482,18 +5202,23 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>Cornelis Troostplein</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>POINT (4.8915363 52.350302)</t>
         </is>
       </c>
-      <c r="E145" t="n">
+      <c r="F145" t="n">
         <v>4.8915363</v>
       </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
         <v>52.350302</v>
       </c>
     </row>
@@ -4510,18 +5235,23 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>Rokin</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>POINT (4.8921252 52.3694572)</t>
         </is>
       </c>
-      <c r="E146" t="n">
+      <c r="F146" t="n">
         <v>4.8921252</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>52.3694572</v>
       </c>
     </row>
@@ -4538,18 +5268,23 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>Europaplein</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>POINT (4.8921974 52.3402318)</t>
         </is>
       </c>
-      <c r="E147" t="n">
+      <c r="F147" t="n">
         <v>4.8921974</v>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>52.3402318</v>
       </c>
     </row>
@@ -4566,18 +5301,23 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>Weteringcircuit</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>POINT (4.8923379 52.3593327)</t>
         </is>
       </c>
-      <c r="E148" t="n">
+      <c r="F148" t="n">
         <v>4.8923379</v>
       </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
         <v>52.3593327</v>
       </c>
     </row>
@@ -4594,18 +5334,23 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>Nieuwezijds Kolk</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>POINT (4.8930014 52.3758615)</t>
         </is>
       </c>
-      <c r="E149" t="n">
+      <c r="F149" t="n">
         <v>4.8930014</v>
       </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
         <v>52.3758615</v>
       </c>
     </row>
@@ -4622,18 +5367,23 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>Dintelstraat</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>POINT (4.8930059 52.341925)</t>
         </is>
       </c>
-      <c r="E150" t="n">
+      <c r="F150" t="n">
         <v>4.8930059</v>
       </c>
-      <c r="F150" t="n">
+      <c r="G150" t="n">
         <v>52.341925</v>
       </c>
     </row>
@@ -4650,18 +5400,23 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>Muntplein</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>POINT (4.8930583 52.3658545)</t>
         </is>
       </c>
-      <c r="E151" t="n">
+      <c r="F151" t="n">
         <v>4.8930583</v>
       </c>
-      <c r="F151" t="n">
+      <c r="G151" t="n">
         <v>52.3658545</v>
       </c>
     </row>
@@ -4678,18 +5433,23 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>Tweede Van der Helststraat</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>POINT (4.8942153 52.3531905)</t>
         </is>
       </c>
-      <c r="E152" t="n">
+      <c r="F152" t="n">
         <v>4.8942153</v>
       </c>
-      <c r="F152" t="n">
+      <c r="G152" t="n">
         <v>52.3531905</v>
       </c>
     </row>
@@ -4706,18 +5466,23 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>Maasstraat</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>POINT (4.8947303 52.3468163)</t>
         </is>
       </c>
-      <c r="E153" t="n">
+      <c r="F153" t="n">
         <v>4.8947303</v>
       </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
         <v>52.3468163</v>
       </c>
     </row>
@@ -4734,18 +5499,23 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>Rembrandtplein</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>POINT (4.8964238 52.3662601)</t>
         </is>
       </c>
-      <c r="E154" t="n">
+      <c r="F154" t="n">
         <v>4.8964238</v>
       </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
         <v>52.3662601</v>
       </c>
     </row>
@@ -4762,18 +5532,23 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>Frederiksplein</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>POINT (4.8978483 52.3594109)</t>
         </is>
       </c>
-      <c r="E155" t="n">
+      <c r="F155" t="n">
         <v>4.8978483</v>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>52.3594109</v>
       </c>
     </row>
@@ -4790,18 +5565,23 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>Stadhouderskade</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>POINT (4.8992468 52.3581612)</t>
         </is>
       </c>
-      <c r="E156" t="n">
+      <c r="F156" t="n">
         <v>4.8992468</v>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>52.3581612</v>
       </c>
     </row>
@@ -4818,18 +5598,23 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>Waalstraat</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>POINT (4.8997164 52.3465631)</t>
         </is>
       </c>
-      <c r="E157" t="n">
+      <c r="F157" t="n">
         <v>4.8997164</v>
       </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
         <v>52.3465631</v>
       </c>
     </row>
@@ -4846,18 +5631,23 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>Van Woustraat</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>POINT (4.9008616 52.3546903)</t>
         </is>
       </c>
-      <c r="E158" t="n">
+      <c r="F158" t="n">
         <v>4.9008616</v>
       </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
         <v>52.3546903</v>
       </c>
     </row>
@@ -4874,18 +5664,23 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>Ceintuurbaan</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>POINT (4.9010669 52.3550346)</t>
         </is>
       </c>
-      <c r="E159" t="n">
+      <c r="F159" t="n">
         <v>4.9010669</v>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>52.3550346</v>
       </c>
     </row>
@@ -4902,18 +5697,23 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>Waterlooplein</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>POINT (4.9019846 52.3669934)</t>
         </is>
       </c>
-      <c r="E160" t="n">
+      <c r="F160" t="n">
         <v>4.9019846</v>
       </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
         <v>52.3669934</v>
       </c>
     </row>
@@ -4930,18 +5730,23 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>Lutmastraat</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>POINT (4.903158 52.3517731)</t>
         </is>
       </c>
-      <c r="E161" t="n">
+      <c r="F161" t="n">
         <v>4.903158</v>
       </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>52.3517731</v>
       </c>
     </row>
@@ -4958,18 +5763,23 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>Amstelkade</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>POINT (4.904043 52.34941)</t>
         </is>
       </c>
-      <c r="E162" t="n">
+      <c r="F162" t="n">
         <v>4.904043</v>
       </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
         <v>52.34941</v>
       </c>
     </row>
@@ -4986,18 +5796,23 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>Victorieplein</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>POINT (4.905072 52.3467733)</t>
         </is>
       </c>
-      <c r="E163" t="n">
+      <c r="F163" t="n">
         <v>4.905072</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>52.3467733</v>
       </c>
     </row>
@@ -5014,18 +5829,23 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>Meester Visserplein</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>POINT (4.9053602 52.3679611)</t>
         </is>
       </c>
-      <c r="E164" t="n">
+      <c r="F164" t="n">
         <v>4.9053602</v>
       </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
         <v>52.3679611</v>
       </c>
     </row>
@@ -5042,18 +5862,23 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>Weesperplein</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>POINT (4.9071213 52.3610021)</t>
         </is>
       </c>
-      <c r="E165" t="n">
+      <c r="F165" t="n">
         <v>4.9071213</v>
       </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
         <v>52.3610021</v>
       </c>
     </row>
@@ -5070,18 +5895,23 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>Wibautstraat</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>POINT (4.9093615 52.3572865)</t>
         </is>
       </c>
-      <c r="E166" t="n">
+      <c r="F166" t="n">
         <v>4.9093615</v>
       </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
         <v>52.3572865</v>
       </c>
     </row>
@@ -5098,18 +5928,23 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>Artis</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>POINT (4.910955 52.3667187)</t>
         </is>
       </c>
-      <c r="E167" t="n">
+      <c r="F167" t="n">
         <v>4.910955</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>52.3667187</v>
       </c>
     </row>
@@ -5126,18 +5961,23 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>Amsteldijk</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>POINT (4.9109989 52.3471106)</t>
         </is>
       </c>
-      <c r="E168" t="n">
+      <c r="F168" t="n">
         <v>4.9109989</v>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>52.3471106</v>
       </c>
     </row>
@@ -5154,18 +5994,23 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>Muziekgebouw</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>POINT (4.912547 52.3772761)</t>
         </is>
       </c>
-      <c r="E169" t="n">
+      <c r="F169" t="n">
         <v>4.912547</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>52.3772761</v>
       </c>
     </row>
@@ -5182,18 +6027,23 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>Camperstraat</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>POINT (4.9134821 52.358335)</t>
         </is>
       </c>
-      <c r="E170" t="n">
+      <c r="F170" t="n">
         <v>4.9134821</v>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>52.358335</v>
       </c>
     </row>
@@ -5210,18 +6060,23 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>Korte 's-Gravesandestraat</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>POINT (4.9135923 52.3623479)</t>
         </is>
       </c>
-      <c r="E171" t="n">
+      <c r="F171" t="n">
         <v>4.9135923</v>
       </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>52.3623479</v>
       </c>
     </row>
@@ -5238,18 +6093,23 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>Plantage Lepellaan</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>POINT (4.9152768 52.3652225)</t>
         </is>
       </c>
-      <c r="E172" t="n">
+      <c r="F172" t="n">
         <v>4.9152768</v>
       </c>
-      <c r="F172" t="n">
+      <c r="G172" t="n">
         <v>52.3652225</v>
       </c>
     </row>
@@ -5266,18 +6126,23 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>Beukenweg</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>POINT (4.9167422 52.3590732)</t>
         </is>
       </c>
-      <c r="E173" t="n">
+      <c r="F173" t="n">
         <v>4.9167422</v>
       </c>
-      <c r="F173" t="n">
+      <c r="G173" t="n">
         <v>52.3590732</v>
       </c>
     </row>
@@ -5294,18 +6159,23 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>Amstelstation</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>POINT (4.9178096 52.3474274)</t>
         </is>
       </c>
-      <c r="E174" t="n">
+      <c r="F174" t="n">
         <v>4.9178096</v>
       </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>52.3474274</v>
       </c>
     </row>
@@ -5322,18 +6192,23 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>Alexanderplein</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>POINT (4.9185684 52.3633708)</t>
         </is>
       </c>
-      <c r="E175" t="n">
+      <c r="F175" t="n">
         <v>4.9185684</v>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>52.3633708</v>
       </c>
     </row>
@@ -5350,18 +6225,23 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>Kattenburgerstraat</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>POINT (4.9211099 52.3761672)</t>
         </is>
       </c>
-      <c r="E176" t="n">
+      <c r="F176" t="n">
         <v>4.9211099</v>
       </c>
-      <c r="F176" t="n">
+      <c r="G176" t="n">
         <v>52.3761672</v>
       </c>
     </row>
@@ -5378,18 +6258,23 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>Eerste Van Swindenstraat</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>POINT (4.9238286 52.3621936)</t>
         </is>
       </c>
-      <c r="E177" t="n">
+      <c r="F177" t="n">
         <v>4.9238286</v>
       </c>
-      <c r="F177" t="n">
+      <c r="G177" t="n">
         <v>52.3621936</v>
       </c>
     </row>
@@ -5406,18 +6291,23 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>Hoogte Kadijk</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>POINT (4.9242477 52.3666491)</t>
         </is>
       </c>
-      <c r="E178" t="n">
+      <c r="F178" t="n">
         <v>4.9242477</v>
       </c>
-      <c r="F178" t="n">
+      <c r="G178" t="n">
         <v>52.3666491</v>
       </c>
     </row>
@@ -5434,18 +6324,23 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>Linnaeusstraat</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>POINT (4.9249118 52.3599165)</t>
         </is>
       </c>
-      <c r="E179" t="n">
+      <c r="F179" t="n">
         <v>4.9249118</v>
       </c>
-      <c r="F179" t="n">
+      <c r="G179" t="n">
         <v>52.3599165</v>
       </c>
     </row>
@@ -5462,18 +6357,23 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>Wijttenbachstraat</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>POINT (4.9250867 52.360259)</t>
         </is>
       </c>
-      <c r="E180" t="n">
+      <c r="F180" t="n">
         <v>4.9250867</v>
       </c>
-      <c r="F180" t="n">
+      <c r="G180" t="n">
         <v>52.360259</v>
       </c>
     </row>
@@ -5490,18 +6390,23 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>Eerste Coehoornstraat</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>POINT (4.9263002 52.3681426)</t>
         </is>
       </c>
-      <c r="E181" t="n">
+      <c r="F181" t="n">
         <v>4.9263002</v>
       </c>
-      <c r="F181" t="n">
+      <c r="G181" t="n">
         <v>52.3681426</v>
       </c>
     </row>
@@ -5518,18 +6423,23 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>Oostpoort</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>POINT (4.9268761 52.3574304)</t>
         </is>
       </c>
-      <c r="E182" t="n">
+      <c r="F182" t="n">
         <v>4.9268761</v>
       </c>
-      <c r="F182" t="n">
+      <c r="G182" t="n">
         <v>52.3574304</v>
       </c>
     </row>
@@ -5546,18 +6456,23 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>Pontanusstraat</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>POINT (4.9272032 52.3659058)</t>
         </is>
       </c>
-      <c r="E183" t="n">
+      <c r="F183" t="n">
         <v>4.9272032</v>
       </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>52.3659058</v>
       </c>
     </row>
@@ -5574,18 +6489,23 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>Dapperstraat</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>POINT (4.9289422 52.3609314)</t>
         </is>
       </c>
-      <c r="E184" t="n">
+      <c r="F184" t="n">
         <v>4.9289422</v>
       </c>
-      <c r="F184" t="n">
+      <c r="G184" t="n">
         <v>52.3609314</v>
       </c>
     </row>
@@ -5602,18 +6522,23 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>Eerste Leeghwaterstraat</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>POINT (4.9293975 52.3700769)</t>
         </is>
       </c>
-      <c r="E185" t="n">
+      <c r="F185" t="n">
         <v>4.9293975</v>
       </c>
-      <c r="F185" t="n">
+      <c r="G185" t="n">
         <v>52.3700769</v>
       </c>
     </row>
@@ -5630,18 +6555,23 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>Hogeweg</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>POINT (4.9308725 52.353568)</t>
         </is>
       </c>
-      <c r="E186" t="n">
+      <c r="F186" t="n">
         <v>4.9308725</v>
       </c>
-      <c r="F186" t="n">
+      <c r="G186" t="n">
         <v>52.353568</v>
       </c>
     </row>
@@ -5658,18 +6588,23 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
           <t>Zeeburgerdijk</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>POINT (4.9324425 52.3659327)</t>
         </is>
       </c>
-      <c r="E187" t="n">
+      <c r="F187" t="n">
         <v>4.9324425</v>
       </c>
-      <c r="F187" t="n">
+      <c r="G187" t="n">
         <v>52.3659327</v>
       </c>
     </row>
@@ -5686,18 +6621,23 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
           <t>Muiderpoortstation</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>POINT (4.9326128 52.3607965)</t>
         </is>
       </c>
-      <c r="E188" t="n">
+      <c r="F188" t="n">
         <v>4.9326128</v>
       </c>
-      <c r="F188" t="n">
+      <c r="G188" t="n">
         <v>52.3607965</v>
       </c>
     </row>
@@ -5714,18 +6654,23 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>Rietlandpark</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>POINT (4.9334664 52.3732299)</t>
         </is>
       </c>
-      <c r="E189" t="n">
+      <c r="F189" t="n">
         <v>4.9334664</v>
       </c>
-      <c r="F189" t="n">
+      <c r="G189" t="n">
         <v>52.3732299</v>
       </c>
     </row>
@@ -5742,18 +6687,23 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
           <t>Hugo de Vrieslaan</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>POINT (4.934801 52.351066)</t>
         </is>
       </c>
-      <c r="E190" t="n">
+      <c r="F190" t="n">
         <v>4.934801</v>
       </c>
-      <c r="F190" t="n">
+      <c r="G190" t="n">
         <v>52.351066</v>
       </c>
     </row>
@@ -5770,18 +6720,23 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
           <t>Azartplein</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>POINT (4.9373223 52.3766133)</t>
         </is>
       </c>
-      <c r="E191" t="n">
+      <c r="F191" t="n">
         <v>4.9373223</v>
       </c>
-      <c r="F191" t="n">
+      <c r="G191" t="n">
         <v>52.3766133</v>
       </c>
     </row>
@@ -5798,18 +6753,23 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
           <t>C. van Eesterenlaan</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>POINT (4.9381702 52.3734596)</t>
         </is>
       </c>
-      <c r="E192" t="n">
+      <c r="F192" t="n">
         <v>4.9381702</v>
       </c>
-      <c r="F192" t="n">
+      <c r="G192" t="n">
         <v>52.3734596</v>
       </c>
     </row>
@@ -5826,18 +6786,23 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
           <t>Javaplein</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>POINT (4.9382411 52.3641725)</t>
         </is>
       </c>
-      <c r="E193" t="n">
+      <c r="F193" t="n">
         <v>4.9382411</v>
       </c>
-      <c r="F193" t="n">
+      <c r="G193" t="n">
         <v>52.3641725</v>
       </c>
     </row>
@@ -5854,18 +6819,23 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
           <t>Kruislaan</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>POINT (4.9398853 52.3479273)</t>
         </is>
       </c>
-      <c r="E194" t="n">
+      <c r="F194" t="n">
         <v>4.9398853</v>
       </c>
-      <c r="F194" t="n">
+      <c r="G194" t="n">
         <v>52.3479273</v>
       </c>
     </row>
@@ -5882,18 +6852,23 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
           <t>Molukkenstraat</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>POINT (4.9401785 52.3617259)</t>
         </is>
       </c>
-      <c r="E195" t="n">
+      <c r="F195" t="n">
         <v>4.9401785</v>
       </c>
-      <c r="F195" t="n">
+      <c r="G195" t="n">
         <v>52.3617259</v>
       </c>
     </row>
@@ -5910,18 +6885,23 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
           <t>Soembawastraat</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>POINT (4.9433884 52.3621442)</t>
         </is>
       </c>
-      <c r="E196" t="n">
+      <c r="F196" t="n">
         <v>4.9433884</v>
       </c>
-      <c r="F196" t="n">
+      <c r="G196" t="n">
         <v>52.3621442</v>
       </c>
     </row>
@@ -5938,18 +6918,23 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
           <t>Brinkstraat</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>POINT (4.9474911 52.3432024)</t>
         </is>
       </c>
-      <c r="E197" t="n">
+      <c r="F197" t="n">
         <v>4.9474911</v>
       </c>
-      <c r="F197" t="n">
+      <c r="G197" t="n">
         <v>52.3432024</v>
       </c>
     </row>
@@ -5966,18 +6951,23 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
           <t>Insulindeweg</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>POINT (4.9476342 52.3647569)</t>
         </is>
       </c>
-      <c r="E198" t="n">
+      <c r="F198" t="n">
         <v>4.9476342</v>
       </c>
-      <c r="F198" t="n">
+      <c r="G198" t="n">
         <v>52.3647569</v>
       </c>
     </row>
@@ -5994,18 +6984,23 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
           <t>Flevopark</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>POINT (4.9510568 52.3652467)</t>
         </is>
       </c>
-      <c r="E199" t="n">
+      <c r="F199" t="n">
         <v>4.9510568</v>
       </c>
-      <c r="F199" t="n">
+      <c r="G199" t="n">
         <v>52.3652467</v>
       </c>
     </row>
@@ -6022,18 +7017,23 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>Arent Krijtsstraat</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>POINT (4.9546574 52.33957)</t>
         </is>
       </c>
-      <c r="E200" t="n">
+      <c r="F200" t="n">
         <v>4.9546574</v>
       </c>
-      <c r="F200" t="n">
+      <c r="G200" t="n">
         <v>52.33957</v>
       </c>
     </row>
@@ -6050,18 +7050,23 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
           <t>Diemerbrug</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>POINT (4.9613021 52.3382375)</t>
         </is>
       </c>
-      <c r="E201" t="n">
+      <c r="F201" t="n">
         <v>4.9613021</v>
       </c>
-      <c r="F201" t="n">
+      <c r="G201" t="n">
         <v>52.3382375</v>
       </c>
     </row>
@@ -6078,18 +7083,23 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
           <t>Zuiderzeeweg</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>POINT (4.9616739 52.3719706)</t>
         </is>
       </c>
-      <c r="E202" t="n">
+      <c r="F202" t="n">
         <v>4.9616739</v>
       </c>
-      <c r="F202" t="n">
+      <c r="G202" t="n">
         <v>52.3719706</v>
       </c>
     </row>
@@ -6104,16 +7114,21 @@
           <t>tram_stop</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr">
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
         <is>
           <t>POINT (4.9634834 52.3713049)</t>
         </is>
       </c>
-      <c r="E203" t="n">
+      <c r="F203" t="n">
         <v>4.9634834</v>
       </c>
-      <c r="F203" t="n">
+      <c r="G203" t="n">
         <v>52.3713049</v>
       </c>
     </row>
@@ -6130,18 +7145,23 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
           <t>Bob Haarmslaan</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>POINT (4.968548 52.369133)</t>
         </is>
       </c>
-      <c r="E204" t="n">
+      <c r="F204" t="n">
         <v>4.968548</v>
       </c>
-      <c r="F204" t="n">
+      <c r="G204" t="n">
         <v>52.369133</v>
       </c>
     </row>
@@ -6158,18 +7178,23 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
           <t>Sniep</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>POINT (4.9697229 52.3364299)</t>
         </is>
       </c>
-      <c r="E205" t="n">
+      <c r="F205" t="n">
         <v>4.9697229</v>
       </c>
-      <c r="F205" t="n">
+      <c r="G205" t="n">
         <v>52.3364299</v>
       </c>
     </row>
@@ -6186,18 +7211,23 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
           <t>Steigereiland</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>POINT (4.9799507 52.3632345)</t>
         </is>
       </c>
-      <c r="E206" t="n">
+      <c r="F206" t="n">
         <v>4.9799507</v>
       </c>
-      <c r="F206" t="n">
+      <c r="G206" t="n">
         <v>52.3632345</v>
       </c>
     </row>
@@ -6214,18 +7244,23 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
           <t>Vennepluimstraat</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>POINT (4.9899502 52.3580579)</t>
         </is>
       </c>
-      <c r="E207" t="n">
+      <c r="F207" t="n">
         <v>4.9899502</v>
       </c>
-      <c r="F207" t="n">
+      <c r="G207" t="n">
         <v>52.3580579</v>
       </c>
     </row>
@@ -6242,18 +7277,23 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
           <t>Diemerparklaan</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>POINT (4.9946247 52.3555154)</t>
         </is>
       </c>
-      <c r="E208" t="n">
+      <c r="F208" t="n">
         <v>4.9946247</v>
       </c>
-      <c r="F208" t="n">
+      <c r="G208" t="n">
         <v>52.3555154</v>
       </c>
     </row>
@@ -6270,18 +7310,23 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
           <t>Lumièrestraat</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>POINT (4.9990167 52.3531807)</t>
         </is>
       </c>
-      <c r="E209" t="n">
+      <c r="F209" t="n">
         <v>4.9990167</v>
       </c>
-      <c r="F209" t="n">
+      <c r="G209" t="n">
         <v>52.3531807</v>
       </c>
     </row>
@@ -6298,18 +7343,23 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
           <t>IJburg</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>POINT (5.0049024 52.3511345)</t>
         </is>
       </c>
-      <c r="E210" t="n">
+      <c r="F210" t="n">
         <v>5.0049024</v>
       </c>
-      <c r="F210" t="n">
+      <c r="G210" t="n">
         <v>52.3511345</v>
       </c>
     </row>
@@ -6331,13 +7381,18 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
+          <t>Centraal Station</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
           <t>POINT (4.8987647 52.3785952)</t>
         </is>
       </c>
-      <c r="E211" t="n">
+      <c r="F211" t="n">
         <v>4.8987647</v>
       </c>
-      <c r="F211" t="n">
+      <c r="G211" t="n">
         <v>52.3785952</v>
       </c>
     </row>
@@ -6359,13 +7414,18 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
+          <t>Centraal Station</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
           <t>POINT (4.9009826 52.3777045)</t>
         </is>
       </c>
-      <c r="E212" t="n">
+      <c r="F212" t="n">
         <v>4.9009826</v>
       </c>
-      <c r="F212" t="n">
+      <c r="G212" t="n">
         <v>52.3777045</v>
       </c>
     </row>

--- a/notebooks/am_tram_stations.xlsx
+++ b/notebooks/am_tram_stations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:I214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>alt_name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>public_transport</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>geo_x</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>geo_y</t>
         </is>
@@ -491,15 +501,21 @@
           <t>Matterhorn</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>POINT (4.7745043 52.3538687)</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>4.7745043</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>52.3538687</v>
       </c>
     </row>
@@ -524,15 +540,21 @@
           <t>Pilatus</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>POINT (4.776554 52.3530108)</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>4.776554</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>52.3530108</v>
       </c>
     </row>
@@ -557,15 +579,21 @@
           <t>Inaristraat</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>POINT (4.7829483 52.3504489)</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>4.7829483</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>52.3504489</v>
       </c>
     </row>
@@ -590,15 +618,21 @@
           <t>Dijkgraafplein</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>POINT (4.7864929 52.3554481)</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>4.7864929</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>52.3554481</v>
       </c>
     </row>
@@ -623,15 +657,21 @@
           <t>Ecuplein</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>POINT (4.7881582 52.3496935)</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>4.7881582</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>52.3496935</v>
       </c>
     </row>
@@ -656,15 +696,21 @@
           <t>Baden Powellweg</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>POINT (4.7913 52.3564413)</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>4.7913</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>52.3564413</v>
       </c>
     </row>
@@ -689,15 +735,21 @@
           <t>Hoekenes</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>POINT (4.7990044 52.3579858)</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>4.7990044</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>52.3579858</v>
       </c>
     </row>
@@ -722,15 +774,21 @@
           <t>Lambertus Zijlplein</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>POINT (4.8029118 52.3772607)</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>4.8029118</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>52.3772607</v>
       </c>
     </row>
@@ -755,15 +813,21 @@
           <t>Osdorpplein West</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>POINT (4.8032054 52.3595387)</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>4.8032054</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>52.3595387</v>
       </c>
     </row>
@@ -788,15 +852,21 @@
           <t>Oudenaardeplantsoen</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>POINT (4.8036706 52.3449284)</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>4.8036706</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>52.3449284</v>
       </c>
     </row>
@@ -821,15 +891,21 @@
           <t>Dr. H. Colijnstraat</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>POINT (4.8062691 52.3769399)</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>4.8062691</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>52.3769399</v>
       </c>
     </row>
@@ -854,15 +930,21 @@
           <t>Osdorpplein Oost</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>POINT (4.8077454 52.359326)</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>4.8077454</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>52.359326</v>
       </c>
     </row>
@@ -887,15 +969,21 @@
           <t>Louis Davidsstraat</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>POINT (4.8085181 52.3538389)</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>4.8085181</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>52.3538389</v>
       </c>
     </row>
@@ -920,15 +1008,21 @@
           <t>Meer en Vaart</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>POINT (4.8099119 52.35637)</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>4.8099119</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>52.35637</v>
       </c>
     </row>
@@ -953,15 +1047,21 @@
           <t>Centrum Nieuw Sloten</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>POINT (4.8106661 52.3463027)</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>4.8106661</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>52.3463027</v>
       </c>
     </row>
@@ -986,15 +1086,21 @@
           <t>Burgemeester Van Leeuwenlaan</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>POINT (4.8117554 52.3765095)</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>4.8117554</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>52.3765095</v>
       </c>
     </row>
@@ -1019,15 +1125,21 @@
           <t>Laan van Vlaanderen</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>POINT (4.8156883 52.3464422)</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>4.8156883</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>52.3464422</v>
       </c>
     </row>
@@ -1052,15 +1164,21 @@
           <t>Slotermeerlaan</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>POINT (4.8173607 52.3759547)</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>4.8173607</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>52.3759547</v>
       </c>
     </row>
@@ -1085,15 +1203,21 @@
           <t>Sloterpark</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>POINT (4.8186019 52.3728449)</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>4.8186019</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>52.3728449</v>
       </c>
     </row>
@@ -1118,15 +1242,21 @@
           <t>Burgemeester Roëllstraat</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>POINT (4.8187509 52.3750672)</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>4.8187509</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>52.3750672</v>
       </c>
     </row>
@@ -1151,15 +1281,21 @@
           <t>Plein '40-'45</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>POINT (4.8211591 52.3808373)</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>4.8211591</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>52.3808373</v>
       </c>
     </row>
@@ -1184,15 +1320,21 @@
           <t>Louwesweg</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>POINT (4.8242594 52.3466865)</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>4.8242594</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>52.3466865</v>
       </c>
     </row>
@@ -1217,15 +1359,21 @@
           <t>Burgemeester Eliasstraat</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>POINT (4.8258104 52.38075)</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>4.8258104</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>52.38075</v>
       </c>
     </row>
@@ -1250,15 +1398,21 @@
           <t>Johan Huizingalaan</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>POINT (4.8258953 52.3578123)</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
         <v>4.8258953</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>52.3578123</v>
       </c>
     </row>
@@ -1283,15 +1437,21 @@
           <t>Burgemeester Rendorpstraat</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>POINT (4.8268013 52.3744723)</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>4.8268013</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>52.3744723</v>
       </c>
     </row>
@@ -1316,15 +1476,21 @@
           <t>Westwijk</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>POINT (4.8305377 52.2743532)</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
         <v>4.8305377</v>
       </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>52.2743532</v>
       </c>
     </row>
@@ -1349,15 +1515,21 @@
           <t>Burgemeester Fockstraat</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>POINT (4.8312794 52.3798913)</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
         <v>4.8312794</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>52.3798913</v>
       </c>
     </row>
@@ -1382,15 +1554,21 @@
           <t>Sacharovlaan</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>POINT (4.8323277 52.2821847)</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
         <v>4.8323277</v>
       </c>
-      <c r="G29" t="n">
+      <c r="I29" t="n">
         <v>52.2821847</v>
       </c>
     </row>
@@ -1415,15 +1593,21 @@
           <t>Heemstedestraat</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>POINT (4.8337504 52.3515095)</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
         <v>4.8337504</v>
       </c>
-      <c r="G30" t="n">
+      <c r="I30" t="n">
         <v>52.3515095</v>
       </c>
     </row>
@@ -1448,15 +1632,21 @@
           <t>Station Lelylaan</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>POINT (4.8337835 52.3579004)</t>
         </is>
       </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
         <v>4.8337835</v>
       </c>
-      <c r="G31" t="n">
+      <c r="I31" t="n">
         <v>52.3579004</v>
       </c>
     </row>
@@ -1481,15 +1671,21 @@
           <t>Jan van Galenstraat</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>POINT (4.8350051 52.3732337)</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
         <v>4.8350051</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
         <v>52.3732337</v>
       </c>
     </row>
@@ -1514,15 +1710,21 @@
           <t>Burgemeester de Vlugtlaan</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>POINT (4.8372054 52.378963)</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
         <v>4.8372054</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>52.378963</v>
       </c>
     </row>
@@ -1547,15 +1749,21 @@
           <t>Jan Tooropstraat</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>POINT (4.8377996 52.3708325)</t>
         </is>
       </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
         <v>4.8377996</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>52.3708325</v>
       </c>
     </row>
@@ -1580,15 +1788,21 @@
           <t>Jan Voermanstraat</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>POINT (4.8378389 52.3697121)</t>
         </is>
       </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
         <v>4.8378389</v>
       </c>
-      <c r="G35" t="n">
+      <c r="I35" t="n">
         <v>52.3697121</v>
       </c>
     </row>
@@ -1613,15 +1827,21 @@
           <t>Bovenkerk</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>POINT (4.8391034 52.2908393)</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
         <v>4.8391034</v>
       </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
         <v>52.2908393</v>
       </c>
     </row>
@@ -1646,15 +1866,21 @@
           <t>Station Sloterdijk</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>POINT (4.8392172 52.3879696)</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
         <v>4.8392172</v>
       </c>
-      <c r="G37" t="n">
+      <c r="I37" t="n">
         <v>52.3879696</v>
       </c>
     </row>
@@ -1679,15 +1905,21 @@
           <t>Derkinderenstraat</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>POINT (4.8397482 52.3579573)</t>
         </is>
       </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
         <v>4.8397482</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>52.3579573</v>
       </c>
     </row>
@@ -1712,15 +1944,21 @@
           <t>Delflandlaan</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>POINT (4.83976 52.351558)</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="H39" t="n">
         <v>4.83976</v>
       </c>
-      <c r="G39" t="n">
+      <c r="I39" t="n">
         <v>52.351558</v>
       </c>
     </row>
@@ -1745,15 +1983,21 @@
           <t>Noorddammerlaan</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>POINT (4.8400481 52.2920559)</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
         <v>4.8400481</v>
       </c>
-      <c r="G40" t="n">
+      <c r="I40" t="n">
         <v>52.2920559</v>
       </c>
     </row>
@@ -1778,15 +2022,21 @@
           <t>Admiraal Helfrichstraat</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>POINT (4.8438216 52.3694429)</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
         <v>4.8438216</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>52.3694429</v>
       </c>
     </row>
@@ -1811,15 +2061,21 @@
           <t>Bos en Lommerplein</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>POINT (4.8449335 52.3777823)</t>
         </is>
       </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
         <v>4.8449335</v>
       </c>
-      <c r="G42" t="n">
+      <c r="I42" t="n">
         <v>52.3777823</v>
       </c>
     </row>
@@ -1844,15 +2100,21 @@
           <t>Westlandgracht</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>POINT (4.8450157 52.3515947)</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
         <v>4.8450157</v>
       </c>
-      <c r="G43" t="n">
+      <c r="I43" t="n">
         <v>52.3515947</v>
       </c>
     </row>
@@ -1877,15 +2139,21 @@
           <t>Poortwachter</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>POINT (4.8450525 52.2833338)</t>
         </is>
       </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
         <v>4.8450525</v>
       </c>
-      <c r="G44" t="n">
+      <c r="I44" t="n">
         <v>52.2833338</v>
       </c>
     </row>
@@ -1910,15 +2178,21 @@
           <t>Handweg</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>POINT (4.8453672 52.2994491)</t>
         </is>
       </c>
-      <c r="F45" t="n">
+      <c r="H45" t="n">
         <v>4.8453672</v>
       </c>
-      <c r="G45" t="n">
+      <c r="I45" t="n">
         <v>52.2994491</v>
       </c>
     </row>
@@ -1943,15 +2217,21 @@
           <t>Molenwerf</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>POINT (4.8461556 52.3858895)</t>
         </is>
       </c>
-      <c r="F46" t="n">
+      <c r="H46" t="n">
         <v>4.8461556</v>
       </c>
-      <c r="G46" t="n">
+      <c r="I46" t="n">
         <v>52.3858895</v>
       </c>
     </row>
@@ -1976,15 +2256,21 @@
           <t>Erasmusgracht</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>POINT (4.8469734 52.3763312)</t>
         </is>
       </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
         <v>4.8469734</v>
       </c>
-      <c r="G47" t="n">
+      <c r="I47" t="n">
         <v>52.3763312</v>
       </c>
     </row>
@@ -2009,15 +2295,21 @@
           <t>Station Amstelveen</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>POINT (4.8477382 52.3013966)</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="H48" t="n">
         <v>4.8477382</v>
       </c>
-      <c r="G48" t="n">
+      <c r="I48" t="n">
         <v>52.3013966</v>
       </c>
     </row>
@@ -2042,15 +2334,21 @@
           <t>Hoofddorpplein</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>POINT (4.8495922 52.3511681)</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
         <v>4.8495922</v>
       </c>
-      <c r="G49" t="n">
+      <c r="I49" t="n">
         <v>52.3511681</v>
       </c>
     </row>
@@ -2075,15 +2373,21 @@
           <t>Mercatorplein</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>POINT (4.8499792 52.3706818)</t>
         </is>
       </c>
-      <c r="F50" t="n">
+      <c r="H50" t="n">
         <v>4.8499792</v>
       </c>
-      <c r="G50" t="n">
+      <c r="I50" t="n">
         <v>52.3706818</v>
       </c>
     </row>
@@ -2108,15 +2412,21 @@
           <t>Parklaan</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>POINT (4.8504873 52.3042535)</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="H51" t="n">
         <v>4.8504873</v>
       </c>
-      <c r="G51" t="n">
+      <c r="I51" t="n">
         <v>52.3042535</v>
       </c>
     </row>
@@ -2141,15 +2451,21 @@
           <t>Molenweg</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>POINT (4.8506593 52.3085646)</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="H52" t="n">
         <v>4.8506593</v>
       </c>
-      <c r="G52" t="n">
+      <c r="I52" t="n">
         <v>52.3085646</v>
       </c>
     </row>
@@ -2174,15 +2490,21 @@
           <t>Curacaostraat</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>POINT (4.8506975 52.3586176)</t>
         </is>
       </c>
-      <c r="F53" t="n">
+      <c r="H53" t="n">
         <v>4.8506975</v>
       </c>
-      <c r="G53" t="n">
+      <c r="I53" t="n">
         <v>52.3586176</v>
       </c>
     </row>
@@ -2207,15 +2529,21 @@
           <t>Karselaan</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>POINT (4.8507838 52.3109438)</t>
         </is>
       </c>
-      <c r="F54" t="n">
+      <c r="H54" t="n">
         <v>4.8507838</v>
       </c>
-      <c r="G54" t="n">
+      <c r="I54" t="n">
         <v>52.3109438</v>
       </c>
     </row>
@@ -2240,15 +2568,21 @@
           <t>Wiltzanghlaan</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>POINT (4.8508513 52.3828002)</t>
         </is>
       </c>
-      <c r="F55" t="n">
+      <c r="H55" t="n">
         <v>4.8508513</v>
       </c>
-      <c r="G55" t="n">
+      <c r="I55" t="n">
         <v>52.3828002</v>
       </c>
     </row>
@@ -2273,15 +2607,21 @@
           <t>Jan Wilsbrug</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>POINT (4.8509865 52.3442966)</t>
         </is>
       </c>
-      <c r="F56" t="n">
+      <c r="H56" t="n">
         <v>4.8509865</v>
       </c>
-      <c r="G56" t="n">
+      <c r="I56" t="n">
         <v>52.3442966</v>
       </c>
     </row>
@@ -2306,15 +2646,21 @@
           <t>Surinameplein</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>POINT (4.8509943 52.3580728)</t>
         </is>
       </c>
-      <c r="F57" t="n">
+      <c r="H57" t="n">
         <v>4.8509943</v>
       </c>
-      <c r="G57" t="n">
+      <c r="I57" t="n">
         <v>52.3580728</v>
       </c>
     </row>
@@ -2339,15 +2685,21 @@
           <t>Brink</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>POINT (4.8513367 52.2806292)</t>
         </is>
       </c>
-      <c r="F58" t="n">
+      <c r="H58" t="n">
         <v>4.8513367</v>
       </c>
-      <c r="G58" t="n">
+      <c r="I58" t="n">
         <v>52.2806292</v>
       </c>
     </row>
@@ -2372,27 +2724,33 @@
           <t>W. Schoutenstraat</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>POINT (4.8523612 52.3673886)</t>
         </is>
       </c>
-      <c r="F59" t="n">
+      <c r="H59" t="n">
         <v>4.8523612</v>
       </c>
-      <c r="G59" t="n">
+      <c r="I59" t="n">
         <v>52.3673886</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>296999161</t>
+          <t>4249280293</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>platform</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2405,16 +2763,22 @@
           <t>IJsbaanpad</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>POINT (4.8524016 52.3411779)</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>4.8524016</v>
-      </c>
-      <c r="G60" t="n">
-        <v>52.3411779</v>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>platform</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>POINT (4.8523781 52.3411758)</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4.8523781</v>
+      </c>
+      <c r="I60" t="n">
+        <v>52.3411758</v>
       </c>
     </row>
     <row r="61">
@@ -2438,15 +2802,21 @@
           <t>Postjesweg</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>POINT (4.8531487 52.3638557)</t>
         </is>
       </c>
-      <c r="F61" t="n">
+      <c r="H61" t="n">
         <v>4.8531487</v>
       </c>
-      <c r="G61" t="n">
+      <c r="I61" t="n">
         <v>52.3638557</v>
       </c>
     </row>
@@ -2471,15 +2841,21 @@
           <t>Corantijnstraat</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>POINT (4.853247 52.3615937)</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="H62" t="n">
         <v>4.853247</v>
       </c>
-      <c r="G62" t="n">
+      <c r="I62" t="n">
         <v>52.3615937</v>
       </c>
     </row>
@@ -2504,15 +2880,21 @@
           <t>Remise Karperweg</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>POINT (4.8534016 52.3475341)</t>
         </is>
       </c>
-      <c r="F63" t="n">
+      <c r="H63" t="n">
         <v>4.8534016</v>
       </c>
-      <c r="G63" t="n">
+      <c r="I63" t="n">
         <v>52.3475341</v>
       </c>
     </row>
@@ -2537,15 +2919,21 @@
           <t>Bos en Lommerweg</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>POINT (4.8539004 52.3811188)</t>
         </is>
       </c>
-      <c r="F64" t="n">
+      <c r="H64" t="n">
         <v>4.8539004</v>
       </c>
-      <c r="G64" t="n">
+      <c r="I64" t="n">
         <v>52.3811188</v>
       </c>
     </row>
@@ -2570,15 +2958,21 @@
           <t>Hoofdweg</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>POINT (4.853975 52.3642479)</t>
         </is>
       </c>
-      <c r="F65" t="n">
+      <c r="H65" t="n">
         <v>4.853975</v>
       </c>
-      <c r="G65" t="n">
+      <c r="I65" t="n">
         <v>52.3642479</v>
       </c>
     </row>
@@ -2603,15 +2997,21 @@
           <t>Jollenpad</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>POINT (4.8543795 52.3352719)</t>
         </is>
       </c>
-      <c r="F66" t="n">
+      <c r="H66" t="n">
         <v>4.8543795</v>
       </c>
-      <c r="G66" t="n">
+      <c r="I66" t="n">
         <v>52.3352719</v>
       </c>
     </row>
@@ -2636,15 +3036,21 @@
           <t>Marco Polostraat</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>POINT (4.8551084 52.3708621)</t>
         </is>
       </c>
-      <c r="F67" t="n">
+      <c r="H67" t="n">
         <v>4.8551084</v>
       </c>
-      <c r="G67" t="n">
+      <c r="I67" t="n">
         <v>52.3708621</v>
       </c>
     </row>
@@ -2669,15 +3075,21 @@
           <t>Amsterdamseweg</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>POINT (4.8552783 52.3153498)</t>
         </is>
       </c>
-      <c r="F68" t="n">
+      <c r="H68" t="n">
         <v>4.8552783</v>
       </c>
-      <c r="G68" t="n">
+      <c r="I68" t="n">
         <v>52.3153498</v>
       </c>
     </row>
@@ -2702,15 +3114,21 @@
           <t>Amstelveenseweg</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>POINT (4.8560802 52.3513581)</t>
         </is>
       </c>
-      <c r="F69" t="n">
+      <c r="H69" t="n">
         <v>4.8560802</v>
       </c>
-      <c r="G69" t="n">
+      <c r="I69" t="n">
         <v>52.3513581</v>
       </c>
     </row>
@@ -2735,15 +3153,21 @@
           <t>Koenenkade</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>POINT (4.8560952 52.3305598)</t>
         </is>
       </c>
-      <c r="F70" t="n">
+      <c r="H70" t="n">
         <v>4.8560952</v>
       </c>
-      <c r="G70" t="n">
+      <c r="I70" t="n">
         <v>52.3305598</v>
       </c>
     </row>
@@ -2768,15 +3192,21 @@
           <t>Haarlemmermeerstation</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>POINT (4.8562313 52.3493132)</t>
         </is>
       </c>
-      <c r="F71" t="n">
+      <c r="H71" t="n">
         <v>4.8562313</v>
       </c>
-      <c r="G71" t="n">
+      <c r="I71" t="n">
         <v>52.3493132</v>
       </c>
     </row>
@@ -2801,15 +3231,21 @@
           <t>Kalfjeslaan</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>POINT (4.8564951 52.3214358)</t>
         </is>
       </c>
-      <c r="F72" t="n">
+      <c r="H72" t="n">
         <v>4.8564951</v>
       </c>
-      <c r="G72" t="n">
+      <c r="I72" t="n">
         <v>52.3214358</v>
       </c>
     </row>
@@ -2834,15 +3270,21 @@
           <t>Van Nijenrodeweg</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>POINT (4.8565395 52.3274177)</t>
         </is>
       </c>
-      <c r="F73" t="n">
+      <c r="H73" t="n">
         <v>4.8565395</v>
       </c>
-      <c r="G73" t="n">
+      <c r="I73" t="n">
         <v>52.3274177</v>
       </c>
     </row>
@@ -2867,15 +3309,21 @@
           <t>Zeilstraat</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>POINT (4.8567453 52.351218)</t>
         </is>
       </c>
-      <c r="F74" t="n">
+      <c r="H74" t="n">
         <v>4.8567453</v>
       </c>
-      <c r="G74" t="n">
+      <c r="I74" t="n">
         <v>52.351218</v>
       </c>
     </row>
@@ -2900,15 +3348,21 @@
           <t>Olympisch Stadion</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>POINT (4.8568368 52.3440249)</t>
         </is>
       </c>
-      <c r="F75" t="n">
+      <c r="H75" t="n">
         <v>4.8568368</v>
       </c>
-      <c r="G75" t="n">
+      <c r="I75" t="n">
         <v>52.3440249</v>
       </c>
     </row>
@@ -2933,15 +3387,21 @@
           <t>Meent</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>POINT (4.8569707 52.2808905)</t>
         </is>
       </c>
-      <c r="F76" t="n">
+      <c r="H76" t="n">
         <v>4.8569707</v>
       </c>
-      <c r="G76" t="n">
+      <c r="I76" t="n">
         <v>52.2808905</v>
       </c>
     </row>
@@ -2966,15 +3426,21 @@
           <t>Karel Doormanstraat</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>POINT (4.8569721 52.3788687)</t>
         </is>
       </c>
-      <c r="F77" t="n">
+      <c r="H77" t="n">
         <v>4.8569721</v>
       </c>
-      <c r="G77" t="n">
+      <c r="I77" t="n">
         <v>52.3788687</v>
       </c>
     </row>
@@ -2999,15 +3465,21 @@
           <t>De Rijpstraat</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>POINT (4.8577243 52.3773555)</t>
         </is>
       </c>
-      <c r="F78" t="n">
+      <c r="H78" t="n">
         <v>4.8577243</v>
       </c>
-      <c r="G78" t="n">
+      <c r="I78" t="n">
         <v>52.3773555</v>
       </c>
     </row>
@@ -3032,15 +3504,21 @@
           <t>Olympiaweg</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>POINT (4.8583402 52.3452652)</t>
         </is>
       </c>
-      <c r="F79" t="n">
+      <c r="H79" t="n">
         <v>4.8583402</v>
       </c>
-      <c r="G79" t="n">
+      <c r="I79" t="n">
         <v>52.3452652</v>
       </c>
     </row>
@@ -3065,15 +3543,21 @@
           <t>Witte de Withstraat</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>POINT (4.8586095 52.3647872)</t>
         </is>
       </c>
-      <c r="F80" t="n">
+      <c r="H80" t="n">
         <v>4.8586095</v>
       </c>
-      <c r="G80" t="n">
+      <c r="I80" t="n">
         <v>52.3647872</v>
       </c>
     </row>
@@ -3098,15 +3582,21 @@
           <t>Rhijnvis Feithstraat</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>POINT (4.8596776 52.3588447)</t>
         </is>
       </c>
-      <c r="F81" t="n">
+      <c r="H81" t="n">
         <v>4.8596776</v>
       </c>
-      <c r="G81" t="n">
+      <c r="I81" t="n">
         <v>52.3588447</v>
       </c>
     </row>
@@ -3131,15 +3621,21 @@
           <t>Admiraal De Ruijterweg</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>POINT (4.8600128 52.371502)</t>
         </is>
       </c>
-      <c r="F82" t="n">
+      <c r="H82" t="n">
         <v>4.8600128</v>
       </c>
-      <c r="G82" t="n">
+      <c r="I82" t="n">
         <v>52.371502</v>
       </c>
     </row>
@@ -3164,15 +3660,21 @@
           <t>VUmc Hoofdingang</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>POINT (4.8600614 52.3351977)</t>
         </is>
       </c>
-      <c r="F83" t="n">
+      <c r="H83" t="n">
         <v>4.8600614</v>
       </c>
-      <c r="G83" t="n">
+      <c r="I83" t="n">
         <v>52.3351977</v>
       </c>
     </row>
@@ -3197,15 +3699,21 @@
           <t>Jan Pieter Heijestraat</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>POINT (4.8624057 52.3647282)</t>
         </is>
       </c>
-      <c r="F84" t="n">
+      <c r="H84" t="n">
         <v>4.8624057</v>
       </c>
-      <c r="G84" t="n">
+      <c r="I84" t="n">
         <v>52.3647282</v>
       </c>
     </row>
@@ -3230,15 +3738,21 @@
           <t>Sportlaan</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>POINT (4.863249 52.289791)</t>
         </is>
       </c>
-      <c r="F85" t="n">
+      <c r="H85" t="n">
         <v>4.863249</v>
       </c>
-      <c r="G85" t="n">
+      <c r="I85" t="n">
         <v>52.289791</v>
       </c>
     </row>
@@ -3263,15 +3777,21 @@
           <t>Valeriusplein</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>POINT (4.8632955 52.3531864)</t>
         </is>
       </c>
-      <c r="F86" t="n">
+      <c r="H86" t="n">
         <v>4.8632955</v>
       </c>
-      <c r="G86" t="n">
+      <c r="I86" t="n">
         <v>52.3531864</v>
       </c>
     </row>
@@ -3296,15 +3816,21 @@
           <t>Willem de Zwijgerlaan</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>POINT (4.8636349 52.3706925)</t>
         </is>
       </c>
-      <c r="F87" t="n">
+      <c r="H87" t="n">
         <v>4.8636349</v>
       </c>
-      <c r="G87" t="n">
+      <c r="I87" t="n">
         <v>52.3706925</v>
       </c>
     </row>
@@ -3329,15 +3855,21 @@
           <t>Olympiaplein</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>POINT (4.8658574 52.3463018)</t>
         </is>
       </c>
-      <c r="F88" t="n">
+      <c r="H88" t="n">
         <v>4.8658574</v>
       </c>
-      <c r="G88" t="n">
+      <c r="I88" t="n">
         <v>52.3463018</v>
       </c>
     </row>
@@ -3362,15 +3894,21 @@
           <t>De Boelelaan/VU</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>POINT (4.8659833 52.3352308)</t>
         </is>
       </c>
-      <c r="F89" t="n">
+      <c r="H89" t="n">
         <v>4.8659833</v>
       </c>
-      <c r="G89" t="n">
+      <c r="I89" t="n">
         <v>52.3352308</v>
       </c>
     </row>
@@ -3395,15 +3933,21 @@
           <t>Amstelveen Stadshart</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
         <is>
           <t>POINT (4.8670933 52.3012694)</t>
         </is>
       </c>
-      <c r="F90" t="n">
+      <c r="H90" t="n">
         <v>4.8670933</v>
       </c>
-      <c r="G90" t="n">
+      <c r="I90" t="n">
         <v>52.3012694</v>
       </c>
     </row>
@@ -3428,15 +3972,21 @@
           <t>Ten Katestraat</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>POINT (4.8673314 52.3659077)</t>
         </is>
       </c>
-      <c r="F91" t="n">
+      <c r="H91" t="n">
         <v>4.8673314</v>
       </c>
-      <c r="G91" t="n">
+      <c r="I91" t="n">
         <v>52.3659077</v>
       </c>
     </row>
@@ -3461,15 +4011,21 @@
           <t>Ouderkerkerlaan</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>POINT (4.8674156 52.2961484)</t>
         </is>
       </c>
-      <c r="F92" t="n">
+      <c r="H92" t="n">
         <v>4.8674156</v>
       </c>
-      <c r="G92" t="n">
+      <c r="I92" t="n">
         <v>52.2961484</v>
       </c>
     </row>
@@ -3494,15 +4050,21 @@
           <t>Parnassusweg</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>POINT (4.8686793 52.3382075)</t>
         </is>
       </c>
-      <c r="F93" t="n">
+      <c r="H93" t="n">
         <v>4.8686793</v>
       </c>
-      <c r="G93" t="n">
+      <c r="I93" t="n">
         <v>52.3382075</v>
       </c>
     </row>
@@ -3527,15 +4089,21 @@
           <t>A. J. Ernststraat</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>POINT (4.8688168 52.3325431)</t>
         </is>
       </c>
-      <c r="F94" t="n">
+      <c r="H94" t="n">
         <v>4.8688168</v>
       </c>
-      <c r="G94" t="n">
+      <c r="I94" t="n">
         <v>52.3325431</v>
       </c>
     </row>
@@ -3560,15 +4128,21 @@
           <t>Van Boshuizenstraat</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>POINT (4.8689764 52.3248943)</t>
         </is>
       </c>
-      <c r="F95" t="n">
+      <c r="H95" t="n">
         <v>4.8689764</v>
       </c>
-      <c r="G95" t="n">
+      <c r="I95" t="n">
         <v>52.3248943</v>
       </c>
     </row>
@@ -3593,15 +4167,21 @@
           <t>Uilenstede</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>POINT (4.8691021 52.3212764)</t>
         </is>
       </c>
-      <c r="F96" t="n">
+      <c r="H96" t="n">
         <v>4.8691021</v>
       </c>
-      <c r="G96" t="n">
+      <c r="I96" t="n">
         <v>52.3212764</v>
       </c>
     </row>
@@ -3626,15 +4206,21 @@
           <t>Emmastraat</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>POINT (4.8695155 52.3529363)</t>
         </is>
       </c>
-      <c r="F97" t="n">
+      <c r="H97" t="n">
         <v>4.8695155</v>
       </c>
-      <c r="G97" t="n">
+      <c r="I97" t="n">
         <v>52.3529363</v>
       </c>
     </row>
@@ -3659,15 +4245,21 @@
           <t>Bilderdijkstraat</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>POINT (4.8698359 52.3708243)</t>
         </is>
       </c>
-      <c r="F98" t="n">
+      <c r="H98" t="n">
         <v>4.8698359</v>
       </c>
-      <c r="G98" t="n">
+      <c r="I98" t="n">
         <v>52.3708243</v>
       </c>
     </row>
@@ -3692,15 +4284,21 @@
           <t>Van Hallstraat</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>POINT (4.8698541 52.3842644)</t>
         </is>
       </c>
-      <c r="F99" t="n">
+      <c r="H99" t="n">
         <v>4.8698541</v>
       </c>
-      <c r="G99" t="n">
+      <c r="I99" t="n">
         <v>52.3842644</v>
       </c>
     </row>
@@ -3725,15 +4323,21 @@
           <t>De Clercqstraat</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>POINT (4.8703967 52.3706445)</t>
         </is>
       </c>
-      <c r="F100" t="n">
+      <c r="H100" t="n">
         <v>4.8703967</v>
       </c>
-      <c r="G100" t="n">
+      <c r="I100" t="n">
         <v>52.3706445</v>
       </c>
     </row>
@@ -3758,15 +4362,21 @@
           <t>Cornelis Schuytstraat</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>POINT (4.8705851 52.3559987)</t>
         </is>
       </c>
-      <c r="F101" t="n">
+      <c r="H101" t="n">
         <v>4.8705851</v>
       </c>
-      <c r="G101" t="n">
+      <c r="I101" t="n">
         <v>52.3559987</v>
       </c>
     </row>
@@ -3791,15 +4401,21 @@
           <t>Kronenburg</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>POINT (4.8706118 52.3160769)</t>
         </is>
       </c>
-      <c r="F102" t="n">
+      <c r="H102" t="n">
         <v>4.8706118</v>
       </c>
-      <c r="G102" t="n">
+      <c r="I102" t="n">
         <v>52.3160769</v>
       </c>
     </row>
@@ -3824,15 +4440,21 @@
           <t>Oranjebaan</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>POINT (4.8716334 52.3027943)</t>
         </is>
       </c>
-      <c r="F103" t="n">
+      <c r="H103" t="n">
         <v>4.8716334</v>
       </c>
-      <c r="G103" t="n">
+      <c r="I103" t="n">
         <v>52.3027943</v>
       </c>
     </row>
@@ -3857,15 +4479,21 @@
           <t>Kinkerstraat</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>POINT (4.8719933 52.3674579)</t>
         </is>
       </c>
-      <c r="F104" t="n">
+      <c r="H104" t="n">
         <v>4.8719933</v>
       </c>
-      <c r="G104" t="n">
+      <c r="I104" t="n">
         <v>52.3674579</v>
       </c>
     </row>
@@ -3890,15 +4518,21 @@
           <t>Minervaplein</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>POINT (4.8720137 52.346695)</t>
         </is>
       </c>
-      <c r="F105" t="n">
+      <c r="H105" t="n">
         <v>4.8720137</v>
       </c>
-      <c r="G105" t="n">
+      <c r="I105" t="n">
         <v>52.346695</v>
       </c>
     </row>
@@ -3923,15 +4557,21 @@
           <t>Zonnestein</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>POINT (4.8722618 52.3121859)</t>
         </is>
       </c>
-      <c r="F106" t="n">
+      <c r="H106" t="n">
         <v>4.8722618</v>
       </c>
-      <c r="G106" t="n">
+      <c r="I106" t="n">
         <v>52.3121859</v>
       </c>
     </row>
@@ -3956,15 +4596,21 @@
           <t>Onderuit</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
         <is>
           <t>POINT (4.8724478 52.3079604)</t>
         </is>
       </c>
-      <c r="F107" t="n">
+      <c r="H107" t="n">
         <v>4.8724478</v>
       </c>
-      <c r="G107" t="n">
+      <c r="I107" t="n">
         <v>52.3079604</v>
       </c>
     </row>
@@ -3989,15 +4635,21 @@
           <t>Hugo de Grootplein</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>POINT (4.872531 52.3742987)</t>
         </is>
       </c>
-      <c r="F108" t="n">
+      <c r="H108" t="n">
         <v>4.872531</v>
       </c>
-      <c r="G108" t="n">
+      <c r="I108" t="n">
         <v>52.3742987</v>
       </c>
     </row>
@@ -4022,27 +4674,33 @@
           <t>Station Zuid</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
         <is>
           <t>POINT (4.8731849 52.3408165)</t>
         </is>
       </c>
-      <c r="F109" t="n">
+      <c r="H109" t="n">
         <v>4.8731849</v>
       </c>
-      <c r="G109" t="n">
+      <c r="I109" t="n">
         <v>52.3408165</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>148726445</t>
+          <t>1132284679</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4052,25 +4710,31 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Van Limburg Stirumplein</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>POINT (4.8749198 52.3844185)</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>4.8749198</v>
-      </c>
-      <c r="G110" t="n">
-        <v>52.3844185</v>
+          <t>Eerste Constantijn Huygensstraat</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>POINT (4.8747145 52.3626163)</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4.8747145</v>
+      </c>
+      <c r="I110" t="n">
+        <v>52.3626163</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3295383115</t>
+          <t>148726445</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4085,25 +4749,31 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Overtoom/ 1e C. Huygensstraat</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>POINT (4.8749794 52.363227)</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>4.8749794</v>
-      </c>
-      <c r="G111" t="n">
-        <v>52.363227</v>
+          <t>Van Limburg Stirumplein</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>POINT (4.8749198 52.3844185)</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4.8749198</v>
+      </c>
+      <c r="I111" t="n">
+        <v>52.3844185</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>240316872</t>
+          <t>3295383115</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4118,25 +4788,35 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Frederik Hendrikplantsoen</t>
+          <t>Overtoom/ 1e C. Huygensstraat</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>POINT (4.875268 52.3784783)</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>4.875268</v>
-      </c>
-      <c r="G112" t="n">
-        <v>52.3784783</v>
+          <t>Overtoom</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>POINT (4.8749794 52.363227)</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4.8749794</v>
+      </c>
+      <c r="I112" t="n">
+        <v>52.363227</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>3185460780</t>
+          <t>240316872</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4151,25 +4831,31 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Marnixstraat</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>POINT (4.8752838 52.3720538)</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>4.8752838</v>
-      </c>
-      <c r="G113" t="n">
-        <v>52.3720538</v>
+          <t>Frederik Hendrikplantsoen</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>POINT (4.875268 52.3784783)</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4.875268</v>
+      </c>
+      <c r="I113" t="n">
+        <v>52.3784783</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>721160612</t>
+          <t>3185460780</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4184,25 +4870,31 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Rozengracht</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>POINT (4.8758665 52.3726552)</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>4.8758665</v>
-      </c>
-      <c r="G114" t="n">
-        <v>52.3726552</v>
+          <t>Marnixstraat</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>POINT (4.8752838 52.3720538)</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4.8752838</v>
+      </c>
+      <c r="I114" t="n">
+        <v>52.3720538</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>297934761</t>
+          <t>721160612</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4217,25 +4909,31 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Beethovenstraat</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>POINT (4.8762769 52.3468693)</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>4.8762769</v>
-      </c>
-      <c r="G115" t="n">
-        <v>52.3468693</v>
+          <t>Rozengracht</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>POINT (4.8758665 52.3726552)</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4.8758665</v>
+      </c>
+      <c r="I115" t="n">
+        <v>52.3726552</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2300172831</t>
+          <t>297934761</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4250,25 +4948,31 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Bloemgracht</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>POINT (4.8763837 52.3742782)</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>4.8763837</v>
-      </c>
-      <c r="G116" t="n">
-        <v>52.3742782</v>
+          <t>Beethovenstraat</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>POINT (4.8762769 52.3468693)</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4.8762769</v>
+      </c>
+      <c r="I116" t="n">
+        <v>52.3468693</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3300150230</t>
+          <t>2300172831</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4283,25 +4987,31 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Prinses Irenestraat</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>POINT (4.8767749 52.3431074)</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>4.8767749</v>
-      </c>
-      <c r="G117" t="n">
-        <v>52.3431074</v>
+          <t>Bloemgracht</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>POINT (4.8763837 52.3742782)</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4.8763837</v>
+      </c>
+      <c r="I117" t="n">
+        <v>52.3742782</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>3300150225</t>
+          <t>3300150230</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4316,25 +5026,31 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Stadionweg</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>POINT (4.8768645 52.346674)</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>4.8768645</v>
-      </c>
-      <c r="G118" t="n">
-        <v>52.346674</v>
+          <t>Prinses Irenestraat</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>POINT (4.8767749 52.3431074)</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4.8767749</v>
+      </c>
+      <c r="I118" t="n">
+        <v>52.3431074</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>721160782</t>
+          <t>3300150225</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4349,25 +5065,31 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Elandsgracht</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>POINT (4.8768971 52.368541)</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>4.8768971</v>
-      </c>
-      <c r="G119" t="n">
-        <v>52.368541</v>
+          <t>Stadionweg</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>POINT (4.8768645 52.346674)</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4.8768645</v>
+      </c>
+      <c r="I119" t="n">
+        <v>52.346674</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>434441252</t>
+          <t>721160782</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4382,25 +5104,31 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>De Wittenkade</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>POINT (4.8770204 52.3832175)</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>4.8770204</v>
-      </c>
-      <c r="G120" t="n">
-        <v>52.3832175</v>
+          <t>Elandsgracht</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>POINT (4.8768971 52.368541)</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4.8768971</v>
+      </c>
+      <c r="I120" t="n">
+        <v>52.368541</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>297934763</t>
+          <t>434441252</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4415,25 +5143,31 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Gerrit van der Veenstraat</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>POINT (4.8771911 52.3488198)</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>4.8771911</v>
-      </c>
-      <c r="G121" t="n">
-        <v>52.3488198</v>
+          <t>De Wittenkade</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>POINT (4.8770204 52.3832175)</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4.8770204</v>
+      </c>
+      <c r="I121" t="n">
+        <v>52.3832175</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3295383118</t>
+          <t>297934763</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4448,25 +5182,31 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Van Baerlestraat</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>POINT (4.8781266 52.3587793)</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>4.8781266</v>
-      </c>
-      <c r="G122" t="n">
-        <v>52.3587793</v>
+          <t>Gerrit van der Veenstraat</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>POINT (4.8771911 52.3488198)</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4.8771911</v>
+      </c>
+      <c r="I122" t="n">
+        <v>52.3488198</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>240316865</t>
+          <t>3295383118</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4481,25 +5221,31 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Marnixplein</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>POINT (4.8785423 52.3783985)</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>4.8785423</v>
-      </c>
-      <c r="G123" t="n">
-        <v>52.3783985</v>
+          <t>Van Baerlestraat</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>POINT (4.8781266 52.3587793)</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4.8781266</v>
+      </c>
+      <c r="I123" t="n">
+        <v>52.3587793</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3306416870</t>
+          <t>240316865</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4514,25 +5260,31 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Nassaukade</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>POINT (4.8791525 52.3810685)</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>4.8791525</v>
-      </c>
-      <c r="G124" t="n">
-        <v>52.3810685</v>
+          <t>Marnixplein</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>POINT (4.8785423 52.3783985)</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4.8785423</v>
+      </c>
+      <c r="I124" t="n">
+        <v>52.3783985</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>724232633</t>
+          <t>3306416870</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4547,25 +5299,31 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Concertgebouw</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>POINT (4.8791804 52.3559245)</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>4.8791804</v>
-      </c>
-      <c r="G125" t="n">
-        <v>52.3559245</v>
+          <t>Nassaukade</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>POINT (4.8791525 52.3810685)</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4.8791525</v>
+      </c>
+      <c r="I125" t="n">
+        <v>52.3810685</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>9081861253</t>
+          <t>724232633</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4580,25 +5338,31 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Museumplein</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>POINT (4.8806042 52.3587143)</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>4.8806042</v>
-      </c>
-      <c r="G126" t="n">
-        <v>52.3587143</v>
+          <t>Concertgebouw</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>POINT (4.8791804 52.3559245)</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4.8791804</v>
+      </c>
+      <c r="I126" t="n">
+        <v>52.3559245</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1690450992</t>
+          <t>9081861253</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4613,25 +5377,31 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Leidseplein</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>POINT (4.8806933 52.3646825)</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>4.8806933</v>
-      </c>
-      <c r="G127" t="n">
-        <v>52.3646825</v>
+          <t>Museumplein</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>POINT (4.8806042 52.3587143)</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4.8806042</v>
+      </c>
+      <c r="I127" t="n">
+        <v>52.3587143</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>434560935</t>
+          <t>1690450992</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4646,25 +5416,31 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Nieuwe Willemstraat</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>POINT (4.8809562 52.381394)</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>4.8809562</v>
-      </c>
-      <c r="G128" t="n">
-        <v>52.381394</v>
+          <t>Leidseplein</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>POINT (4.8806933 52.3646825)</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4.8806933</v>
+      </c>
+      <c r="I128" t="n">
+        <v>52.3646825</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>7223761935</t>
+          <t>434560935</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4679,25 +5455,31 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Roelof Hartplein</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>POINT (4.8820747 52.3526434)</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>4.8820747</v>
-      </c>
-      <c r="G129" t="n">
-        <v>52.3526434</v>
+          <t>Nieuwe Willemstraat</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>POINT (4.8809562 52.381394)</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4.8809562</v>
+      </c>
+      <c r="I129" t="n">
+        <v>52.381394</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>7903232512</t>
+          <t>7223761935</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4712,25 +5494,31 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Eerste Marnixdwarsstraat</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>POINT (4.8821775 52.383238)</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>4.8821775</v>
-      </c>
-      <c r="G130" t="n">
-        <v>52.383238</v>
+          <t>Roelof Hartplein</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>POINT (4.8820747 52.3526434)</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4.8820747</v>
+      </c>
+      <c r="I130" t="n">
+        <v>52.3526434</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>724232573</t>
+          <t>7903232512</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4745,30 +5533,36 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Westermarkt</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>POINT (4.8837739 52.3740565)</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>4.8837739</v>
-      </c>
-      <c r="G131" t="n">
-        <v>52.3740565</v>
+          <t>Eerste Marnixdwarsstraat</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>POINT (4.8821775 52.383238)</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4.8821775</v>
+      </c>
+      <c r="I131" t="n">
+        <v>52.383238</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>371265387</t>
+          <t>296020283</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4778,25 +5572,31 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Prinsengracht</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>POINT (4.8843839 52.3650035)</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v>4.8843839</v>
-      </c>
-      <c r="G132" t="n">
-        <v>52.3650035</v>
+          <t>Haarlemmerplein</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>POINT (4.8835037 52.384972)</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4.8835037</v>
+      </c>
+      <c r="I132" t="n">
+        <v>52.384972</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>46462976</t>
+          <t>724232573</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4811,25 +5611,31 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Zoutkeetsgracht</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>POINT (4.8851416 52.388084)</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
-        <v>4.8851416</v>
-      </c>
-      <c r="G133" t="n">
-        <v>52.388084</v>
+          <t>Westermarkt</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>POINT (4.8837739 52.3740565)</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4.8837739</v>
+      </c>
+      <c r="I133" t="n">
+        <v>52.3740565</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>371265504</t>
+          <t>371265387</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4844,25 +5650,31 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Keizersgracht</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>POINT (4.8863435 52.3659309)</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v>4.8863435</v>
-      </c>
-      <c r="G134" t="n">
-        <v>52.3659309</v>
+          <t>Prinsengracht</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>POINT (4.8843839 52.3650035)</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4.8843839</v>
+      </c>
+      <c r="I134" t="n">
+        <v>52.3650035</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>241775832</t>
+          <t>46462976</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4877,25 +5689,31 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Rijksmuseum</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>POINT (4.887104 52.3609734)</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v>4.887104</v>
-      </c>
-      <c r="G135" t="n">
-        <v>52.3609734</v>
+          <t>Zoutkeetsgracht</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>POINT (4.8851416 52.388084)</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4.8851416</v>
+      </c>
+      <c r="I135" t="n">
+        <v>52.388084</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2674999726</t>
+          <t>371265504</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4910,25 +5728,31 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Koningsplein</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>POINT (4.8889206 52.368085)</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v>4.8889206</v>
-      </c>
-      <c r="G136" t="n">
-        <v>52.368085</v>
+          <t>Keizersgracht</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>POINT (4.8863435 52.3659309)</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4.8863435</v>
+      </c>
+      <c r="I136" t="n">
+        <v>52.3659309</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>3294629045</t>
+          <t>241775832</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4943,25 +5767,35 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Drentepark</t>
+          <t>Rijksmuseum</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>POINT (4.889801 52.3362207)</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>4.889801</v>
-      </c>
-      <c r="G137" t="n">
-        <v>52.3362207</v>
+          <t>Spiegelgracht</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>POINT (4.887104 52.3609734)</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4.887104</v>
+      </c>
+      <c r="I137" t="n">
+        <v>52.3609734</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>4851477406</t>
+          <t>2674999726</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4976,25 +5810,31 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>De Pijp</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>POINT (4.8901771 52.3526769)</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>4.8901771</v>
-      </c>
-      <c r="G138" t="n">
-        <v>52.3526769</v>
+          <t>Koningsplein</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>POINT (4.8889206 52.368085)</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4.8889206</v>
+      </c>
+      <c r="I138" t="n">
+        <v>52.368085</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>310573230</t>
+          <t>3294629045</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5009,25 +5849,31 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Station RAI</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>POINT (4.8905473 52.3369049)</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>4.8905473</v>
-      </c>
-      <c r="G139" t="n">
-        <v>52.3369049</v>
+          <t>Drentepark</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>POINT (4.889801 52.3362207)</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4.889801</v>
+      </c>
+      <c r="I139" t="n">
+        <v>52.3362207</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>10273052985</t>
+          <t>4851477406</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5042,25 +5888,31 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Paleisstraat</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>POINT (4.890644 52.3719008)</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
-        <v>4.890644</v>
-      </c>
-      <c r="G140" t="n">
-        <v>52.3719008</v>
+          <t>De Pijp</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>POINT (4.8901771 52.3526769)</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4.8901771</v>
+      </c>
+      <c r="I140" t="n">
+        <v>52.3526769</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>4851477407</t>
+          <t>310573230</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5075,25 +5927,31 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Marie Heinekenplein</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>POINT (4.8907033 52.3570037)</t>
-        </is>
-      </c>
-      <c r="F141" t="n">
-        <v>4.8907033</v>
-      </c>
-      <c r="G141" t="n">
-        <v>52.3570037</v>
+          <t>Station RAI</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>POINT (4.8905473 52.3369049)</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4.8905473</v>
+      </c>
+      <c r="I141" t="n">
+        <v>52.3369049</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>285869162</t>
+          <t>10273052985</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5108,25 +5966,31 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Vijzelgracht</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>POINT (4.8909623 52.3599031)</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>4.8909623</v>
-      </c>
-      <c r="G142" t="n">
-        <v>52.3599031</v>
+          <t>Paleisstraat</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>POINT (4.890644 52.3719008)</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4.890644</v>
+      </c>
+      <c r="I142" t="n">
+        <v>52.3719008</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>3295383116</t>
+          <t>4851477407</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5141,25 +6005,31 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Scheldestraat</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>POINT (4.8911566 52.3474774)</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
-        <v>4.8911566</v>
-      </c>
-      <c r="G143" t="n">
-        <v>52.3474774</v>
+          <t>Marie Heinekenplein</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>POINT (4.8907033 52.3570037)</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4.8907033</v>
+      </c>
+      <c r="I143" t="n">
+        <v>52.3570037</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>9611530190</t>
+          <t>285869162</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5174,25 +6044,31 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>v. Hilligaertstraat</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>POINT (4.8914549 52.3494092)</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>4.8914549</v>
-      </c>
-      <c r="G144" t="n">
-        <v>52.3494092</v>
+          <t>Vijzelgracht</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>POINT (4.8909623 52.3599031)</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4.8909623</v>
+      </c>
+      <c r="I144" t="n">
+        <v>52.3599031</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>3294945448</t>
+          <t>3295383116</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5207,25 +6083,31 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Cornelis Troostplein</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>POINT (4.8915363 52.350302)</t>
-        </is>
-      </c>
-      <c r="F145" t="n">
-        <v>4.8915363</v>
-      </c>
-      <c r="G145" t="n">
-        <v>52.350302</v>
+          <t>Scheldestraat</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>POINT (4.8911566 52.3474774)</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4.8911566</v>
+      </c>
+      <c r="I145" t="n">
+        <v>52.3474774</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2672749411</t>
+          <t>9611530190</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5240,25 +6122,31 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Rokin</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>POINT (4.8921252 52.3694572)</t>
-        </is>
-      </c>
-      <c r="F146" t="n">
-        <v>4.8921252</v>
-      </c>
-      <c r="G146" t="n">
-        <v>52.3694572</v>
+          <t>v. Hilligaertstraat</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>POINT (4.8914549 52.3494092)</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4.8914549</v>
+      </c>
+      <c r="I146" t="n">
+        <v>52.3494092</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>289364883</t>
+          <t>3294945448</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5273,25 +6161,31 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Europaplein</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>POINT (4.8921974 52.3402318)</t>
-        </is>
-      </c>
-      <c r="F147" t="n">
-        <v>4.8921974</v>
-      </c>
-      <c r="G147" t="n">
-        <v>52.3402318</v>
+          <t>Cornelis Troostplein</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>POINT (4.8915363 52.350302)</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4.8915363</v>
+      </c>
+      <c r="I147" t="n">
+        <v>52.350302</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>7197053237</t>
+          <t>2672749411</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5306,25 +6200,31 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Weteringcircuit</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>POINT (4.8923379 52.3593327)</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
-        <v>4.8923379</v>
-      </c>
-      <c r="G148" t="n">
-        <v>52.3593327</v>
+          <t>Rokin</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>POINT (4.8921252 52.3694572)</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>4.8921252</v>
+      </c>
+      <c r="I148" t="n">
+        <v>52.3694572</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>726817850</t>
+          <t>289364883</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5339,25 +6239,31 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Nieuwezijds Kolk</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>POINT (4.8930014 52.3758615)</t>
-        </is>
-      </c>
-      <c r="F149" t="n">
-        <v>4.8930014</v>
-      </c>
-      <c r="G149" t="n">
-        <v>52.3758615</v>
+          <t>Europaplein</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>POINT (4.8921974 52.3402318)</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4.8921974</v>
+      </c>
+      <c r="I149" t="n">
+        <v>52.3402318</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>310573227</t>
+          <t>7197053237</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5372,25 +6278,31 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Dintelstraat</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>POINT (4.8930059 52.341925)</t>
-        </is>
-      </c>
-      <c r="F150" t="n">
-        <v>4.8930059</v>
-      </c>
-      <c r="G150" t="n">
-        <v>52.341925</v>
+          <t>Weteringcircuit</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>POINT (4.8923379 52.3593327)</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4.8923379</v>
+      </c>
+      <c r="I150" t="n">
+        <v>52.3593327</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>4851478923</t>
+          <t>726817850</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5405,25 +6317,31 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Muntplein</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>POINT (4.8930583 52.3658545)</t>
-        </is>
-      </c>
-      <c r="F151" t="n">
-        <v>4.8930583</v>
-      </c>
-      <c r="G151" t="n">
-        <v>52.3658545</v>
+          <t>Nieuwezijds Kolk</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>POINT (4.8930014 52.3758615)</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4.8930014</v>
+      </c>
+      <c r="I151" t="n">
+        <v>52.3758615</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>3297544663</t>
+          <t>310573227</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5438,25 +6356,31 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Tweede Van der Helststraat</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>POINT (4.8942153 52.3531905)</t>
-        </is>
-      </c>
-      <c r="F152" t="n">
-        <v>4.8942153</v>
-      </c>
-      <c r="G152" t="n">
-        <v>52.3531905</v>
+          <t>Dintelstraat</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>POINT (4.8930059 52.341925)</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4.8930059</v>
+      </c>
+      <c r="I152" t="n">
+        <v>52.341925</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>6659367698</t>
+          <t>4851478923</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5471,25 +6395,31 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Maasstraat</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>POINT (4.8947303 52.3468163)</t>
-        </is>
-      </c>
-      <c r="F153" t="n">
-        <v>4.8947303</v>
-      </c>
-      <c r="G153" t="n">
-        <v>52.3468163</v>
+          <t>Muntplein</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>POINT (4.8930583 52.3658545)</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4.8930583</v>
+      </c>
+      <c r="I153" t="n">
+        <v>52.3658545</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2672987276</t>
+          <t>3297544663</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5504,25 +6434,31 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Rembrandtplein</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>POINT (4.8964238 52.3662601)</t>
-        </is>
-      </c>
-      <c r="F154" t="n">
-        <v>4.8964238</v>
-      </c>
-      <c r="G154" t="n">
-        <v>52.3662601</v>
+          <t>Tweede Van der Helststraat</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>POINT (4.8942153 52.3531905)</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4.8942153</v>
+      </c>
+      <c r="I154" t="n">
+        <v>52.3531905</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>3303180662</t>
+          <t>6659367698</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5537,25 +6473,31 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Frederiksplein</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>POINT (4.8978483 52.3594109)</t>
-        </is>
-      </c>
-      <c r="F155" t="n">
-        <v>4.8978483</v>
-      </c>
-      <c r="G155" t="n">
-        <v>52.3594109</v>
+          <t>Maasstraat</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>POINT (4.8947303 52.3468163)</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4.8947303</v>
+      </c>
+      <c r="I155" t="n">
+        <v>52.3468163</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>310569757</t>
+          <t>2672987276</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5570,25 +6512,31 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Stadhouderskade</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>POINT (4.8992468 52.3581612)</t>
-        </is>
-      </c>
-      <c r="F156" t="n">
-        <v>4.8992468</v>
-      </c>
-      <c r="G156" t="n">
-        <v>52.3581612</v>
+          <t>Rembrandtplein</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>POINT (4.8964238 52.3662601)</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>4.8964238</v>
+      </c>
+      <c r="I156" t="n">
+        <v>52.3662601</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>434142269</t>
+          <t>3303180662</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5603,25 +6551,31 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Waalstraat</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>POINT (4.8997164 52.3465631)</t>
-        </is>
-      </c>
-      <c r="F157" t="n">
-        <v>4.8997164</v>
-      </c>
-      <c r="G157" t="n">
-        <v>52.3465631</v>
+          <t>Frederiksplein</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>POINT (4.8978483 52.3594109)</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4.8978483</v>
+      </c>
+      <c r="I157" t="n">
+        <v>52.3594109</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>317956000</t>
+          <t>310569757</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5636,25 +6590,31 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Van Woustraat</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>POINT (4.9008616 52.3546903)</t>
-        </is>
-      </c>
-      <c r="F158" t="n">
-        <v>4.9008616</v>
-      </c>
-      <c r="G158" t="n">
-        <v>52.3546903</v>
+          <t>Stadhouderskade</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>POINT (4.8992468 52.3581612)</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4.8992468</v>
+      </c>
+      <c r="I158" t="n">
+        <v>52.3581612</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2673087196</t>
+          <t>434142269</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5669,25 +6629,31 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Ceintuurbaan</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>POINT (4.9010669 52.3550346)</t>
-        </is>
-      </c>
-      <c r="F159" t="n">
-        <v>4.9010669</v>
-      </c>
-      <c r="G159" t="n">
-        <v>52.3550346</v>
+          <t>Waalstraat</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>POINT (4.8997164 52.3465631)</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4.8997164</v>
+      </c>
+      <c r="I159" t="n">
+        <v>52.3465631</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>241772055</t>
+          <t>317956000</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5702,25 +6668,31 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Waterlooplein</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>POINT (4.9019846 52.3669934)</t>
-        </is>
-      </c>
-      <c r="F160" t="n">
-        <v>4.9019846</v>
-      </c>
-      <c r="G160" t="n">
-        <v>52.3669934</v>
+          <t>Van Woustraat</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>POINT (4.9008616 52.3546903)</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>4.9008616</v>
+      </c>
+      <c r="I160" t="n">
+        <v>52.3546903</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>7026721051</t>
+          <t>2673087196</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5735,25 +6707,31 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Lutmastraat</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>POINT (4.903158 52.3517731)</t>
-        </is>
-      </c>
-      <c r="F161" t="n">
-        <v>4.903158</v>
-      </c>
-      <c r="G161" t="n">
-        <v>52.3517731</v>
+          <t>Ceintuurbaan</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>POINT (4.9010669 52.3550346)</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4.9010669</v>
+      </c>
+      <c r="I161" t="n">
+        <v>52.3550346</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1584103895</t>
+          <t>241772055</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5768,25 +6746,31 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Amstelkade</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>POINT (4.904043 52.34941)</t>
-        </is>
-      </c>
-      <c r="F162" t="n">
-        <v>4.904043</v>
-      </c>
-      <c r="G162" t="n">
-        <v>52.34941</v>
+          <t>Waterlooplein</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>POINT (4.9019846 52.3669934)</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4.9019846</v>
+      </c>
+      <c r="I162" t="n">
+        <v>52.3669934</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1101710093</t>
+          <t>7026721051</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5801,25 +6785,31 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Victorieplein</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>POINT (4.905072 52.3467733)</t>
-        </is>
-      </c>
-      <c r="F163" t="n">
-        <v>4.905072</v>
-      </c>
-      <c r="G163" t="n">
-        <v>52.3467733</v>
+          <t>Lutmastraat</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>POINT (4.903158 52.3517731)</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>4.903158</v>
+      </c>
+      <c r="I163" t="n">
+        <v>52.3517731</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>46369643</t>
+          <t>1584103895</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5834,25 +6824,31 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Meester Visserplein</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>POINT (4.9053602 52.3679611)</t>
-        </is>
-      </c>
-      <c r="F164" t="n">
-        <v>4.9053602</v>
-      </c>
-      <c r="G164" t="n">
-        <v>52.3679611</v>
+          <t>Amstelkade</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>POINT (4.904043 52.34941)</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4.904043</v>
+      </c>
+      <c r="I164" t="n">
+        <v>52.34941</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>427560648</t>
+          <t>1101710093</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5867,25 +6863,31 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Weesperplein</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>POINT (4.9071213 52.3610021)</t>
-        </is>
-      </c>
-      <c r="F165" t="n">
-        <v>4.9071213</v>
-      </c>
-      <c r="G165" t="n">
-        <v>52.3610021</v>
+          <t>Victorieplein</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>POINT (4.905072 52.3467733)</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>4.905072</v>
+      </c>
+      <c r="I165" t="n">
+        <v>52.3467733</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>427561909</t>
+          <t>46369643</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5900,25 +6902,31 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Wibautstraat</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>POINT (4.9093615 52.3572865)</t>
-        </is>
-      </c>
-      <c r="F166" t="n">
-        <v>4.9093615</v>
-      </c>
-      <c r="G166" t="n">
-        <v>52.3572865</v>
+          <t>Meester Visserplein</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>POINT (4.9053602 52.3679611)</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>4.9053602</v>
+      </c>
+      <c r="I166" t="n">
+        <v>52.3679611</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>434509970</t>
+          <t>427560648</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5933,25 +6941,31 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Artis</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>POINT (4.910955 52.3667187)</t>
-        </is>
-      </c>
-      <c r="F167" t="n">
-        <v>4.910955</v>
-      </c>
-      <c r="G167" t="n">
-        <v>52.3667187</v>
+          <t>Weesperplein</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>POINT (4.9071213 52.3610021)</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>4.9071213</v>
+      </c>
+      <c r="I167" t="n">
+        <v>52.3610021</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>434142267</t>
+          <t>427561909</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5966,25 +6980,31 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Amsteldijk</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>POINT (4.9109989 52.3471106)</t>
-        </is>
-      </c>
-      <c r="F168" t="n">
-        <v>4.9109989</v>
-      </c>
-      <c r="G168" t="n">
-        <v>52.3471106</v>
+          <t>Wibautstraat</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>POINT (4.9093615 52.3572865)</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4.9093615</v>
+      </c>
+      <c r="I168" t="n">
+        <v>52.3572865</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2674767992</t>
+          <t>434509970</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5999,25 +7019,31 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Muziekgebouw</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>POINT (4.912547 52.3772761)</t>
-        </is>
-      </c>
-      <c r="F169" t="n">
-        <v>4.912547</v>
-      </c>
-      <c r="G169" t="n">
-        <v>52.3772761</v>
+          <t>Artis</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>POINT (4.910955 52.3667187)</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>4.910955</v>
+      </c>
+      <c r="I169" t="n">
+        <v>52.3667187</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1262086564</t>
+          <t>434142267</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6032,25 +7058,31 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Camperstraat</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>POINT (4.9134821 52.358335)</t>
-        </is>
-      </c>
-      <c r="F170" t="n">
-        <v>4.9134821</v>
-      </c>
-      <c r="G170" t="n">
-        <v>52.358335</v>
+          <t>Amsteldijk</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>POINT (4.9109989 52.3471106)</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>4.9109989</v>
+      </c>
+      <c r="I170" t="n">
+        <v>52.3471106</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>434441207</t>
+          <t>2674767992</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6065,25 +7097,31 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Korte 's-Gravesandestraat</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>POINT (4.9135923 52.3623479)</t>
-        </is>
-      </c>
-      <c r="F171" t="n">
-        <v>4.9135923</v>
-      </c>
-      <c r="G171" t="n">
-        <v>52.3623479</v>
+          <t>Muziekgebouw</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>POINT (4.912547 52.3772761)</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>4.912547</v>
+      </c>
+      <c r="I171" t="n">
+        <v>52.3772761</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2674521943</t>
+          <t>1262086564</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6098,25 +7136,31 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Plantage Lepellaan</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>POINT (4.9152768 52.3652225)</t>
-        </is>
-      </c>
-      <c r="F172" t="n">
-        <v>4.9152768</v>
-      </c>
-      <c r="G172" t="n">
-        <v>52.3652225</v>
+          <t>Camperstraat</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>POINT (4.9134821 52.358335)</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4.9134821</v>
+      </c>
+      <c r="I172" t="n">
+        <v>52.358335</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>434524959</t>
+          <t>434441207</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -6131,25 +7175,31 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Beukenweg</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>POINT (4.9167422 52.3590732)</t>
-        </is>
-      </c>
-      <c r="F173" t="n">
-        <v>4.9167422</v>
-      </c>
-      <c r="G173" t="n">
-        <v>52.3590732</v>
+          <t>Korte 's-Gravesandestraat</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>POINT (4.9135923 52.3623479)</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4.9135923</v>
+      </c>
+      <c r="I173" t="n">
+        <v>52.3623479</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>6654529709</t>
+          <t>2674521943</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6164,25 +7214,31 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>POINT (4.9178096 52.3474274)</t>
-        </is>
-      </c>
-      <c r="F174" t="n">
-        <v>4.9178096</v>
-      </c>
-      <c r="G174" t="n">
-        <v>52.3474274</v>
+          <t>Plantage Lepellaan</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>POINT (4.9152768 52.3652225)</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>4.9152768</v>
+      </c>
+      <c r="I174" t="n">
+        <v>52.3652225</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>3301289966</t>
+          <t>434524959</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6197,25 +7253,31 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Alexanderplein</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>POINT (4.9185684 52.3633708)</t>
-        </is>
-      </c>
-      <c r="F175" t="n">
-        <v>4.9185684</v>
-      </c>
-      <c r="G175" t="n">
-        <v>52.3633708</v>
+          <t>Beukenweg</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>POINT (4.9167422 52.3590732)</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>4.9167422</v>
+      </c>
+      <c r="I175" t="n">
+        <v>52.3590732</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2678427768</t>
+          <t>6654529709</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6230,25 +7292,31 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Kattenburgerstraat</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>POINT (4.9211099 52.3761672)</t>
-        </is>
-      </c>
-      <c r="F176" t="n">
-        <v>4.9211099</v>
-      </c>
-      <c r="G176" t="n">
-        <v>52.3761672</v>
+          <t>Amstelstation</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>POINT (4.9178096 52.3474274)</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>4.9178096</v>
+      </c>
+      <c r="I176" t="n">
+        <v>52.3474274</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2674521954</t>
+          <t>3301289966</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6263,25 +7331,31 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Eerste Van Swindenstraat</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>POINT (4.9238286 52.3621936)</t>
-        </is>
-      </c>
-      <c r="F177" t="n">
-        <v>4.9238286</v>
-      </c>
-      <c r="G177" t="n">
-        <v>52.3621936</v>
+          <t>Alexanderplein</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>POINT (4.9185684 52.3633708)</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4.9185684</v>
+      </c>
+      <c r="I177" t="n">
+        <v>52.3633708</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>3306176728</t>
+          <t>2678427768</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6296,25 +7370,31 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Hoogte Kadijk</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>POINT (4.9242477 52.3666491)</t>
-        </is>
-      </c>
-      <c r="F178" t="n">
-        <v>4.9242477</v>
-      </c>
-      <c r="G178" t="n">
-        <v>52.3666491</v>
+          <t>Kattenburgerstraat</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>POINT (4.9211099 52.3761672)</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4.9211099</v>
+      </c>
+      <c r="I178" t="n">
+        <v>52.3761672</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>3299908041</t>
+          <t>2674521954</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6329,25 +7409,31 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Linnaeusstraat</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>POINT (4.9249118 52.3599165)</t>
-        </is>
-      </c>
-      <c r="F179" t="n">
-        <v>4.9249118</v>
-      </c>
-      <c r="G179" t="n">
-        <v>52.3599165</v>
+          <t>Eerste Van Swindenstraat</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>POINT (4.9238286 52.3621936)</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>4.9238286</v>
+      </c>
+      <c r="I179" t="n">
+        <v>52.3621936</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2674521970</t>
+          <t>3306176728</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6362,25 +7448,31 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Wijttenbachstraat</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>POINT (4.9250867 52.360259)</t>
-        </is>
-      </c>
-      <c r="F180" t="n">
-        <v>4.9250867</v>
-      </c>
-      <c r="G180" t="n">
-        <v>52.360259</v>
+          <t>Hoogte Kadijk</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>POINT (4.9242477 52.3666491)</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>4.9242477</v>
+      </c>
+      <c r="I180" t="n">
+        <v>52.3666491</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>304076333</t>
+          <t>3299908041</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6395,25 +7487,31 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Eerste Coehoornstraat</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>POINT (4.9263002 52.3681426)</t>
-        </is>
-      </c>
-      <c r="F181" t="n">
-        <v>4.9263002</v>
-      </c>
-      <c r="G181" t="n">
-        <v>52.3681426</v>
+          <t>Linnaeusstraat</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>POINT (4.9249118 52.3599165)</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4.9249118</v>
+      </c>
+      <c r="I181" t="n">
+        <v>52.3599165</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>4621705536</t>
+          <t>2674521970</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6428,25 +7526,31 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Oostpoort</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>POINT (4.9268761 52.3574304)</t>
-        </is>
-      </c>
-      <c r="F182" t="n">
-        <v>4.9268761</v>
-      </c>
-      <c r="G182" t="n">
-        <v>52.3574304</v>
+          <t>Wijttenbachstraat</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>POINT (4.9250867 52.360259)</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>4.9250867</v>
+      </c>
+      <c r="I182" t="n">
+        <v>52.360259</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>241392462</t>
+          <t>304076333</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6461,25 +7565,31 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Pontanusstraat</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>POINT (4.9272032 52.3659058)</t>
-        </is>
-      </c>
-      <c r="F183" t="n">
-        <v>4.9272032</v>
-      </c>
-      <c r="G183" t="n">
-        <v>52.3659058</v>
+          <t>Eerste Coehoornstraat</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>POINT (4.9263002 52.3681426)</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>4.9263002</v>
+      </c>
+      <c r="I183" t="n">
+        <v>52.3681426</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>237962650</t>
+          <t>4621705536</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6494,25 +7604,31 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Dapperstraat</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>POINT (4.9289422 52.3609314)</t>
-        </is>
-      </c>
-      <c r="F184" t="n">
-        <v>4.9289422</v>
-      </c>
-      <c r="G184" t="n">
-        <v>52.3609314</v>
+          <t>Oostpoort</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>platform</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>POINT (4.9268761 52.3574304)</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>4.9268761</v>
+      </c>
+      <c r="I184" t="n">
+        <v>52.3574304</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>330028855</t>
+          <t>241392462</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6527,25 +7643,31 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Eerste Leeghwaterstraat</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>POINT (4.9293975 52.3700769)</t>
-        </is>
-      </c>
-      <c r="F185" t="n">
-        <v>4.9293975</v>
-      </c>
-      <c r="G185" t="n">
-        <v>52.3700769</v>
+          <t>Pontanusstraat</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>POINT (4.9272032 52.3659058)</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>4.9272032</v>
+      </c>
+      <c r="I185" t="n">
+        <v>52.3659058</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>434507136</t>
+          <t>237962650</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6560,25 +7682,31 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Hogeweg</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>POINT (4.9308725 52.353568)</t>
-        </is>
-      </c>
-      <c r="F186" t="n">
-        <v>4.9308725</v>
-      </c>
-      <c r="G186" t="n">
-        <v>52.353568</v>
+          <t>Dapperstraat</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>POINT (4.9289422 52.3609314)</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>4.9289422</v>
+      </c>
+      <c r="I186" t="n">
+        <v>52.3609314</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>241392441</t>
+          <t>330028855</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6593,25 +7721,31 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Zeeburgerdijk</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>POINT (4.9324425 52.3659327)</t>
-        </is>
-      </c>
-      <c r="F187" t="n">
-        <v>4.9324425</v>
-      </c>
-      <c r="G187" t="n">
-        <v>52.3659327</v>
+          <t>Eerste Leeghwaterstraat</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>POINT (4.9293975 52.3700769)</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4.9293975</v>
+      </c>
+      <c r="I187" t="n">
+        <v>52.3700769</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>3299908038</t>
+          <t>434507136</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6626,25 +7760,31 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Muiderpoortstation</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>POINT (4.9326128 52.3607965)</t>
-        </is>
-      </c>
-      <c r="F188" t="n">
-        <v>4.9326128</v>
-      </c>
-      <c r="G188" t="n">
-        <v>52.3607965</v>
+          <t>Hogeweg</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>POINT (4.9308725 52.353568)</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>4.9308725</v>
+      </c>
+      <c r="I188" t="n">
+        <v>52.353568</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>305163755</t>
+          <t>241392441</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6659,25 +7799,31 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Rietlandpark</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>POINT (4.9334664 52.3732299)</t>
-        </is>
-      </c>
-      <c r="F189" t="n">
-        <v>4.9334664</v>
-      </c>
-      <c r="G189" t="n">
-        <v>52.3732299</v>
+          <t>Zeeburgerdijk</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>POINT (4.9324425 52.3659327)</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>4.9324425</v>
+      </c>
+      <c r="I189" t="n">
+        <v>52.3659327</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2674543283</t>
+          <t>3299908038</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6692,25 +7838,31 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Hugo de Vrieslaan</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>POINT (4.934801 52.351066)</t>
-        </is>
-      </c>
-      <c r="F190" t="n">
-        <v>4.934801</v>
-      </c>
-      <c r="G190" t="n">
-        <v>52.351066</v>
+          <t>Muiderpoortstation</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>POINT (4.9326128 52.3607965)</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>4.9326128</v>
+      </c>
+      <c r="I190" t="n">
+        <v>52.3607965</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>297099562</t>
+          <t>305163755</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6725,25 +7877,31 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Azartplein</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>POINT (4.9373223 52.3766133)</t>
-        </is>
-      </c>
-      <c r="F191" t="n">
-        <v>4.9373223</v>
-      </c>
-      <c r="G191" t="n">
-        <v>52.3766133</v>
+          <t>Rietlandpark</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>POINT (4.9334664 52.3732299)</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>4.9334664</v>
+      </c>
+      <c r="I191" t="n">
+        <v>52.3732299</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>3011895788</t>
+          <t>2674543283</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6758,25 +7916,31 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>C. van Eesterenlaan</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>POINT (4.9381702 52.3734596)</t>
-        </is>
-      </c>
-      <c r="F192" t="n">
-        <v>4.9381702</v>
-      </c>
-      <c r="G192" t="n">
-        <v>52.3734596</v>
+          <t>Hugo de Vrieslaan</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>POINT (4.934801 52.351066)</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>4.934801</v>
+      </c>
+      <c r="I192" t="n">
+        <v>52.351066</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2987217067</t>
+          <t>297099562</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6791,25 +7955,31 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Javaplein</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>POINT (4.9382411 52.3641725)</t>
-        </is>
-      </c>
-      <c r="F193" t="n">
-        <v>4.9382411</v>
-      </c>
-      <c r="G193" t="n">
-        <v>52.3641725</v>
+          <t>Azartplein</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>POINT (4.9373223 52.3766133)</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>4.9373223</v>
+      </c>
+      <c r="I193" t="n">
+        <v>52.3766133</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>695213988</t>
+          <t>3011895788</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6824,25 +7994,31 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Kruislaan</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>POINT (4.9398853 52.3479273)</t>
-        </is>
-      </c>
-      <c r="F194" t="n">
-        <v>4.9398853</v>
-      </c>
-      <c r="G194" t="n">
-        <v>52.3479273</v>
+          <t>C. van Eesterenlaan</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>POINT (4.9381702 52.3734596)</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>4.9381702</v>
+      </c>
+      <c r="I194" t="n">
+        <v>52.3734596</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>434524956</t>
+          <t>2987217067</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6857,25 +8033,31 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Molukkenstraat</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>POINT (4.9401785 52.3617259)</t>
-        </is>
-      </c>
-      <c r="F195" t="n">
-        <v>4.9401785</v>
-      </c>
-      <c r="G195" t="n">
-        <v>52.3617259</v>
+          <t>Javaplein</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>POINT (4.9382411 52.3641725)</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>4.9382411</v>
+      </c>
+      <c r="I195" t="n">
+        <v>52.3641725</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>3303180666</t>
+          <t>695213988</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6890,25 +8072,31 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Soembawastraat</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>POINT (4.9433884 52.3621442)</t>
-        </is>
-      </c>
-      <c r="F196" t="n">
-        <v>4.9433884</v>
-      </c>
-      <c r="G196" t="n">
-        <v>52.3621442</v>
+          <t>Kruislaan</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>POINT (4.9398853 52.3479273)</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>4.9398853</v>
+      </c>
+      <c r="I196" t="n">
+        <v>52.3479273</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>296266579</t>
+          <t>434524956</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6923,25 +8111,31 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Brinkstraat</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>POINT (4.9474911 52.3432024)</t>
-        </is>
-      </c>
-      <c r="F197" t="n">
-        <v>4.9474911</v>
-      </c>
-      <c r="G197" t="n">
-        <v>52.3432024</v>
+          <t>Molukkenstraat</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>POINT (4.9401785 52.3617259)</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>4.9401785</v>
+      </c>
+      <c r="I197" t="n">
+        <v>52.3617259</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>434524953</t>
+          <t>3303180666</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6956,25 +8150,31 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Insulindeweg</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>POINT (4.9476342 52.3647569)</t>
-        </is>
-      </c>
-      <c r="F198" t="n">
-        <v>4.9476342</v>
-      </c>
-      <c r="G198" t="n">
-        <v>52.3647569</v>
+          <t>Soembawastraat</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>POINT (4.9433884 52.3621442)</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>4.9433884</v>
+      </c>
+      <c r="I198" t="n">
+        <v>52.3621442</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>3303180661</t>
+          <t>296266579</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6989,25 +8189,31 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Flevopark</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>POINT (4.9510568 52.3652467)</t>
-        </is>
-      </c>
-      <c r="F199" t="n">
-        <v>4.9510568</v>
-      </c>
-      <c r="G199" t="n">
-        <v>52.3652467</v>
+          <t>Brinkstraat</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>POINT (4.9474911 52.3432024)</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>4.9474911</v>
+      </c>
+      <c r="I199" t="n">
+        <v>52.3432024</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2674538480</t>
+          <t>434524953</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -7022,25 +8228,31 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Arent Krijtsstraat</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>POINT (4.9546574 52.33957)</t>
-        </is>
-      </c>
-      <c r="F200" t="n">
-        <v>4.9546574</v>
-      </c>
-      <c r="G200" t="n">
-        <v>52.33957</v>
+          <t>Insulindeweg</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>POINT (4.9476342 52.3647569)</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>4.9476342</v>
+      </c>
+      <c r="I200" t="n">
+        <v>52.3647569</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>6536976362</t>
+          <t>3303180661</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -7055,25 +8267,31 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Diemerbrug</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>POINT (4.9613021 52.3382375)</t>
-        </is>
-      </c>
-      <c r="F201" t="n">
-        <v>4.9613021</v>
-      </c>
-      <c r="G201" t="n">
-        <v>52.3382375</v>
+          <t>Flevopark</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>POINT (4.9510568 52.3652467)</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>4.9510568</v>
+      </c>
+      <c r="I201" t="n">
+        <v>52.3652467</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2674855327</t>
+          <t>2674538480</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -7088,25 +8306,31 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Zuiderzeeweg</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>POINT (4.9616739 52.3719706)</t>
-        </is>
-      </c>
-      <c r="F202" t="n">
-        <v>4.9616739</v>
-      </c>
-      <c r="G202" t="n">
-        <v>52.3719706</v>
+          <t>Arent Krijtsstraat</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>POINT (4.9546574 52.33957)</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>4.9546574</v>
+      </c>
+      <c r="I202" t="n">
+        <v>52.33957</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>3078329917</t>
+          <t>6536976362</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -7119,23 +8343,33 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>POINT (4.9634834 52.3713049)</t>
-        </is>
-      </c>
-      <c r="F203" t="n">
-        <v>4.9634834</v>
-      </c>
-      <c r="G203" t="n">
-        <v>52.3713049</v>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Diemerbrug</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>POINT (4.9613021 52.3382375)</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>4.9613021</v>
+      </c>
+      <c r="I203" t="n">
+        <v>52.3382375</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2677256520</t>
+          <t>2674855327</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -7150,25 +8384,31 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Bob Haarmslaan</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>POINT (4.968548 52.369133)</t>
-        </is>
-      </c>
-      <c r="F204" t="n">
-        <v>4.968548</v>
-      </c>
-      <c r="G204" t="n">
-        <v>52.369133</v>
+          <t>Zuiderzeeweg</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>POINT (4.9616739 52.3719706)</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>4.9616739</v>
+      </c>
+      <c r="I204" t="n">
+        <v>52.3719706</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>5487043827</t>
+          <t>3078329917</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -7181,27 +8421,29 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Sniep</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>POINT (4.9697229 52.3364299)</t>
-        </is>
-      </c>
-      <c r="F205" t="n">
-        <v>4.9697229</v>
-      </c>
-      <c r="G205" t="n">
-        <v>52.3364299</v>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>POINT (4.9634834 52.3713049)</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>4.9634834</v>
+      </c>
+      <c r="I205" t="n">
+        <v>52.3713049</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>3078345543</t>
+          <t>2677256520</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -7216,25 +8458,31 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Steigereiland</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>POINT (4.9799507 52.3632345)</t>
-        </is>
-      </c>
-      <c r="F206" t="n">
-        <v>4.9799507</v>
-      </c>
-      <c r="G206" t="n">
-        <v>52.3632345</v>
+          <t>Bob Haarmslaan</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>POINT (4.968548 52.369133)</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>4.968548</v>
+      </c>
+      <c r="I206" t="n">
+        <v>52.369133</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>10607209062</t>
+          <t>5487043827</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -7249,25 +8497,31 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Vennepluimstraat</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>POINT (4.9899502 52.3580579)</t>
-        </is>
-      </c>
-      <c r="F207" t="n">
-        <v>4.9899502</v>
-      </c>
-      <c r="G207" t="n">
-        <v>52.3580579</v>
+          <t>Sniep</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>POINT (4.9697229 52.3364299)</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>4.9697229</v>
+      </c>
+      <c r="I207" t="n">
+        <v>52.3364299</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2677256600</t>
+          <t>3078345543</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -7282,25 +8536,31 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Diemerparklaan</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>POINT (4.9946247 52.3555154)</t>
-        </is>
-      </c>
-      <c r="F208" t="n">
-        <v>4.9946247</v>
-      </c>
-      <c r="G208" t="n">
-        <v>52.3555154</v>
+          <t>Steigereiland</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>POINT (4.9799507 52.3632345)</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>4.9799507</v>
+      </c>
+      <c r="I208" t="n">
+        <v>52.3632345</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2678427771</t>
+          <t>10607209062</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -7315,25 +8575,31 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Lumièrestraat</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>POINT (4.9990167 52.3531807)</t>
-        </is>
-      </c>
-      <c r="F209" t="n">
-        <v>4.9990167</v>
-      </c>
-      <c r="G209" t="n">
-        <v>52.3531807</v>
+          <t>Vennepluimstraat</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>POINT (4.9899502 52.3580579)</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>4.9899502</v>
+      </c>
+      <c r="I209" t="n">
+        <v>52.3580579</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>388184245</t>
+          <t>2677256600</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -7348,25 +8614,31 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>IJburg</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>POINT (5.0049024 52.3511345)</t>
-        </is>
-      </c>
-      <c r="F210" t="n">
-        <v>5.0049024</v>
-      </c>
-      <c r="G210" t="n">
-        <v>52.3511345</v>
+          <t>Diemerparklaan</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>POINT (4.9946247 52.3555154)</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>4.9946247</v>
+      </c>
+      <c r="I210" t="n">
+        <v>52.3555154</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>9807478538</t>
+          <t>2678427771</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -7376,56 +8648,146 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Centraal Station_B</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>POINT (4.8987647 52.3785952)</t>
-        </is>
-      </c>
-      <c r="F211" t="n">
-        <v>4.8987647</v>
-      </c>
-      <c r="G211" t="n">
-        <v>52.3785952</v>
+          <t>Lumièrestraat</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>POINT (4.9990167 52.3531807)</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>4.9990167</v>
+      </c>
+      <c r="I211" t="n">
+        <v>52.3531807</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
+          <t>388184245</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>tram_stop</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>IJburg</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>POINT (5.0049024 52.3511345)</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>5.0049024</v>
+      </c>
+      <c r="I212" t="n">
+        <v>52.3511345</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>9807478538</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>tram_stop</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Centraal Station_B</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Centraal Station</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>POINT (4.8987647 52.3785952)</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>4.8987647</v>
+      </c>
+      <c r="I213" t="n">
+        <v>52.3785952</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
           <t>9982135046</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>tram_stop</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>tram_stop</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
         <is>
           <t>Centraal Station_A</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="D214" t="inlineStr">
         <is>
           <t>Centraal Station</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
         <is>
           <t>POINT (4.9009826 52.3777045)</t>
         </is>
       </c>
-      <c r="F212" t="n">
+      <c r="H214" t="n">
         <v>4.9009826</v>
       </c>
-      <c r="G212" t="n">
+      <c r="I214" t="n">
         <v>52.3777045</v>
       </c>
     </row>

--- a/notebooks/am_tram_stations.xlsx
+++ b/notebooks/am_tram_stations.xlsx
@@ -8726,12 +8726,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
           <t>Centraal Station_B</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -8765,12 +8765,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
           <t>Centraal Station_A</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>

--- a/notebooks/am_tram_stations.xlsx
+++ b/notebooks/am_tram_stations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I214"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>railway</t>
+          <t>public_transport</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -456,25 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>alt_name</t>
+          <t>geometry</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>public_transport</t>
+          <t>geo_x</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>geometry</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>geo_x</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>geo_y</t>
         </is>
@@ -488,7 +478,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -501,21 +491,15 @@
           <t>Matterhorn</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>POINT (4.7745043 52.3538687)</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="F2" t="n">
         <v>4.7745043</v>
       </c>
-      <c r="I2" t="n">
+      <c r="G2" t="n">
         <v>52.3538687</v>
       </c>
     </row>
@@ -527,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,21 +524,15 @@
           <t>Pilatus</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>POINT (4.776554 52.3530108)</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="F3" t="n">
         <v>4.776554</v>
       </c>
-      <c r="I3" t="n">
+      <c r="G3" t="n">
         <v>52.3530108</v>
       </c>
     </row>
@@ -566,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,21 +557,15 @@
           <t>Inaristraat</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>POINT (4.7829483 52.3504489)</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="F4" t="n">
         <v>4.7829483</v>
       </c>
-      <c r="I4" t="n">
+      <c r="G4" t="n">
         <v>52.3504489</v>
       </c>
     </row>
@@ -605,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -618,21 +590,15 @@
           <t>Dijkgraafplein</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>POINT (4.7864929 52.3554481)</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="F5" t="n">
         <v>4.7864929</v>
       </c>
-      <c r="I5" t="n">
+      <c r="G5" t="n">
         <v>52.3554481</v>
       </c>
     </row>
@@ -644,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -657,21 +623,15 @@
           <t>Ecuplein</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>POINT (4.7881582 52.3496935)</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="F6" t="n">
         <v>4.7881582</v>
       </c>
-      <c r="I6" t="n">
+      <c r="G6" t="n">
         <v>52.3496935</v>
       </c>
     </row>
@@ -683,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -696,21 +656,15 @@
           <t>Baden Powellweg</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>POINT (4.7913 52.3564413)</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="F7" t="n">
         <v>4.7913</v>
       </c>
-      <c r="I7" t="n">
+      <c r="G7" t="n">
         <v>52.3564413</v>
       </c>
     </row>
@@ -722,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -735,21 +689,15 @@
           <t>Hoekenes</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>POINT (4.7990044 52.3579858)</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="F8" t="n">
         <v>4.7990044</v>
       </c>
-      <c r="I8" t="n">
+      <c r="G8" t="n">
         <v>52.3579858</v>
       </c>
     </row>
@@ -761,7 +709,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -774,21 +722,15 @@
           <t>Lambertus Zijlplein</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>POINT (4.8029118 52.3772607)</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="F9" t="n">
         <v>4.8029118</v>
       </c>
-      <c r="I9" t="n">
+      <c r="G9" t="n">
         <v>52.3772607</v>
       </c>
     </row>
@@ -800,7 +742,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -813,21 +755,15 @@
           <t>Osdorpplein West</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>POINT (4.8032054 52.3595387)</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="F10" t="n">
         <v>4.8032054</v>
       </c>
-      <c r="I10" t="n">
+      <c r="G10" t="n">
         <v>52.3595387</v>
       </c>
     </row>
@@ -839,7 +775,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -852,21 +788,15 @@
           <t>Oudenaardeplantsoen</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>POINT (4.8036706 52.3449284)</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="F11" t="n">
         <v>4.8036706</v>
       </c>
-      <c r="I11" t="n">
+      <c r="G11" t="n">
         <v>52.3449284</v>
       </c>
     </row>
@@ -878,7 +808,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,21 +821,15 @@
           <t>Dr. H. Colijnstraat</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>POINT (4.8062691 52.3769399)</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="F12" t="n">
         <v>4.8062691</v>
       </c>
-      <c r="I12" t="n">
+      <c r="G12" t="n">
         <v>52.3769399</v>
       </c>
     </row>
@@ -917,7 +841,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -930,21 +854,15 @@
           <t>Osdorpplein Oost</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>POINT (4.8077454 52.359326)</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="F13" t="n">
         <v>4.8077454</v>
       </c>
-      <c r="I13" t="n">
+      <c r="G13" t="n">
         <v>52.359326</v>
       </c>
     </row>
@@ -956,7 +874,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -969,21 +887,15 @@
           <t>Louis Davidsstraat</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>POINT (4.8085181 52.3538389)</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="F14" t="n">
         <v>4.8085181</v>
       </c>
-      <c r="I14" t="n">
+      <c r="G14" t="n">
         <v>52.3538389</v>
       </c>
     </row>
@@ -995,7 +907,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1008,21 +920,15 @@
           <t>Meer en Vaart</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>POINT (4.8099119 52.35637)</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="F15" t="n">
         <v>4.8099119</v>
       </c>
-      <c r="I15" t="n">
+      <c r="G15" t="n">
         <v>52.35637</v>
       </c>
     </row>
@@ -1034,7 +940,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1047,21 +953,15 @@
           <t>Centrum Nieuw Sloten</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>POINT (4.8106661 52.3463027)</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="F16" t="n">
         <v>4.8106661</v>
       </c>
-      <c r="I16" t="n">
+      <c r="G16" t="n">
         <v>52.3463027</v>
       </c>
     </row>
@@ -1073,7 +973,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1086,21 +986,15 @@
           <t>Burgemeester Van Leeuwenlaan</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>POINT (4.8117554 52.3765095)</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="F17" t="n">
         <v>4.8117554</v>
       </c>
-      <c r="I17" t="n">
+      <c r="G17" t="n">
         <v>52.3765095</v>
       </c>
     </row>
@@ -1112,7 +1006,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1125,21 +1019,15 @@
           <t>Laan van Vlaanderen</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>POINT (4.8156883 52.3464422)</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="F18" t="n">
         <v>4.8156883</v>
       </c>
-      <c r="I18" t="n">
+      <c r="G18" t="n">
         <v>52.3464422</v>
       </c>
     </row>
@@ -1151,7 +1039,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1164,21 +1052,15 @@
           <t>Slotermeerlaan</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>POINT (4.8173607 52.3759547)</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="F19" t="n">
         <v>4.8173607</v>
       </c>
-      <c r="I19" t="n">
+      <c r="G19" t="n">
         <v>52.3759547</v>
       </c>
     </row>
@@ -1190,7 +1072,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1203,21 +1085,15 @@
           <t>Sloterpark</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>POINT (4.8186019 52.3728449)</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="F20" t="n">
         <v>4.8186019</v>
       </c>
-      <c r="I20" t="n">
+      <c r="G20" t="n">
         <v>52.3728449</v>
       </c>
     </row>
@@ -1229,7 +1105,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1242,21 +1118,15 @@
           <t>Burgemeester Roëllstraat</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>POINT (4.8187509 52.3750672)</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="F21" t="n">
         <v>4.8187509</v>
       </c>
-      <c r="I21" t="n">
+      <c r="G21" t="n">
         <v>52.3750672</v>
       </c>
     </row>
@@ -1268,7 +1138,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1281,21 +1151,15 @@
           <t>Plein '40-'45</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>POINT (4.8211591 52.3808373)</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="F22" t="n">
         <v>4.8211591</v>
       </c>
-      <c r="I22" t="n">
+      <c r="G22" t="n">
         <v>52.3808373</v>
       </c>
     </row>
@@ -1307,7 +1171,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1320,21 +1184,15 @@
           <t>Louwesweg</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>POINT (4.8242594 52.3466865)</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="F23" t="n">
         <v>4.8242594</v>
       </c>
-      <c r="I23" t="n">
+      <c r="G23" t="n">
         <v>52.3466865</v>
       </c>
     </row>
@@ -1346,7 +1204,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1359,21 +1217,15 @@
           <t>Burgemeester Eliasstraat</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>POINT (4.8258104 52.38075)</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="F24" t="n">
         <v>4.8258104</v>
       </c>
-      <c r="I24" t="n">
+      <c r="G24" t="n">
         <v>52.38075</v>
       </c>
     </row>
@@ -1385,7 +1237,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1398,21 +1250,15 @@
           <t>Johan Huizingalaan</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>POINT (4.8258953 52.3578123)</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="F25" t="n">
         <v>4.8258953</v>
       </c>
-      <c r="I25" t="n">
+      <c r="G25" t="n">
         <v>52.3578123</v>
       </c>
     </row>
@@ -1424,7 +1270,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1437,21 +1283,15 @@
           <t>Burgemeester Rendorpstraat</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>POINT (4.8268013 52.3744723)</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="F26" t="n">
         <v>4.8268013</v>
       </c>
-      <c r="I26" t="n">
+      <c r="G26" t="n">
         <v>52.3744723</v>
       </c>
     </row>
@@ -1463,7 +1303,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1476,21 +1316,15 @@
           <t>Westwijk</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>POINT (4.8305377 52.2743532)</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="F27" t="n">
         <v>4.8305377</v>
       </c>
-      <c r="I27" t="n">
+      <c r="G27" t="n">
         <v>52.2743532</v>
       </c>
     </row>
@@ -1502,7 +1336,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1515,21 +1349,15 @@
           <t>Burgemeester Fockstraat</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>POINT (4.8312794 52.3798913)</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="F28" t="n">
         <v>4.8312794</v>
       </c>
-      <c r="I28" t="n">
+      <c r="G28" t="n">
         <v>52.3798913</v>
       </c>
     </row>
@@ -1541,7 +1369,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1554,21 +1382,15 @@
           <t>Sacharovlaan</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>POINT (4.8323277 52.2821847)</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="F29" t="n">
         <v>4.8323277</v>
       </c>
-      <c r="I29" t="n">
+      <c r="G29" t="n">
         <v>52.2821847</v>
       </c>
     </row>
@@ -1580,7 +1402,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1593,21 +1415,15 @@
           <t>Heemstedestraat</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>POINT (4.8337504 52.3515095)</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="F30" t="n">
         <v>4.8337504</v>
       </c>
-      <c r="I30" t="n">
+      <c r="G30" t="n">
         <v>52.3515095</v>
       </c>
     </row>
@@ -1619,7 +1435,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1632,21 +1448,15 @@
           <t>Station Lelylaan</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>POINT (4.8337835 52.3579004)</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="F31" t="n">
         <v>4.8337835</v>
       </c>
-      <c r="I31" t="n">
+      <c r="G31" t="n">
         <v>52.3579004</v>
       </c>
     </row>
@@ -1658,7 +1468,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1671,21 +1481,15 @@
           <t>Jan van Galenstraat</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>POINT (4.8350051 52.3732337)</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="F32" t="n">
         <v>4.8350051</v>
       </c>
-      <c r="I32" t="n">
+      <c r="G32" t="n">
         <v>52.3732337</v>
       </c>
     </row>
@@ -1697,7 +1501,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1710,21 +1514,15 @@
           <t>Burgemeester de Vlugtlaan</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>POINT (4.8372054 52.378963)</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="F33" t="n">
         <v>4.8372054</v>
       </c>
-      <c r="I33" t="n">
+      <c r="G33" t="n">
         <v>52.378963</v>
       </c>
     </row>
@@ -1736,7 +1534,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1749,21 +1547,15 @@
           <t>Jan Tooropstraat</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>POINT (4.8377996 52.3708325)</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="F34" t="n">
         <v>4.8377996</v>
       </c>
-      <c r="I34" t="n">
+      <c r="G34" t="n">
         <v>52.3708325</v>
       </c>
     </row>
@@ -1775,7 +1567,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1788,21 +1580,15 @@
           <t>Jan Voermanstraat</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>POINT (4.8378389 52.3697121)</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="F35" t="n">
         <v>4.8378389</v>
       </c>
-      <c r="I35" t="n">
+      <c r="G35" t="n">
         <v>52.3697121</v>
       </c>
     </row>
@@ -1814,7 +1600,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1827,21 +1613,15 @@
           <t>Bovenkerk</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>POINT (4.8391034 52.2908393)</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="F36" t="n">
         <v>4.8391034</v>
       </c>
-      <c r="I36" t="n">
+      <c r="G36" t="n">
         <v>52.2908393</v>
       </c>
     </row>
@@ -1853,7 +1633,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1866,21 +1646,15 @@
           <t>Station Sloterdijk</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>POINT (4.8392172 52.3879696)</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="F37" t="n">
         <v>4.8392172</v>
       </c>
-      <c r="I37" t="n">
+      <c r="G37" t="n">
         <v>52.3879696</v>
       </c>
     </row>
@@ -1892,7 +1666,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1905,21 +1679,15 @@
           <t>Derkinderenstraat</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>POINT (4.8397482 52.3579573)</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="F38" t="n">
         <v>4.8397482</v>
       </c>
-      <c r="I38" t="n">
+      <c r="G38" t="n">
         <v>52.3579573</v>
       </c>
     </row>
@@ -1931,7 +1699,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1944,21 +1712,15 @@
           <t>Delflandlaan</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>POINT (4.83976 52.351558)</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="F39" t="n">
         <v>4.83976</v>
       </c>
-      <c r="I39" t="n">
+      <c r="G39" t="n">
         <v>52.351558</v>
       </c>
     </row>
@@ -1970,7 +1732,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1983,21 +1745,15 @@
           <t>Noorddammerlaan</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>POINT (4.8400481 52.2920559)</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="F40" t="n">
         <v>4.8400481</v>
       </c>
-      <c r="I40" t="n">
+      <c r="G40" t="n">
         <v>52.2920559</v>
       </c>
     </row>
@@ -2009,7 +1765,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2022,21 +1778,15 @@
           <t>Admiraal Helfrichstraat</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>POINT (4.8438216 52.3694429)</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="F41" t="n">
         <v>4.8438216</v>
       </c>
-      <c r="I41" t="n">
+      <c r="G41" t="n">
         <v>52.3694429</v>
       </c>
     </row>
@@ -2048,7 +1798,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2061,21 +1811,15 @@
           <t>Bos en Lommerplein</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>POINT (4.8449335 52.3777823)</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="F42" t="n">
         <v>4.8449335</v>
       </c>
-      <c r="I42" t="n">
+      <c r="G42" t="n">
         <v>52.3777823</v>
       </c>
     </row>
@@ -2087,7 +1831,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2100,21 +1844,15 @@
           <t>Westlandgracht</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>POINT (4.8450157 52.3515947)</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="F43" t="n">
         <v>4.8450157</v>
       </c>
-      <c r="I43" t="n">
+      <c r="G43" t="n">
         <v>52.3515947</v>
       </c>
     </row>
@@ -2126,7 +1864,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2139,21 +1877,15 @@
           <t>Poortwachter</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>POINT (4.8450525 52.2833338)</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="F44" t="n">
         <v>4.8450525</v>
       </c>
-      <c r="I44" t="n">
+      <c r="G44" t="n">
         <v>52.2833338</v>
       </c>
     </row>
@@ -2165,7 +1897,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2178,21 +1910,15 @@
           <t>Handweg</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>POINT (4.8453672 52.2994491)</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="F45" t="n">
         <v>4.8453672</v>
       </c>
-      <c r="I45" t="n">
+      <c r="G45" t="n">
         <v>52.2994491</v>
       </c>
     </row>
@@ -2204,7 +1930,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2217,21 +1943,15 @@
           <t>Molenwerf</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>POINT (4.8461556 52.3858895)</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="F46" t="n">
         <v>4.8461556</v>
       </c>
-      <c r="I46" t="n">
+      <c r="G46" t="n">
         <v>52.3858895</v>
       </c>
     </row>
@@ -2243,7 +1963,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2256,21 +1976,15 @@
           <t>Erasmusgracht</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>POINT (4.8469734 52.3763312)</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="F47" t="n">
         <v>4.8469734</v>
       </c>
-      <c r="I47" t="n">
+      <c r="G47" t="n">
         <v>52.3763312</v>
       </c>
     </row>
@@ -2282,7 +1996,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2295,21 +2009,15 @@
           <t>Station Amstelveen</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>POINT (4.8477382 52.3013966)</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="F48" t="n">
         <v>4.8477382</v>
       </c>
-      <c r="I48" t="n">
+      <c r="G48" t="n">
         <v>52.3013966</v>
       </c>
     </row>
@@ -2321,7 +2029,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2334,21 +2042,15 @@
           <t>Hoofddorpplein</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>POINT (4.8495922 52.3511681)</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="F49" t="n">
         <v>4.8495922</v>
       </c>
-      <c r="I49" t="n">
+      <c r="G49" t="n">
         <v>52.3511681</v>
       </c>
     </row>
@@ -2360,7 +2062,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2373,21 +2075,15 @@
           <t>Mercatorplein</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>POINT (4.8499792 52.3706818)</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="F50" t="n">
         <v>4.8499792</v>
       </c>
-      <c r="I50" t="n">
+      <c r="G50" t="n">
         <v>52.3706818</v>
       </c>
     </row>
@@ -2399,7 +2095,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2412,21 +2108,15 @@
           <t>Parklaan</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>POINT (4.8504873 52.3042535)</t>
         </is>
       </c>
-      <c r="H51" t="n">
+      <c r="F51" t="n">
         <v>4.8504873</v>
       </c>
-      <c r="I51" t="n">
+      <c r="G51" t="n">
         <v>52.3042535</v>
       </c>
     </row>
@@ -2438,7 +2128,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2451,21 +2141,15 @@
           <t>Molenweg</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>POINT (4.8506593 52.3085646)</t>
         </is>
       </c>
-      <c r="H52" t="n">
+      <c r="F52" t="n">
         <v>4.8506593</v>
       </c>
-      <c r="I52" t="n">
+      <c r="G52" t="n">
         <v>52.3085646</v>
       </c>
     </row>
@@ -2477,7 +2161,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2490,21 +2174,15 @@
           <t>Curacaostraat</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>POINT (4.8506975 52.3586176)</t>
         </is>
       </c>
-      <c r="H53" t="n">
+      <c r="F53" t="n">
         <v>4.8506975</v>
       </c>
-      <c r="I53" t="n">
+      <c r="G53" t="n">
         <v>52.3586176</v>
       </c>
     </row>
@@ -2516,7 +2194,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2529,21 +2207,15 @@
           <t>Karselaan</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>POINT (4.8507838 52.3109438)</t>
         </is>
       </c>
-      <c r="H54" t="n">
+      <c r="F54" t="n">
         <v>4.8507838</v>
       </c>
-      <c r="I54" t="n">
+      <c r="G54" t="n">
         <v>52.3109438</v>
       </c>
     </row>
@@ -2555,7 +2227,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2568,21 +2240,15 @@
           <t>Wiltzanghlaan</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>POINT (4.8508513 52.3828002)</t>
         </is>
       </c>
-      <c r="H55" t="n">
+      <c r="F55" t="n">
         <v>4.8508513</v>
       </c>
-      <c r="I55" t="n">
+      <c r="G55" t="n">
         <v>52.3828002</v>
       </c>
     </row>
@@ -2594,7 +2260,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2607,21 +2273,15 @@
           <t>Jan Wilsbrug</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>POINT (4.8509865 52.3442966)</t>
         </is>
       </c>
-      <c r="H56" t="n">
+      <c r="F56" t="n">
         <v>4.8509865</v>
       </c>
-      <c r="I56" t="n">
+      <c r="G56" t="n">
         <v>52.3442966</v>
       </c>
     </row>
@@ -2633,7 +2293,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2646,21 +2306,15 @@
           <t>Surinameplein</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>POINT (4.8509943 52.3580728)</t>
         </is>
       </c>
-      <c r="H57" t="n">
+      <c r="F57" t="n">
         <v>4.8509943</v>
       </c>
-      <c r="I57" t="n">
+      <c r="G57" t="n">
         <v>52.3580728</v>
       </c>
     </row>
@@ -2672,7 +2326,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2685,21 +2339,15 @@
           <t>Brink</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>POINT (4.8513367 52.2806292)</t>
         </is>
       </c>
-      <c r="H58" t="n">
+      <c r="F58" t="n">
         <v>4.8513367</v>
       </c>
-      <c r="I58" t="n">
+      <c r="G58" t="n">
         <v>52.2806292</v>
       </c>
     </row>
@@ -2711,7 +2359,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2724,33 +2372,27 @@
           <t>W. Schoutenstraat</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>POINT (4.8523612 52.3673886)</t>
         </is>
       </c>
-      <c r="H59" t="n">
+      <c r="F59" t="n">
         <v>4.8523612</v>
       </c>
-      <c r="I59" t="n">
+      <c r="G59" t="n">
         <v>52.3673886</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4249280293</t>
+          <t>296999161</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2763,22 +2405,16 @@
           <t>IJsbaanpad</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>POINT (4.8523781 52.3411758)</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>4.8523781</v>
-      </c>
-      <c r="I60" t="n">
-        <v>52.3411758</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>POINT (4.8524016 52.3411779)</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>4.8524016</v>
+      </c>
+      <c r="G60" t="n">
+        <v>52.3411779</v>
       </c>
     </row>
     <row r="61">
@@ -2789,7 +2425,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2802,21 +2438,15 @@
           <t>Postjesweg</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>POINT (4.8531487 52.3638557)</t>
         </is>
       </c>
-      <c r="H61" t="n">
+      <c r="F61" t="n">
         <v>4.8531487</v>
       </c>
-      <c r="I61" t="n">
+      <c r="G61" t="n">
         <v>52.3638557</v>
       </c>
     </row>
@@ -2828,7 +2458,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2841,21 +2471,15 @@
           <t>Corantijnstraat</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>POINT (4.853247 52.3615937)</t>
         </is>
       </c>
-      <c r="H62" t="n">
+      <c r="F62" t="n">
         <v>4.853247</v>
       </c>
-      <c r="I62" t="n">
+      <c r="G62" t="n">
         <v>52.3615937</v>
       </c>
     </row>
@@ -2867,7 +2491,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2880,21 +2504,15 @@
           <t>Remise Karperweg</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>POINT (4.8534016 52.3475341)</t>
         </is>
       </c>
-      <c r="H63" t="n">
+      <c r="F63" t="n">
         <v>4.8534016</v>
       </c>
-      <c r="I63" t="n">
+      <c r="G63" t="n">
         <v>52.3475341</v>
       </c>
     </row>
@@ -2906,7 +2524,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2919,21 +2537,15 @@
           <t>Bos en Lommerweg</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>POINT (4.8539004 52.3811188)</t>
         </is>
       </c>
-      <c r="H64" t="n">
+      <c r="F64" t="n">
         <v>4.8539004</v>
       </c>
-      <c r="I64" t="n">
+      <c r="G64" t="n">
         <v>52.3811188</v>
       </c>
     </row>
@@ -2945,7 +2557,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2958,21 +2570,15 @@
           <t>Hoofdweg</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>POINT (4.853975 52.3642479)</t>
         </is>
       </c>
-      <c r="H65" t="n">
+      <c r="F65" t="n">
         <v>4.853975</v>
       </c>
-      <c r="I65" t="n">
+      <c r="G65" t="n">
         <v>52.3642479</v>
       </c>
     </row>
@@ -2984,7 +2590,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2997,21 +2603,15 @@
           <t>Jollenpad</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>POINT (4.8543795 52.3352719)</t>
         </is>
       </c>
-      <c r="H66" t="n">
+      <c r="F66" t="n">
         <v>4.8543795</v>
       </c>
-      <c r="I66" t="n">
+      <c r="G66" t="n">
         <v>52.3352719</v>
       </c>
     </row>
@@ -3023,7 +2623,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3036,21 +2636,15 @@
           <t>Marco Polostraat</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>POINT (4.8551084 52.3708621)</t>
         </is>
       </c>
-      <c r="H67" t="n">
+      <c r="F67" t="n">
         <v>4.8551084</v>
       </c>
-      <c r="I67" t="n">
+      <c r="G67" t="n">
         <v>52.3708621</v>
       </c>
     </row>
@@ -3062,7 +2656,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3075,21 +2669,15 @@
           <t>Amsterdamseweg</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>POINT (4.8552783 52.3153498)</t>
         </is>
       </c>
-      <c r="H68" t="n">
+      <c r="F68" t="n">
         <v>4.8552783</v>
       </c>
-      <c r="I68" t="n">
+      <c r="G68" t="n">
         <v>52.3153498</v>
       </c>
     </row>
@@ -3101,7 +2689,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3114,21 +2702,15 @@
           <t>Amstelveenseweg</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>POINT (4.8560802 52.3513581)</t>
         </is>
       </c>
-      <c r="H69" t="n">
+      <c r="F69" t="n">
         <v>4.8560802</v>
       </c>
-      <c r="I69" t="n">
+      <c r="G69" t="n">
         <v>52.3513581</v>
       </c>
     </row>
@@ -3140,7 +2722,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3153,21 +2735,15 @@
           <t>Koenenkade</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>POINT (4.8560952 52.3305598)</t>
         </is>
       </c>
-      <c r="H70" t="n">
+      <c r="F70" t="n">
         <v>4.8560952</v>
       </c>
-      <c r="I70" t="n">
+      <c r="G70" t="n">
         <v>52.3305598</v>
       </c>
     </row>
@@ -3179,7 +2755,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3192,21 +2768,15 @@
           <t>Haarlemmermeerstation</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>POINT (4.8562313 52.3493132)</t>
         </is>
       </c>
-      <c r="H71" t="n">
+      <c r="F71" t="n">
         <v>4.8562313</v>
       </c>
-      <c r="I71" t="n">
+      <c r="G71" t="n">
         <v>52.3493132</v>
       </c>
     </row>
@@ -3218,7 +2788,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3231,21 +2801,15 @@
           <t>Kalfjeslaan</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>POINT (4.8564951 52.3214358)</t>
         </is>
       </c>
-      <c r="H72" t="n">
+      <c r="F72" t="n">
         <v>4.8564951</v>
       </c>
-      <c r="I72" t="n">
+      <c r="G72" t="n">
         <v>52.3214358</v>
       </c>
     </row>
@@ -3257,7 +2821,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3270,21 +2834,15 @@
           <t>Van Nijenrodeweg</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>POINT (4.8565395 52.3274177)</t>
         </is>
       </c>
-      <c r="H73" t="n">
+      <c r="F73" t="n">
         <v>4.8565395</v>
       </c>
-      <c r="I73" t="n">
+      <c r="G73" t="n">
         <v>52.3274177</v>
       </c>
     </row>
@@ -3296,7 +2854,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3309,21 +2867,15 @@
           <t>Zeilstraat</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>POINT (4.8567453 52.351218)</t>
         </is>
       </c>
-      <c r="H74" t="n">
+      <c r="F74" t="n">
         <v>4.8567453</v>
       </c>
-      <c r="I74" t="n">
+      <c r="G74" t="n">
         <v>52.351218</v>
       </c>
     </row>
@@ -3335,7 +2887,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3348,21 +2900,15 @@
           <t>Olympisch Stadion</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>POINT (4.8568368 52.3440249)</t>
         </is>
       </c>
-      <c r="H75" t="n">
+      <c r="F75" t="n">
         <v>4.8568368</v>
       </c>
-      <c r="I75" t="n">
+      <c r="G75" t="n">
         <v>52.3440249</v>
       </c>
     </row>
@@ -3374,7 +2920,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3387,21 +2933,15 @@
           <t>Meent</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>POINT (4.8569707 52.2808905)</t>
         </is>
       </c>
-      <c r="H76" t="n">
+      <c r="F76" t="n">
         <v>4.8569707</v>
       </c>
-      <c r="I76" t="n">
+      <c r="G76" t="n">
         <v>52.2808905</v>
       </c>
     </row>
@@ -3413,7 +2953,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3426,21 +2966,15 @@
           <t>Karel Doormanstraat</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>POINT (4.8569721 52.3788687)</t>
         </is>
       </c>
-      <c r="H77" t="n">
+      <c r="F77" t="n">
         <v>4.8569721</v>
       </c>
-      <c r="I77" t="n">
+      <c r="G77" t="n">
         <v>52.3788687</v>
       </c>
     </row>
@@ -3452,7 +2986,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3465,21 +2999,15 @@
           <t>De Rijpstraat</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>POINT (4.8577243 52.3773555)</t>
         </is>
       </c>
-      <c r="H78" t="n">
+      <c r="F78" t="n">
         <v>4.8577243</v>
       </c>
-      <c r="I78" t="n">
+      <c r="G78" t="n">
         <v>52.3773555</v>
       </c>
     </row>
@@ -3491,7 +3019,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3504,21 +3032,15 @@
           <t>Olympiaweg</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>POINT (4.8583402 52.3452652)</t>
         </is>
       </c>
-      <c r="H79" t="n">
+      <c r="F79" t="n">
         <v>4.8583402</v>
       </c>
-      <c r="I79" t="n">
+      <c r="G79" t="n">
         <v>52.3452652</v>
       </c>
     </row>
@@ -3530,7 +3052,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3543,21 +3065,15 @@
           <t>Witte de Withstraat</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>POINT (4.8586095 52.3647872)</t>
         </is>
       </c>
-      <c r="H80" t="n">
+      <c r="F80" t="n">
         <v>4.8586095</v>
       </c>
-      <c r="I80" t="n">
+      <c r="G80" t="n">
         <v>52.3647872</v>
       </c>
     </row>
@@ -3569,7 +3085,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3582,21 +3098,15 @@
           <t>Rhijnvis Feithstraat</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>POINT (4.8596776 52.3588447)</t>
         </is>
       </c>
-      <c r="H81" t="n">
+      <c r="F81" t="n">
         <v>4.8596776</v>
       </c>
-      <c r="I81" t="n">
+      <c r="G81" t="n">
         <v>52.3588447</v>
       </c>
     </row>
@@ -3608,7 +3118,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3621,21 +3131,15 @@
           <t>Admiraal De Ruijterweg</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>POINT (4.8600128 52.371502)</t>
         </is>
       </c>
-      <c r="H82" t="n">
+      <c r="F82" t="n">
         <v>4.8600128</v>
       </c>
-      <c r="I82" t="n">
+      <c r="G82" t="n">
         <v>52.371502</v>
       </c>
     </row>
@@ -3647,7 +3151,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3660,21 +3164,15 @@
           <t>VUmc Hoofdingang</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>POINT (4.8600614 52.3351977)</t>
         </is>
       </c>
-      <c r="H83" t="n">
+      <c r="F83" t="n">
         <v>4.8600614</v>
       </c>
-      <c r="I83" t="n">
+      <c r="G83" t="n">
         <v>52.3351977</v>
       </c>
     </row>
@@ -3686,7 +3184,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3699,21 +3197,15 @@
           <t>Jan Pieter Heijestraat</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>POINT (4.8624057 52.3647282)</t>
         </is>
       </c>
-      <c r="H84" t="n">
+      <c r="F84" t="n">
         <v>4.8624057</v>
       </c>
-      <c r="I84" t="n">
+      <c r="G84" t="n">
         <v>52.3647282</v>
       </c>
     </row>
@@ -3725,7 +3217,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3738,21 +3230,15 @@
           <t>Sportlaan</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>POINT (4.863249 52.289791)</t>
         </is>
       </c>
-      <c r="H85" t="n">
+      <c r="F85" t="n">
         <v>4.863249</v>
       </c>
-      <c r="I85" t="n">
+      <c r="G85" t="n">
         <v>52.289791</v>
       </c>
     </row>
@@ -3764,7 +3250,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3777,21 +3263,15 @@
           <t>Valeriusplein</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>POINT (4.8632955 52.3531864)</t>
         </is>
       </c>
-      <c r="H86" t="n">
+      <c r="F86" t="n">
         <v>4.8632955</v>
       </c>
-      <c r="I86" t="n">
+      <c r="G86" t="n">
         <v>52.3531864</v>
       </c>
     </row>
@@ -3803,7 +3283,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3816,21 +3296,15 @@
           <t>Willem de Zwijgerlaan</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>POINT (4.8636349 52.3706925)</t>
         </is>
       </c>
-      <c r="H87" t="n">
+      <c r="F87" t="n">
         <v>4.8636349</v>
       </c>
-      <c r="I87" t="n">
+      <c r="G87" t="n">
         <v>52.3706925</v>
       </c>
     </row>
@@ -3842,7 +3316,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3855,21 +3329,15 @@
           <t>Olympiaplein</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>POINT (4.8658574 52.3463018)</t>
         </is>
       </c>
-      <c r="H88" t="n">
+      <c r="F88" t="n">
         <v>4.8658574</v>
       </c>
-      <c r="I88" t="n">
+      <c r="G88" t="n">
         <v>52.3463018</v>
       </c>
     </row>
@@ -3881,7 +3349,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3894,21 +3362,15 @@
           <t>De Boelelaan/VU</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>POINT (4.8659833 52.3352308)</t>
         </is>
       </c>
-      <c r="H89" t="n">
+      <c r="F89" t="n">
         <v>4.8659833</v>
       </c>
-      <c r="I89" t="n">
+      <c r="G89" t="n">
         <v>52.3352308</v>
       </c>
     </row>
@@ -3920,7 +3382,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3933,21 +3395,15 @@
           <t>Amstelveen Stadshart</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>POINT (4.8670933 52.3012694)</t>
         </is>
       </c>
-      <c r="H90" t="n">
+      <c r="F90" t="n">
         <v>4.8670933</v>
       </c>
-      <c r="I90" t="n">
+      <c r="G90" t="n">
         <v>52.3012694</v>
       </c>
     </row>
@@ -3959,7 +3415,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3972,21 +3428,15 @@
           <t>Ten Katestraat</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>POINT (4.8673314 52.3659077)</t>
         </is>
       </c>
-      <c r="H91" t="n">
+      <c r="F91" t="n">
         <v>4.8673314</v>
       </c>
-      <c r="I91" t="n">
+      <c r="G91" t="n">
         <v>52.3659077</v>
       </c>
     </row>
@@ -3998,7 +3448,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4011,21 +3461,15 @@
           <t>Ouderkerkerlaan</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>POINT (4.8674156 52.2961484)</t>
         </is>
       </c>
-      <c r="H92" t="n">
+      <c r="F92" t="n">
         <v>4.8674156</v>
       </c>
-      <c r="I92" t="n">
+      <c r="G92" t="n">
         <v>52.2961484</v>
       </c>
     </row>
@@ -4037,7 +3481,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4050,21 +3494,15 @@
           <t>Parnassusweg</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>POINT (4.8686793 52.3382075)</t>
         </is>
       </c>
-      <c r="H93" t="n">
+      <c r="F93" t="n">
         <v>4.8686793</v>
       </c>
-      <c r="I93" t="n">
+      <c r="G93" t="n">
         <v>52.3382075</v>
       </c>
     </row>
@@ -4076,7 +3514,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4089,21 +3527,15 @@
           <t>A. J. Ernststraat</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>POINT (4.8688168 52.3325431)</t>
         </is>
       </c>
-      <c r="H94" t="n">
+      <c r="F94" t="n">
         <v>4.8688168</v>
       </c>
-      <c r="I94" t="n">
+      <c r="G94" t="n">
         <v>52.3325431</v>
       </c>
     </row>
@@ -4115,7 +3547,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4128,21 +3560,15 @@
           <t>Van Boshuizenstraat</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>POINT (4.8689764 52.3248943)</t>
         </is>
       </c>
-      <c r="H95" t="n">
+      <c r="F95" t="n">
         <v>4.8689764</v>
       </c>
-      <c r="I95" t="n">
+      <c r="G95" t="n">
         <v>52.3248943</v>
       </c>
     </row>
@@ -4154,7 +3580,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4167,21 +3593,15 @@
           <t>Uilenstede</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>POINT (4.8691021 52.3212764)</t>
         </is>
       </c>
-      <c r="H96" t="n">
+      <c r="F96" t="n">
         <v>4.8691021</v>
       </c>
-      <c r="I96" t="n">
+      <c r="G96" t="n">
         <v>52.3212764</v>
       </c>
     </row>
@@ -4193,7 +3613,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4206,21 +3626,15 @@
           <t>Emmastraat</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>POINT (4.8695155 52.3529363)</t>
         </is>
       </c>
-      <c r="H97" t="n">
+      <c r="F97" t="n">
         <v>4.8695155</v>
       </c>
-      <c r="I97" t="n">
+      <c r="G97" t="n">
         <v>52.3529363</v>
       </c>
     </row>
@@ -4232,7 +3646,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4245,21 +3659,15 @@
           <t>Bilderdijkstraat</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>POINT (4.8698359 52.3708243)</t>
         </is>
       </c>
-      <c r="H98" t="n">
+      <c r="F98" t="n">
         <v>4.8698359</v>
       </c>
-      <c r="I98" t="n">
+      <c r="G98" t="n">
         <v>52.3708243</v>
       </c>
     </row>
@@ -4271,7 +3679,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4284,21 +3692,15 @@
           <t>Van Hallstraat</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>POINT (4.8698541 52.3842644)</t>
         </is>
       </c>
-      <c r="H99" t="n">
+      <c r="F99" t="n">
         <v>4.8698541</v>
       </c>
-      <c r="I99" t="n">
+      <c r="G99" t="n">
         <v>52.3842644</v>
       </c>
     </row>
@@ -4310,7 +3712,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4323,21 +3725,15 @@
           <t>De Clercqstraat</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>POINT (4.8703967 52.3706445)</t>
         </is>
       </c>
-      <c r="H100" t="n">
+      <c r="F100" t="n">
         <v>4.8703967</v>
       </c>
-      <c r="I100" t="n">
+      <c r="G100" t="n">
         <v>52.3706445</v>
       </c>
     </row>
@@ -4349,7 +3745,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4362,21 +3758,15 @@
           <t>Cornelis Schuytstraat</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>POINT (4.8705851 52.3559987)</t>
         </is>
       </c>
-      <c r="H101" t="n">
+      <c r="F101" t="n">
         <v>4.8705851</v>
       </c>
-      <c r="I101" t="n">
+      <c r="G101" t="n">
         <v>52.3559987</v>
       </c>
     </row>
@@ -4388,7 +3778,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4401,21 +3791,15 @@
           <t>Kronenburg</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>POINT (4.8706118 52.3160769)</t>
         </is>
       </c>
-      <c r="H102" t="n">
+      <c r="F102" t="n">
         <v>4.8706118</v>
       </c>
-      <c r="I102" t="n">
+      <c r="G102" t="n">
         <v>52.3160769</v>
       </c>
     </row>
@@ -4427,7 +3811,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4440,21 +3824,15 @@
           <t>Oranjebaan</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>POINT (4.8716334 52.3027943)</t>
         </is>
       </c>
-      <c r="H103" t="n">
+      <c r="F103" t="n">
         <v>4.8716334</v>
       </c>
-      <c r="I103" t="n">
+      <c r="G103" t="n">
         <v>52.3027943</v>
       </c>
     </row>
@@ -4466,7 +3844,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4479,21 +3857,15 @@
           <t>Kinkerstraat</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>POINT (4.8719933 52.3674579)</t>
         </is>
       </c>
-      <c r="H104" t="n">
+      <c r="F104" t="n">
         <v>4.8719933</v>
       </c>
-      <c r="I104" t="n">
+      <c r="G104" t="n">
         <v>52.3674579</v>
       </c>
     </row>
@@ -4505,7 +3877,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4518,21 +3890,15 @@
           <t>Minervaplein</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>POINT (4.8720137 52.346695)</t>
         </is>
       </c>
-      <c r="H105" t="n">
+      <c r="F105" t="n">
         <v>4.8720137</v>
       </c>
-      <c r="I105" t="n">
+      <c r="G105" t="n">
         <v>52.346695</v>
       </c>
     </row>
@@ -4544,7 +3910,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4557,21 +3923,15 @@
           <t>Zonnestein</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>POINT (4.8722618 52.3121859)</t>
         </is>
       </c>
-      <c r="H106" t="n">
+      <c r="F106" t="n">
         <v>4.8722618</v>
       </c>
-      <c r="I106" t="n">
+      <c r="G106" t="n">
         <v>52.3121859</v>
       </c>
     </row>
@@ -4583,7 +3943,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4596,21 +3956,15 @@
           <t>Onderuit</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>POINT (4.8724478 52.3079604)</t>
         </is>
       </c>
-      <c r="H107" t="n">
+      <c r="F107" t="n">
         <v>4.8724478</v>
       </c>
-      <c r="I107" t="n">
+      <c r="G107" t="n">
         <v>52.3079604</v>
       </c>
     </row>
@@ -4622,7 +3976,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4635,21 +3989,15 @@
           <t>Hugo de Grootplein</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>POINT (4.872531 52.3742987)</t>
         </is>
       </c>
-      <c r="H108" t="n">
+      <c r="F108" t="n">
         <v>4.872531</v>
       </c>
-      <c r="I108" t="n">
+      <c r="G108" t="n">
         <v>52.3742987</v>
       </c>
     </row>
@@ -4661,7 +4009,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4674,21 +4022,15 @@
           <t>Station Zuid</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>POINT (4.8731849 52.3408165)</t>
         </is>
       </c>
-      <c r="H109" t="n">
+      <c r="F109" t="n">
         <v>4.8731849</v>
       </c>
-      <c r="I109" t="n">
+      <c r="G109" t="n">
         <v>52.3408165</v>
       </c>
     </row>
@@ -4700,7 +4042,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4713,21 +4055,15 @@
           <t>Eerste Constantijn Huygensstraat</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>POINT (4.8747145 52.3626163)</t>
         </is>
       </c>
-      <c r="H110" t="n">
+      <c r="F110" t="n">
         <v>4.8747145</v>
       </c>
-      <c r="I110" t="n">
+      <c r="G110" t="n">
         <v>52.3626163</v>
       </c>
     </row>
@@ -4739,7 +4075,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4752,21 +4088,15 @@
           <t>Van Limburg Stirumplein</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>POINT (4.8749198 52.3844185)</t>
         </is>
       </c>
-      <c r="H111" t="n">
+      <c r="F111" t="n">
         <v>4.8749198</v>
       </c>
-      <c r="I111" t="n">
+      <c r="G111" t="n">
         <v>52.3844185</v>
       </c>
     </row>
@@ -4778,7 +4108,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4793,23 +4123,13 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Overtoom</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
           <t>POINT (4.8749794 52.363227)</t>
         </is>
       </c>
-      <c r="H112" t="n">
+      <c r="F112" t="n">
         <v>4.8749794</v>
       </c>
-      <c r="I112" t="n">
+      <c r="G112" t="n">
         <v>52.363227</v>
       </c>
     </row>
@@ -4821,7 +4141,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4834,21 +4154,15 @@
           <t>Frederik Hendrikplantsoen</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>POINT (4.875268 52.3784783)</t>
         </is>
       </c>
-      <c r="H113" t="n">
+      <c r="F113" t="n">
         <v>4.875268</v>
       </c>
-      <c r="I113" t="n">
+      <c r="G113" t="n">
         <v>52.3784783</v>
       </c>
     </row>
@@ -4860,7 +4174,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4873,21 +4187,15 @@
           <t>Marnixstraat</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>POINT (4.8752838 52.3720538)</t>
         </is>
       </c>
-      <c r="H114" t="n">
+      <c r="F114" t="n">
         <v>4.8752838</v>
       </c>
-      <c r="I114" t="n">
+      <c r="G114" t="n">
         <v>52.3720538</v>
       </c>
     </row>
@@ -4899,7 +4207,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4912,21 +4220,15 @@
           <t>Rozengracht</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>POINT (4.8758665 52.3726552)</t>
         </is>
       </c>
-      <c r="H115" t="n">
+      <c r="F115" t="n">
         <v>4.8758665</v>
       </c>
-      <c r="I115" t="n">
+      <c r="G115" t="n">
         <v>52.3726552</v>
       </c>
     </row>
@@ -4938,7 +4240,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4951,21 +4253,15 @@
           <t>Beethovenstraat</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>POINT (4.8762769 52.3468693)</t>
         </is>
       </c>
-      <c r="H116" t="n">
+      <c r="F116" t="n">
         <v>4.8762769</v>
       </c>
-      <c r="I116" t="n">
+      <c r="G116" t="n">
         <v>52.3468693</v>
       </c>
     </row>
@@ -4977,7 +4273,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4990,21 +4286,15 @@
           <t>Bloemgracht</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>POINT (4.8763837 52.3742782)</t>
         </is>
       </c>
-      <c r="H117" t="n">
+      <c r="F117" t="n">
         <v>4.8763837</v>
       </c>
-      <c r="I117" t="n">
+      <c r="G117" t="n">
         <v>52.3742782</v>
       </c>
     </row>
@@ -5016,7 +4306,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5029,21 +4319,15 @@
           <t>Prinses Irenestraat</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>POINT (4.8767749 52.3431074)</t>
         </is>
       </c>
-      <c r="H118" t="n">
+      <c r="F118" t="n">
         <v>4.8767749</v>
       </c>
-      <c r="I118" t="n">
+      <c r="G118" t="n">
         <v>52.3431074</v>
       </c>
     </row>
@@ -5055,7 +4339,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5068,21 +4352,15 @@
           <t>Stadionweg</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>POINT (4.8768645 52.346674)</t>
         </is>
       </c>
-      <c r="H119" t="n">
+      <c r="F119" t="n">
         <v>4.8768645</v>
       </c>
-      <c r="I119" t="n">
+      <c r="G119" t="n">
         <v>52.346674</v>
       </c>
     </row>
@@ -5094,7 +4372,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5107,21 +4385,15 @@
           <t>Elandsgracht</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>POINT (4.8768971 52.368541)</t>
         </is>
       </c>
-      <c r="H120" t="n">
+      <c r="F120" t="n">
         <v>4.8768971</v>
       </c>
-      <c r="I120" t="n">
+      <c r="G120" t="n">
         <v>52.368541</v>
       </c>
     </row>
@@ -5133,7 +4405,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5146,21 +4418,15 @@
           <t>De Wittenkade</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>POINT (4.8770204 52.3832175)</t>
         </is>
       </c>
-      <c r="H121" t="n">
+      <c r="F121" t="n">
         <v>4.8770204</v>
       </c>
-      <c r="I121" t="n">
+      <c r="G121" t="n">
         <v>52.3832175</v>
       </c>
     </row>
@@ -5172,7 +4438,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5185,21 +4451,15 @@
           <t>Gerrit van der Veenstraat</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>POINT (4.8771911 52.3488198)</t>
         </is>
       </c>
-      <c r="H122" t="n">
+      <c r="F122" t="n">
         <v>4.8771911</v>
       </c>
-      <c r="I122" t="n">
+      <c r="G122" t="n">
         <v>52.3488198</v>
       </c>
     </row>
@@ -5211,7 +4471,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5224,21 +4484,15 @@
           <t>Van Baerlestraat</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>POINT (4.8781266 52.3587793)</t>
         </is>
       </c>
-      <c r="H123" t="n">
+      <c r="F123" t="n">
         <v>4.8781266</v>
       </c>
-      <c r="I123" t="n">
+      <c r="G123" t="n">
         <v>52.3587793</v>
       </c>
     </row>
@@ -5250,7 +4504,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5263,21 +4517,15 @@
           <t>Marnixplein</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>POINT (4.8785423 52.3783985)</t>
         </is>
       </c>
-      <c r="H124" t="n">
+      <c r="F124" t="n">
         <v>4.8785423</v>
       </c>
-      <c r="I124" t="n">
+      <c r="G124" t="n">
         <v>52.3783985</v>
       </c>
     </row>
@@ -5289,7 +4537,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5302,21 +4550,15 @@
           <t>Nassaukade</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>POINT (4.8791525 52.3810685)</t>
         </is>
       </c>
-      <c r="H125" t="n">
+      <c r="F125" t="n">
         <v>4.8791525</v>
       </c>
-      <c r="I125" t="n">
+      <c r="G125" t="n">
         <v>52.3810685</v>
       </c>
     </row>
@@ -5328,7 +4570,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5341,21 +4583,15 @@
           <t>Concertgebouw</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>POINT (4.8791804 52.3559245)</t>
         </is>
       </c>
-      <c r="H126" t="n">
+      <c r="F126" t="n">
         <v>4.8791804</v>
       </c>
-      <c r="I126" t="n">
+      <c r="G126" t="n">
         <v>52.3559245</v>
       </c>
     </row>
@@ -5367,7 +4603,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5380,21 +4616,15 @@
           <t>Museumplein</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>POINT (4.8806042 52.3587143)</t>
         </is>
       </c>
-      <c r="H127" t="n">
+      <c r="F127" t="n">
         <v>4.8806042</v>
       </c>
-      <c r="I127" t="n">
+      <c r="G127" t="n">
         <v>52.3587143</v>
       </c>
     </row>
@@ -5406,7 +4636,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5419,21 +4649,15 @@
           <t>Leidseplein</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>POINT (4.8806933 52.3646825)</t>
         </is>
       </c>
-      <c r="H128" t="n">
+      <c r="F128" t="n">
         <v>4.8806933</v>
       </c>
-      <c r="I128" t="n">
+      <c r="G128" t="n">
         <v>52.3646825</v>
       </c>
     </row>
@@ -5445,7 +4669,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5458,21 +4682,15 @@
           <t>Nieuwe Willemstraat</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>POINT (4.8809562 52.381394)</t>
         </is>
       </c>
-      <c r="H129" t="n">
+      <c r="F129" t="n">
         <v>4.8809562</v>
       </c>
-      <c r="I129" t="n">
+      <c r="G129" t="n">
         <v>52.381394</v>
       </c>
     </row>
@@ -5484,7 +4702,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5497,21 +4715,15 @@
           <t>Roelof Hartplein</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>POINT (4.8820747 52.3526434)</t>
         </is>
       </c>
-      <c r="H130" t="n">
+      <c r="F130" t="n">
         <v>4.8820747</v>
       </c>
-      <c r="I130" t="n">
+      <c r="G130" t="n">
         <v>52.3526434</v>
       </c>
     </row>
@@ -5523,7 +4735,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5536,21 +4748,15 @@
           <t>Eerste Marnixdwarsstraat</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>POINT (4.8821775 52.383238)</t>
         </is>
       </c>
-      <c r="H131" t="n">
+      <c r="F131" t="n">
         <v>4.8821775</v>
       </c>
-      <c r="I131" t="n">
+      <c r="G131" t="n">
         <v>52.383238</v>
       </c>
     </row>
@@ -5562,7 +4768,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5575,21 +4781,15 @@
           <t>Haarlemmerplein</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>POINT (4.8835037 52.384972)</t>
         </is>
       </c>
-      <c r="H132" t="n">
+      <c r="F132" t="n">
         <v>4.8835037</v>
       </c>
-      <c r="I132" t="n">
+      <c r="G132" t="n">
         <v>52.384972</v>
       </c>
     </row>
@@ -5601,7 +4801,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5614,21 +4814,15 @@
           <t>Westermarkt</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>POINT (4.8837739 52.3740565)</t>
         </is>
       </c>
-      <c r="H133" t="n">
+      <c r="F133" t="n">
         <v>4.8837739</v>
       </c>
-      <c r="I133" t="n">
+      <c r="G133" t="n">
         <v>52.3740565</v>
       </c>
     </row>
@@ -5640,7 +4834,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5653,21 +4847,15 @@
           <t>Prinsengracht</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>POINT (4.8843839 52.3650035)</t>
         </is>
       </c>
-      <c r="H134" t="n">
+      <c r="F134" t="n">
         <v>4.8843839</v>
       </c>
-      <c r="I134" t="n">
+      <c r="G134" t="n">
         <v>52.3650035</v>
       </c>
     </row>
@@ -5679,7 +4867,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5692,21 +4880,15 @@
           <t>Zoutkeetsgracht</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>POINT (4.8851416 52.388084)</t>
         </is>
       </c>
-      <c r="H135" t="n">
+      <c r="F135" t="n">
         <v>4.8851416</v>
       </c>
-      <c r="I135" t="n">
+      <c r="G135" t="n">
         <v>52.388084</v>
       </c>
     </row>
@@ -5718,7 +4900,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5731,21 +4913,15 @@
           <t>Keizersgracht</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>POINT (4.8863435 52.3659309)</t>
         </is>
       </c>
-      <c r="H136" t="n">
+      <c r="F136" t="n">
         <v>4.8863435</v>
       </c>
-      <c r="I136" t="n">
+      <c r="G136" t="n">
         <v>52.3659309</v>
       </c>
     </row>
@@ -5757,7 +4933,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5772,23 +4948,13 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Spiegelgracht</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
           <t>POINT (4.887104 52.3609734)</t>
         </is>
       </c>
-      <c r="H137" t="n">
+      <c r="F137" t="n">
         <v>4.887104</v>
       </c>
-      <c r="I137" t="n">
+      <c r="G137" t="n">
         <v>52.3609734</v>
       </c>
     </row>
@@ -5800,7 +4966,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5813,21 +4979,15 @@
           <t>Koningsplein</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>POINT (4.8889206 52.368085)</t>
         </is>
       </c>
-      <c r="H138" t="n">
+      <c r="F138" t="n">
         <v>4.8889206</v>
       </c>
-      <c r="I138" t="n">
+      <c r="G138" t="n">
         <v>52.368085</v>
       </c>
     </row>
@@ -5839,7 +4999,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5852,21 +5012,15 @@
           <t>Drentepark</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>POINT (4.889801 52.3362207)</t>
         </is>
       </c>
-      <c r="H139" t="n">
+      <c r="F139" t="n">
         <v>4.889801</v>
       </c>
-      <c r="I139" t="n">
+      <c r="G139" t="n">
         <v>52.3362207</v>
       </c>
     </row>
@@ -5878,7 +5032,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5891,33 +5045,27 @@
           <t>De Pijp</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>POINT (4.8901771 52.3526769)</t>
         </is>
       </c>
-      <c r="H140" t="n">
+      <c r="F140" t="n">
         <v>4.8901771</v>
       </c>
-      <c r="I140" t="n">
+      <c r="G140" t="n">
         <v>52.3526769</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>310573230</t>
+          <t>3157939483</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5927,36 +5075,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Station RAI</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>POINT (4.8905473 52.3369049)</t>
-        </is>
-      </c>
-      <c r="H141" t="n">
-        <v>4.8905473</v>
-      </c>
-      <c r="I141" t="n">
-        <v>52.3369049</v>
+          <t>Dam</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>POINT (4.8901788 52.3731865)</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>4.8901788</v>
+      </c>
+      <c r="G141" t="n">
+        <v>52.3731865</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>10273052985</t>
+          <t>310573230</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5966,36 +5108,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Paleisstraat</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>POINT (4.890644 52.3719008)</t>
-        </is>
-      </c>
-      <c r="H142" t="n">
-        <v>4.890644</v>
-      </c>
-      <c r="I142" t="n">
-        <v>52.3719008</v>
+          <t>Station RAI</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>POINT (4.8905473 52.3369049)</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>4.8905473</v>
+      </c>
+      <c r="G142" t="n">
+        <v>52.3369049</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>4851477407</t>
+          <t>10273052985</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6005,36 +5141,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Marie Heinekenplein</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>POINT (4.8907033 52.3570037)</t>
-        </is>
-      </c>
-      <c r="H143" t="n">
-        <v>4.8907033</v>
-      </c>
-      <c r="I143" t="n">
-        <v>52.3570037</v>
+          <t>Paleisstraat</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>POINT (4.890644 52.3719008)</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>4.890644</v>
+      </c>
+      <c r="G143" t="n">
+        <v>52.3719008</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>285869162</t>
+          <t>4851477407</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6044,36 +5174,30 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Vijzelgracht</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>POINT (4.8909623 52.3599031)</t>
-        </is>
-      </c>
-      <c r="H144" t="n">
-        <v>4.8909623</v>
-      </c>
-      <c r="I144" t="n">
-        <v>52.3599031</v>
+          <t>Marie Heinekenplein</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>POINT (4.8907033 52.3570037)</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>4.8907033</v>
+      </c>
+      <c r="G144" t="n">
+        <v>52.3570037</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>3295383116</t>
+          <t>285869162</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6083,36 +5207,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Scheldestraat</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>POINT (4.8911566 52.3474774)</t>
-        </is>
-      </c>
-      <c r="H145" t="n">
-        <v>4.8911566</v>
-      </c>
-      <c r="I145" t="n">
-        <v>52.3474774</v>
+          <t>Vijzelgracht</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>POINT (4.8909623 52.3599031)</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>4.8909623</v>
+      </c>
+      <c r="G145" t="n">
+        <v>52.3599031</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>9611530190</t>
+          <t>3295383116</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6122,36 +5240,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>v. Hilligaertstraat</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>POINT (4.8914549 52.3494092)</t>
-        </is>
-      </c>
-      <c r="H146" t="n">
-        <v>4.8914549</v>
-      </c>
-      <c r="I146" t="n">
-        <v>52.3494092</v>
+          <t>Scheldestraat</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>POINT (4.8911566 52.3474774)</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>4.8911566</v>
+      </c>
+      <c r="G146" t="n">
+        <v>52.3474774</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>3294945448</t>
+          <t>9611530190</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6161,36 +5273,30 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Cornelis Troostplein</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>POINT (4.8915363 52.350302)</t>
-        </is>
-      </c>
-      <c r="H147" t="n">
-        <v>4.8915363</v>
-      </c>
-      <c r="I147" t="n">
-        <v>52.350302</v>
+          <t>v. Hilligaertstraat</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>POINT (4.8914549 52.3494092)</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>4.8914549</v>
+      </c>
+      <c r="G147" t="n">
+        <v>52.3494092</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2672749411</t>
+          <t>3294945448</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6200,36 +5306,30 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Rokin</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>POINT (4.8921252 52.3694572)</t>
-        </is>
-      </c>
-      <c r="H148" t="n">
-        <v>4.8921252</v>
-      </c>
-      <c r="I148" t="n">
-        <v>52.3694572</v>
+          <t>Cornelis Troostplein</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>POINT (4.8915363 52.350302)</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>4.8915363</v>
+      </c>
+      <c r="G148" t="n">
+        <v>52.350302</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>289364883</t>
+          <t>2672749411</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6239,36 +5339,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Europaplein</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>POINT (4.8921974 52.3402318)</t>
-        </is>
-      </c>
-      <c r="H149" t="n">
-        <v>4.8921974</v>
-      </c>
-      <c r="I149" t="n">
-        <v>52.3402318</v>
+          <t>Rokin</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>POINT (4.8921252 52.3694572)</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>4.8921252</v>
+      </c>
+      <c r="G149" t="n">
+        <v>52.3694572</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>7197053237</t>
+          <t>289364883</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6278,36 +5372,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Weteringcircuit</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>POINT (4.8923379 52.3593327)</t>
-        </is>
-      </c>
-      <c r="H150" t="n">
-        <v>4.8923379</v>
-      </c>
-      <c r="I150" t="n">
-        <v>52.3593327</v>
+          <t>Europaplein</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>POINT (4.8921974 52.3402318)</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>4.8921974</v>
+      </c>
+      <c r="G150" t="n">
+        <v>52.3402318</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>726817850</t>
+          <t>7197053237</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6317,36 +5405,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Nieuwezijds Kolk</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>POINT (4.8930014 52.3758615)</t>
-        </is>
-      </c>
-      <c r="H151" t="n">
-        <v>4.8930014</v>
-      </c>
-      <c r="I151" t="n">
-        <v>52.3758615</v>
+          <t>Weteringcircuit</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>POINT (4.8923379 52.3593327)</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>4.8923379</v>
+      </c>
+      <c r="G151" t="n">
+        <v>52.3593327</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>310573227</t>
+          <t>726817850</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6356,36 +5438,30 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Dintelstraat</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>POINT (4.8930059 52.341925)</t>
-        </is>
-      </c>
-      <c r="H152" t="n">
-        <v>4.8930059</v>
-      </c>
-      <c r="I152" t="n">
-        <v>52.341925</v>
+          <t>Nieuwezijds Kolk</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>POINT (4.8930014 52.3758615)</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>4.8930014</v>
+      </c>
+      <c r="G152" t="n">
+        <v>52.3758615</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>4851478923</t>
+          <t>310573227</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6395,36 +5471,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Muntplein</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>POINT (4.8930583 52.3658545)</t>
-        </is>
-      </c>
-      <c r="H153" t="n">
-        <v>4.8930583</v>
-      </c>
-      <c r="I153" t="n">
-        <v>52.3658545</v>
+          <t>Dintelstraat</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>POINT (4.8930059 52.341925)</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>4.8930059</v>
+      </c>
+      <c r="G153" t="n">
+        <v>52.341925</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>3297544663</t>
+          <t>4851478923</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6434,36 +5504,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Tweede Van der Helststraat</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>POINT (4.8942153 52.3531905)</t>
-        </is>
-      </c>
-      <c r="H154" t="n">
-        <v>4.8942153</v>
-      </c>
-      <c r="I154" t="n">
-        <v>52.3531905</v>
+          <t>Muntplein</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>POINT (4.8930583 52.3658545)</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>4.8930583</v>
+      </c>
+      <c r="G154" t="n">
+        <v>52.3658545</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>6659367698</t>
+          <t>3297544663</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6473,36 +5537,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Maasstraat</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>POINT (4.8947303 52.3468163)</t>
-        </is>
-      </c>
-      <c r="H155" t="n">
-        <v>4.8947303</v>
-      </c>
-      <c r="I155" t="n">
-        <v>52.3468163</v>
+          <t>Tweede Van der Helststraat</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>POINT (4.8942153 52.3531905)</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>4.8942153</v>
+      </c>
+      <c r="G155" t="n">
+        <v>52.3531905</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2672987276</t>
+          <t>6659367698</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6512,36 +5570,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Rembrandtplein</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>POINT (4.8964238 52.3662601)</t>
-        </is>
-      </c>
-      <c r="H156" t="n">
-        <v>4.8964238</v>
-      </c>
-      <c r="I156" t="n">
-        <v>52.3662601</v>
+          <t>Maasstraat</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>POINT (4.8947303 52.3468163)</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>4.8947303</v>
+      </c>
+      <c r="G156" t="n">
+        <v>52.3468163</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>3303180662</t>
+          <t>2672987276</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6551,36 +5603,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Frederiksplein</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>POINT (4.8978483 52.3594109)</t>
-        </is>
-      </c>
-      <c r="H157" t="n">
-        <v>4.8978483</v>
-      </c>
-      <c r="I157" t="n">
-        <v>52.3594109</v>
+          <t>Rembrandtplein</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>POINT (4.8964238 52.3662601)</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>4.8964238</v>
+      </c>
+      <c r="G157" t="n">
+        <v>52.3662601</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>310569757</t>
+          <t>3303180662</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6590,36 +5636,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Stadhouderskade</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>POINT (4.8992468 52.3581612)</t>
-        </is>
-      </c>
-      <c r="H158" t="n">
-        <v>4.8992468</v>
-      </c>
-      <c r="I158" t="n">
-        <v>52.3581612</v>
+          <t>Frederiksplein</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>POINT (4.8978483 52.3594109)</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>4.8978483</v>
+      </c>
+      <c r="G158" t="n">
+        <v>52.3594109</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>434142269</t>
+          <t>310569757</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6629,36 +5669,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Waalstraat</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>POINT (4.8997164 52.3465631)</t>
-        </is>
-      </c>
-      <c r="H159" t="n">
-        <v>4.8997164</v>
-      </c>
-      <c r="I159" t="n">
-        <v>52.3465631</v>
+          <t>Stadhouderskade</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>POINT (4.8992468 52.3581612)</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>4.8992468</v>
+      </c>
+      <c r="G159" t="n">
+        <v>52.3581612</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>317956000</t>
+          <t>434142269</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6668,36 +5702,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Van Woustraat</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>POINT (4.9008616 52.3546903)</t>
-        </is>
-      </c>
-      <c r="H160" t="n">
-        <v>4.9008616</v>
-      </c>
-      <c r="I160" t="n">
-        <v>52.3546903</v>
+          <t>Waalstraat</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>POINT (4.8997164 52.3465631)</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>4.8997164</v>
+      </c>
+      <c r="G160" t="n">
+        <v>52.3465631</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2673087196</t>
+          <t>317956000</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6707,36 +5735,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Ceintuurbaan</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>POINT (4.9010669 52.3550346)</t>
-        </is>
-      </c>
-      <c r="H161" t="n">
-        <v>4.9010669</v>
-      </c>
-      <c r="I161" t="n">
-        <v>52.3550346</v>
+          <t>Van Woustraat</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>POINT (4.9008616 52.3546903)</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>4.9008616</v>
+      </c>
+      <c r="G161" t="n">
+        <v>52.3546903</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>241772055</t>
+          <t>2673087196</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6746,36 +5768,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Waterlooplein</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>POINT (4.9019846 52.3669934)</t>
-        </is>
-      </c>
-      <c r="H162" t="n">
-        <v>4.9019846</v>
-      </c>
-      <c r="I162" t="n">
-        <v>52.3669934</v>
+          <t>Ceintuurbaan</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>POINT (4.9010669 52.3550346)</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>4.9010669</v>
+      </c>
+      <c r="G162" t="n">
+        <v>52.3550346</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>7026721051</t>
+          <t>241772055</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6785,36 +5801,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Lutmastraat</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>POINT (4.903158 52.3517731)</t>
-        </is>
-      </c>
-      <c r="H163" t="n">
-        <v>4.903158</v>
-      </c>
-      <c r="I163" t="n">
-        <v>52.3517731</v>
+          <t>Waterlooplein</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>POINT (4.9019846 52.3669934)</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>4.9019846</v>
+      </c>
+      <c r="G163" t="n">
+        <v>52.3669934</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1584103895</t>
+          <t>7026721051</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6824,36 +5834,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Amstelkade</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>POINT (4.904043 52.34941)</t>
-        </is>
-      </c>
-      <c r="H164" t="n">
-        <v>4.904043</v>
-      </c>
-      <c r="I164" t="n">
-        <v>52.34941</v>
+          <t>Lutmastraat</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>POINT (4.903158 52.3517731)</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>4.903158</v>
+      </c>
+      <c r="G164" t="n">
+        <v>52.3517731</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1101710093</t>
+          <t>1584103895</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6863,36 +5867,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Victorieplein</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>POINT (4.905072 52.3467733)</t>
-        </is>
-      </c>
-      <c r="H165" t="n">
-        <v>4.905072</v>
-      </c>
-      <c r="I165" t="n">
-        <v>52.3467733</v>
+          <t>Amstelkade</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>POINT (4.904043 52.34941)</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>4.904043</v>
+      </c>
+      <c r="G165" t="n">
+        <v>52.34941</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>46369643</t>
+          <t>1101710093</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6902,36 +5900,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Meester Visserplein</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>POINT (4.9053602 52.3679611)</t>
-        </is>
-      </c>
-      <c r="H166" t="n">
-        <v>4.9053602</v>
-      </c>
-      <c r="I166" t="n">
-        <v>52.3679611</v>
+          <t>Victorieplein</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>POINT (4.905072 52.3467733)</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>4.905072</v>
+      </c>
+      <c r="G166" t="n">
+        <v>52.3467733</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>427560648</t>
+          <t>46369643</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6941,36 +5933,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Weesperplein</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>POINT (4.9071213 52.3610021)</t>
-        </is>
-      </c>
-      <c r="H167" t="n">
-        <v>4.9071213</v>
-      </c>
-      <c r="I167" t="n">
-        <v>52.3610021</v>
+          <t>Meester Visserplein</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>POINT (4.9053602 52.3679611)</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>4.9053602</v>
+      </c>
+      <c r="G167" t="n">
+        <v>52.3679611</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>427561909</t>
+          <t>427560648</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6980,36 +5966,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Wibautstraat</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>POINT (4.9093615 52.3572865)</t>
-        </is>
-      </c>
-      <c r="H168" t="n">
-        <v>4.9093615</v>
-      </c>
-      <c r="I168" t="n">
-        <v>52.3572865</v>
+          <t>Weesperplein</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>POINT (4.9071213 52.3610021)</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>4.9071213</v>
+      </c>
+      <c r="G168" t="n">
+        <v>52.3610021</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>434509970</t>
+          <t>427561909</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7019,36 +5999,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Artis</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>POINT (4.910955 52.3667187)</t>
-        </is>
-      </c>
-      <c r="H169" t="n">
-        <v>4.910955</v>
-      </c>
-      <c r="I169" t="n">
-        <v>52.3667187</v>
+          <t>Wibautstraat</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>POINT (4.9093615 52.3572865)</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>4.9093615</v>
+      </c>
+      <c r="G169" t="n">
+        <v>52.3572865</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>434142267</t>
+          <t>434509970</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -7058,36 +6032,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Amsteldijk</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>POINT (4.9109989 52.3471106)</t>
-        </is>
-      </c>
-      <c r="H170" t="n">
-        <v>4.9109989</v>
-      </c>
-      <c r="I170" t="n">
-        <v>52.3471106</v>
+          <t>Artis</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>POINT (4.910955 52.3667187)</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>4.910955</v>
+      </c>
+      <c r="G170" t="n">
+        <v>52.3667187</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2674767992</t>
+          <t>434142267</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7097,36 +6065,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Muziekgebouw</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>POINT (4.912547 52.3772761)</t>
-        </is>
-      </c>
-      <c r="H171" t="n">
-        <v>4.912547</v>
-      </c>
-      <c r="I171" t="n">
-        <v>52.3772761</v>
+          <t>Amsteldijk</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>POINT (4.9109989 52.3471106)</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>4.9109989</v>
+      </c>
+      <c r="G171" t="n">
+        <v>52.3471106</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1262086564</t>
+          <t>2674767992</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7136,36 +6098,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Camperstraat</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>POINT (4.9134821 52.358335)</t>
-        </is>
-      </c>
-      <c r="H172" t="n">
-        <v>4.9134821</v>
-      </c>
-      <c r="I172" t="n">
-        <v>52.358335</v>
+          <t>Muziekgebouw</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>POINT (4.912547 52.3772761)</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>4.912547</v>
+      </c>
+      <c r="G172" t="n">
+        <v>52.3772761</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>434441207</t>
+          <t>1262086564</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7175,36 +6131,30 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Korte 's-Gravesandestraat</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>POINT (4.9135923 52.3623479)</t>
-        </is>
-      </c>
-      <c r="H173" t="n">
-        <v>4.9135923</v>
-      </c>
-      <c r="I173" t="n">
-        <v>52.3623479</v>
+          <t>Camperstraat</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>POINT (4.9134821 52.358335)</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>4.9134821</v>
+      </c>
+      <c r="G173" t="n">
+        <v>52.358335</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2674521943</t>
+          <t>434441207</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7214,36 +6164,30 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Plantage Lepellaan</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>POINT (4.9152768 52.3652225)</t>
-        </is>
-      </c>
-      <c r="H174" t="n">
-        <v>4.9152768</v>
-      </c>
-      <c r="I174" t="n">
-        <v>52.3652225</v>
+          <t>Korte 's-Gravesandestraat</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>POINT (4.9135923 52.3623479)</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>4.9135923</v>
+      </c>
+      <c r="G174" t="n">
+        <v>52.3623479</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>434524959</t>
+          <t>2674521943</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7253,36 +6197,30 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Beukenweg</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>POINT (4.9167422 52.3590732)</t>
-        </is>
-      </c>
-      <c r="H175" t="n">
-        <v>4.9167422</v>
-      </c>
-      <c r="I175" t="n">
-        <v>52.3590732</v>
+          <t>Plantage Lepellaan</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>POINT (4.9152768 52.3652225)</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>4.9152768</v>
+      </c>
+      <c r="G175" t="n">
+        <v>52.3652225</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>6654529709</t>
+          <t>434524959</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7292,36 +6230,30 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>POINT (4.9178096 52.3474274)</t>
-        </is>
-      </c>
-      <c r="H176" t="n">
-        <v>4.9178096</v>
-      </c>
-      <c r="I176" t="n">
-        <v>52.3474274</v>
+          <t>Beukenweg</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>POINT (4.9167422 52.3590732)</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>4.9167422</v>
+      </c>
+      <c r="G176" t="n">
+        <v>52.3590732</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>3301289966</t>
+          <t>6654529709</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7331,36 +6263,30 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Alexanderplein</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>POINT (4.9185684 52.3633708)</t>
-        </is>
-      </c>
-      <c r="H177" t="n">
-        <v>4.9185684</v>
-      </c>
-      <c r="I177" t="n">
-        <v>52.3633708</v>
+          <t>Amstelstation</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>POINT (4.9178096 52.3474274)</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>4.9178096</v>
+      </c>
+      <c r="G177" t="n">
+        <v>52.3474274</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2678427768</t>
+          <t>3301289966</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7370,36 +6296,30 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Kattenburgerstraat</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>POINT (4.9211099 52.3761672)</t>
-        </is>
-      </c>
-      <c r="H178" t="n">
-        <v>4.9211099</v>
-      </c>
-      <c r="I178" t="n">
-        <v>52.3761672</v>
+          <t>Alexanderplein</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>POINT (4.9185684 52.3633708)</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>4.9185684</v>
+      </c>
+      <c r="G178" t="n">
+        <v>52.3633708</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2674521954</t>
+          <t>2678427768</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7409,36 +6329,30 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Eerste Van Swindenstraat</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>POINT (4.9238286 52.3621936)</t>
-        </is>
-      </c>
-      <c r="H179" t="n">
-        <v>4.9238286</v>
-      </c>
-      <c r="I179" t="n">
-        <v>52.3621936</v>
+          <t>Kattenburgerstraat</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>POINT (4.9211099 52.3761672)</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>4.9211099</v>
+      </c>
+      <c r="G179" t="n">
+        <v>52.3761672</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>3306176728</t>
+          <t>2674521954</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7448,36 +6362,30 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Hoogte Kadijk</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>POINT (4.9242477 52.3666491)</t>
-        </is>
-      </c>
-      <c r="H180" t="n">
-        <v>4.9242477</v>
-      </c>
-      <c r="I180" t="n">
-        <v>52.3666491</v>
+          <t>Eerste Van Swindenstraat</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>POINT (4.9238286 52.3621936)</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>4.9238286</v>
+      </c>
+      <c r="G180" t="n">
+        <v>52.3621936</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>3299908041</t>
+          <t>3306176728</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7487,36 +6395,30 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Linnaeusstraat</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>POINT (4.9249118 52.3599165)</t>
-        </is>
-      </c>
-      <c r="H181" t="n">
-        <v>4.9249118</v>
-      </c>
-      <c r="I181" t="n">
-        <v>52.3599165</v>
+          <t>Hoogte Kadijk</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>POINT (4.9242477 52.3666491)</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>4.9242477</v>
+      </c>
+      <c r="G181" t="n">
+        <v>52.3666491</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2674521970</t>
+          <t>3299908041</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7526,36 +6428,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Wijttenbachstraat</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>POINT (4.9250867 52.360259)</t>
-        </is>
-      </c>
-      <c r="H182" t="n">
-        <v>4.9250867</v>
-      </c>
-      <c r="I182" t="n">
-        <v>52.360259</v>
+          <t>Linnaeusstraat</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>POINT (4.9249118 52.3599165)</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>4.9249118</v>
+      </c>
+      <c r="G182" t="n">
+        <v>52.3599165</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>304076333</t>
+          <t>2674521970</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7565,36 +6461,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Eerste Coehoornstraat</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>POINT (4.9263002 52.3681426)</t>
-        </is>
-      </c>
-      <c r="H183" t="n">
-        <v>4.9263002</v>
-      </c>
-      <c r="I183" t="n">
-        <v>52.3681426</v>
+          <t>Wijttenbachstraat</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>POINT (4.9250867 52.360259)</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>4.9250867</v>
+      </c>
+      <c r="G183" t="n">
+        <v>52.360259</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>4621705536</t>
+          <t>304076333</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7604,36 +6494,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Oostpoort</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>POINT (4.9268761 52.3574304)</t>
-        </is>
-      </c>
-      <c r="H184" t="n">
-        <v>4.9268761</v>
-      </c>
-      <c r="I184" t="n">
-        <v>52.3574304</v>
+          <t>Eerste Coehoornstraat</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>POINT (4.9263002 52.3681426)</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>4.9263002</v>
+      </c>
+      <c r="G184" t="n">
+        <v>52.3681426</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>241392462</t>
+          <t>2674521976</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -7643,36 +6527,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Pontanusstraat</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>POINT (4.9272032 52.3659058)</t>
-        </is>
-      </c>
-      <c r="H185" t="n">
-        <v>4.9272032</v>
-      </c>
-      <c r="I185" t="n">
-        <v>52.3659058</v>
+          <t>Oostpoort</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>POINT (4.9269018 52.3574383)</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>4.9269018</v>
+      </c>
+      <c r="G185" t="n">
+        <v>52.3574383</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>237962650</t>
+          <t>241392462</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -7682,36 +6560,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Dapperstraat</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>POINT (4.9289422 52.3609314)</t>
-        </is>
-      </c>
-      <c r="H186" t="n">
-        <v>4.9289422</v>
-      </c>
-      <c r="I186" t="n">
-        <v>52.3609314</v>
+          <t>Pontanusstraat</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>POINT (4.9272032 52.3659058)</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>4.9272032</v>
+      </c>
+      <c r="G186" t="n">
+        <v>52.3659058</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>330028855</t>
+          <t>237962650</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7721,36 +6593,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Eerste Leeghwaterstraat</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>POINT (4.9293975 52.3700769)</t>
-        </is>
-      </c>
-      <c r="H187" t="n">
-        <v>4.9293975</v>
-      </c>
-      <c r="I187" t="n">
-        <v>52.3700769</v>
+          <t>Dapperstraat</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>POINT (4.9289422 52.3609314)</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>4.9289422</v>
+      </c>
+      <c r="G187" t="n">
+        <v>52.3609314</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>434507136</t>
+          <t>330028855</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -7760,36 +6626,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Hogeweg</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>POINT (4.9308725 52.353568)</t>
-        </is>
-      </c>
-      <c r="H188" t="n">
-        <v>4.9308725</v>
-      </c>
-      <c r="I188" t="n">
-        <v>52.353568</v>
+          <t>Eerste Leeghwaterstraat</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>POINT (4.9293975 52.3700769)</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>4.9293975</v>
+      </c>
+      <c r="G188" t="n">
+        <v>52.3700769</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>241392441</t>
+          <t>434507136</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -7799,36 +6659,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Zeeburgerdijk</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>POINT (4.9324425 52.3659327)</t>
-        </is>
-      </c>
-      <c r="H189" t="n">
-        <v>4.9324425</v>
-      </c>
-      <c r="I189" t="n">
-        <v>52.3659327</v>
+          <t>Hogeweg</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>POINT (4.9308725 52.353568)</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>4.9308725</v>
+      </c>
+      <c r="G189" t="n">
+        <v>52.353568</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>3299908038</t>
+          <t>241392441</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -7838,36 +6692,30 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Muiderpoortstation</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>POINT (4.9326128 52.3607965)</t>
-        </is>
-      </c>
-      <c r="H190" t="n">
-        <v>4.9326128</v>
-      </c>
-      <c r="I190" t="n">
-        <v>52.3607965</v>
+          <t>Zeeburgerdijk</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>POINT (4.9324425 52.3659327)</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>4.9324425</v>
+      </c>
+      <c r="G190" t="n">
+        <v>52.3659327</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>305163755</t>
+          <t>3299908038</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -7877,36 +6725,30 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Rietlandpark</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>POINT (4.9334664 52.3732299)</t>
-        </is>
-      </c>
-      <c r="H191" t="n">
-        <v>4.9334664</v>
-      </c>
-      <c r="I191" t="n">
-        <v>52.3732299</v>
+          <t>Muiderpoortstation</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>POINT (4.9326128 52.3607965)</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>4.9326128</v>
+      </c>
+      <c r="G191" t="n">
+        <v>52.3607965</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2674543283</t>
+          <t>305163755</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -7916,36 +6758,30 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Hugo de Vrieslaan</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>POINT (4.934801 52.351066)</t>
-        </is>
-      </c>
-      <c r="H192" t="n">
-        <v>4.934801</v>
-      </c>
-      <c r="I192" t="n">
-        <v>52.351066</v>
+          <t>Rietlandpark</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>POINT (4.9334664 52.3732299)</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>4.9334664</v>
+      </c>
+      <c r="G192" t="n">
+        <v>52.3732299</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>297099562</t>
+          <t>2674543283</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7955,36 +6791,30 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Azartplein</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>POINT (4.9373223 52.3766133)</t>
-        </is>
-      </c>
-      <c r="H193" t="n">
-        <v>4.9373223</v>
-      </c>
-      <c r="I193" t="n">
-        <v>52.3766133</v>
+          <t>Hugo de Vrieslaan</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>POINT (4.934801 52.351066)</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>4.934801</v>
+      </c>
+      <c r="G193" t="n">
+        <v>52.351066</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>3011895788</t>
+          <t>297099562</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -7994,36 +6824,30 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>C. van Eesterenlaan</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>POINT (4.9381702 52.3734596)</t>
-        </is>
-      </c>
-      <c r="H194" t="n">
-        <v>4.9381702</v>
-      </c>
-      <c r="I194" t="n">
-        <v>52.3734596</v>
+          <t>Azartplein</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>POINT (4.9373223 52.3766133)</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>4.9373223</v>
+      </c>
+      <c r="G194" t="n">
+        <v>52.3766133</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2987217067</t>
+          <t>3011895788</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -8033,36 +6857,30 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Javaplein</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>POINT (4.9382411 52.3641725)</t>
-        </is>
-      </c>
-      <c r="H195" t="n">
-        <v>4.9382411</v>
-      </c>
-      <c r="I195" t="n">
-        <v>52.3641725</v>
+          <t>C. van Eesterenlaan</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>POINT (4.9381702 52.3734596)</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>4.9381702</v>
+      </c>
+      <c r="G195" t="n">
+        <v>52.3734596</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>695213988</t>
+          <t>2987217067</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8072,36 +6890,30 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Kruislaan</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>POINT (4.9398853 52.3479273)</t>
-        </is>
-      </c>
-      <c r="H196" t="n">
-        <v>4.9398853</v>
-      </c>
-      <c r="I196" t="n">
-        <v>52.3479273</v>
+          <t>Javaplein</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>POINT (4.9382411 52.3641725)</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>4.9382411</v>
+      </c>
+      <c r="G196" t="n">
+        <v>52.3641725</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>434524956</t>
+          <t>695213988</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -8111,36 +6923,30 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Molukkenstraat</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>POINT (4.9401785 52.3617259)</t>
-        </is>
-      </c>
-      <c r="H197" t="n">
-        <v>4.9401785</v>
-      </c>
-      <c r="I197" t="n">
-        <v>52.3617259</v>
+          <t>Kruislaan</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>POINT (4.9398853 52.3479273)</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>4.9398853</v>
+      </c>
+      <c r="G197" t="n">
+        <v>52.3479273</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>3303180666</t>
+          <t>434524956</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -8150,36 +6956,30 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Soembawastraat</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>POINT (4.9433884 52.3621442)</t>
-        </is>
-      </c>
-      <c r="H198" t="n">
-        <v>4.9433884</v>
-      </c>
-      <c r="I198" t="n">
-        <v>52.3621442</v>
+          <t>Molukkenstraat</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>POINT (4.9401785 52.3617259)</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>4.9401785</v>
+      </c>
+      <c r="G198" t="n">
+        <v>52.3617259</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>296266579</t>
+          <t>3303180666</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8189,36 +6989,30 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Brinkstraat</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>POINT (4.9474911 52.3432024)</t>
-        </is>
-      </c>
-      <c r="H199" t="n">
-        <v>4.9474911</v>
-      </c>
-      <c r="I199" t="n">
-        <v>52.3432024</v>
+          <t>Soembawastraat</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>POINT (4.9433884 52.3621442)</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>4.9433884</v>
+      </c>
+      <c r="G199" t="n">
+        <v>52.3621442</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>434524953</t>
+          <t>296266579</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8228,36 +7022,30 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Insulindeweg</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>POINT (4.9476342 52.3647569)</t>
-        </is>
-      </c>
-      <c r="H200" t="n">
-        <v>4.9476342</v>
-      </c>
-      <c r="I200" t="n">
-        <v>52.3647569</v>
+          <t>Brinkstraat</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>POINT (4.9474911 52.3432024)</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>4.9474911</v>
+      </c>
+      <c r="G200" t="n">
+        <v>52.3432024</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>3303180661</t>
+          <t>434524953</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8267,36 +7055,30 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Flevopark</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>POINT (4.9510568 52.3652467)</t>
-        </is>
-      </c>
-      <c r="H201" t="n">
-        <v>4.9510568</v>
-      </c>
-      <c r="I201" t="n">
-        <v>52.3652467</v>
+          <t>Insulindeweg</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>POINT (4.9476342 52.3647569)</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>4.9476342</v>
+      </c>
+      <c r="G201" t="n">
+        <v>52.3647569</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2674538480</t>
+          <t>3303180661</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8306,36 +7088,30 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Arent Krijtsstraat</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>POINT (4.9546574 52.33957)</t>
-        </is>
-      </c>
-      <c r="H202" t="n">
-        <v>4.9546574</v>
-      </c>
-      <c r="I202" t="n">
-        <v>52.33957</v>
+          <t>Flevopark</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>POINT (4.9510568 52.3652467)</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>4.9510568</v>
+      </c>
+      <c r="G202" t="n">
+        <v>52.3652467</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>6536976362</t>
+          <t>2674538480</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8345,36 +7121,30 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Diemerbrug</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>POINT (4.9613021 52.3382375)</t>
-        </is>
-      </c>
-      <c r="H203" t="n">
-        <v>4.9613021</v>
-      </c>
-      <c r="I203" t="n">
-        <v>52.3382375</v>
+          <t>Arent Krijtsstraat</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>POINT (4.9546574 52.33957)</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>4.9546574</v>
+      </c>
+      <c r="G203" t="n">
+        <v>52.33957</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2674855327</t>
+          <t>6536976363</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8384,36 +7154,30 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Zuiderzeeweg</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>POINT (4.9616739 52.3719706)</t>
-        </is>
-      </c>
-      <c r="H204" t="n">
-        <v>4.9616739</v>
-      </c>
-      <c r="I204" t="n">
-        <v>52.3719706</v>
+          <t>Diemerbrug</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>POINT (4.9610512 52.3383458)</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>4.9610512</v>
+      </c>
+      <c r="G204" t="n">
+        <v>52.3383458</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>3078329917</t>
+          <t>2674855327</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8421,34 +7185,32 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>POINT (4.9634834 52.3713049)</t>
-        </is>
-      </c>
-      <c r="H205" t="n">
-        <v>4.9634834</v>
-      </c>
-      <c r="I205" t="n">
-        <v>52.3713049</v>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Zuiderzeeweg</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>POINT (4.9616739 52.3719706)</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>4.9616739</v>
+      </c>
+      <c r="G205" t="n">
+        <v>52.3719706</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2677256520</t>
+          <t>3078329917</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8456,38 +7218,28 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Bob Haarmslaan</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>POINT (4.968548 52.369133)</t>
-        </is>
-      </c>
-      <c r="H206" t="n">
-        <v>4.968548</v>
-      </c>
-      <c r="I206" t="n">
-        <v>52.369133</v>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>POINT (4.9634834 52.3713049)</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>4.9634834</v>
+      </c>
+      <c r="G206" t="n">
+        <v>52.3713049</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>5487043827</t>
+          <t>2677256520</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8497,36 +7249,30 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Sniep</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>POINT (4.9697229 52.3364299)</t>
-        </is>
-      </c>
-      <c r="H207" t="n">
-        <v>4.9697229</v>
-      </c>
-      <c r="I207" t="n">
-        <v>52.3364299</v>
+          <t>Bob Haarmslaan</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>POINT (4.968548 52.369133)</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>4.968548</v>
+      </c>
+      <c r="G207" t="n">
+        <v>52.369133</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>3078345543</t>
+          <t>5487043827</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -8536,36 +7282,30 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Steigereiland</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>POINT (4.9799507 52.3632345)</t>
-        </is>
-      </c>
-      <c r="H208" t="n">
-        <v>4.9799507</v>
-      </c>
-      <c r="I208" t="n">
-        <v>52.3632345</v>
+          <t>Sniep</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>POINT (4.9697229 52.3364299)</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>4.9697229</v>
+      </c>
+      <c r="G208" t="n">
+        <v>52.3364299</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>10607209062</t>
+          <t>3078345543</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8575,36 +7315,30 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Vennepluimstraat</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>POINT (4.9899502 52.3580579)</t>
-        </is>
-      </c>
-      <c r="H209" t="n">
-        <v>4.9899502</v>
-      </c>
-      <c r="I209" t="n">
-        <v>52.3580579</v>
+          <t>Steigereiland</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>POINT (4.9799507 52.3632345)</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>4.9799507</v>
+      </c>
+      <c r="G209" t="n">
+        <v>52.3632345</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2677256600</t>
+          <t>10607209062</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -8614,36 +7348,30 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Diemerparklaan</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>POINT (4.9946247 52.3555154)</t>
-        </is>
-      </c>
-      <c r="H210" t="n">
-        <v>4.9946247</v>
-      </c>
-      <c r="I210" t="n">
-        <v>52.3555154</v>
+          <t>Vennepluimstraat</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>POINT (4.9899502 52.3580579)</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>4.9899502</v>
+      </c>
+      <c r="G210" t="n">
+        <v>52.3580579</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2678427771</t>
+          <t>2677256600</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -8653,36 +7381,30 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Lumièrestraat</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>POINT (4.9990167 52.3531807)</t>
-        </is>
-      </c>
-      <c r="H211" t="n">
-        <v>4.9990167</v>
-      </c>
-      <c r="I211" t="n">
-        <v>52.3531807</v>
+          <t>Diemerparklaan</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>POINT (4.9946247 52.3555154)</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>4.9946247</v>
+      </c>
+      <c r="G211" t="n">
+        <v>52.3555154</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>388184245</t>
+          <t>2678427771</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -8692,36 +7414,30 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>IJburg</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>POINT (5.0049024 52.3511345)</t>
-        </is>
-      </c>
-      <c r="H212" t="n">
-        <v>5.0049024</v>
-      </c>
-      <c r="I212" t="n">
-        <v>52.3511345</v>
+          <t>Lumièrestraat</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>POINT (4.9990167 52.3531807)</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>4.9990167</v>
+      </c>
+      <c r="G212" t="n">
+        <v>52.3531807</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>9807478538</t>
+          <t>388184245</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>tram_stop</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -8731,63 +7447,84 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Centraal Station_B</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>POINT (4.8987647 52.3785952)</t>
-        </is>
-      </c>
-      <c r="H213" t="n">
-        <v>4.8987647</v>
-      </c>
-      <c r="I213" t="n">
-        <v>52.3785952</v>
+          <t>IJburg</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>POINT (5.0049024 52.3511345)</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>5.0049024</v>
+      </c>
+      <c r="G213" t="n">
+        <v>52.3511345</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
+          <t>9807478538</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Centraal Station_B</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>POINT (4.8987647 52.3785952)</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>4.8987647</v>
+      </c>
+      <c r="G214" t="n">
+        <v>52.3785952</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
           <t>9982135046</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>tram_stop</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>stop_position</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
         <is>
           <t>Centraal Station_A</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>POINT (4.9009826 52.3777045)</t>
         </is>
       </c>
-      <c r="H214" t="n">
+      <c r="F215" t="n">
         <v>4.9009826</v>
       </c>
-      <c r="I214" t="n">
+      <c r="G215" t="n">
         <v>52.3777045</v>
       </c>
     </row>
